--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8828A6-86B2-4204-9069-D69413BA65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16098DB-DD22-4DBA-85C6-8ABEBA2930CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26805" yWindow="-29235" windowWidth="18945" windowHeight="24630" tabRatio="764" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="-27450" windowWidth="18945" windowHeight="24630" tabRatio="764" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -743,9 +743,6 @@
     <t>gcm</t>
   </si>
   <si>
-    <t>region_underscore</t>
-  </si>
-  <si>
     <t>temp_C_conus</t>
   </si>
   <si>
@@ -2126,6 +2123,9 @@
   </si>
   <si>
     <t>highCI</t>
+  </si>
+  <si>
+    <t>region_id</t>
   </si>
 </sst>
 </file>
@@ -3265,6 +3265,20 @@
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="198">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5554,20 +5568,6 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7600,62 +7600,62 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="B174:J208" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B175:J203">
     <sortCondition ref="E175:E203"/>
     <sortCondition ref="C175:C203"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="86">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="75">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="72" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="73" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="B80:I122" xr:uid="{2B645CB4-F641-4C38-A983-F38F00FA7B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B81:I122">
     <sortCondition ref="C81:C122"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="56">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt; 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7664,68 +7664,68 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="53">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputScenarioInfo" displayName="co_inputScenarioInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputScenarioInfo" displayName="co_inputScenarioInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="47">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="41">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="38">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="37">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7735,10 +7735,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7747,16 +7747,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7766,17 +7766,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7918,8 +7918,8 @@
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_underscore" dataDxfId="125">
-      <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7927,16 +7927,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:G258" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:G258" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="123">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="120"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{2D75E915-5C37-41D0-8D80-E36A15696E43}" name="model_underscore" dataDxfId="117">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="121"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{2D75E915-5C37-41D0-8D80-E36A15696E43}" name="model_underscore" dataDxfId="118">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7945,49 +7945,49 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B49:F74" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:F74">
     <sortCondition ref="C50:C74"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="N/A" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="N/A" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="107" totalsRowDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="B126:P169" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B127:P169">
     <sortCondition ref="C127:C169"/>
     <sortCondition ref="D127:D169"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="103">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="98"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="95"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="90"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="99"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8376,7 +8376,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8384,29 +8384,29 @@
         <v>81</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="79"/>
       <c r="C13" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8424,69 +8424,69 @@
     <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="80"/>
       <c r="C16" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="80"/>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="80"/>
       <c r="C18" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="80"/>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="80"/>
       <c r="C20" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="80"/>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="80"/>
       <c r="C22" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="80"/>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="80"/>
       <c r="C24" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B25" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B26" s="80"/>
       <c r="C26" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8533,16 +8533,16 @@
     </row>
     <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B35" s="55"/>
       <c r="C35" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8557,37 +8557,37 @@
     </row>
     <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8696,16 +8696,16 @@
         <v>97</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>65</v>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="27" t="str">
         <f t="shared" ref="F4" si="0" xml:space="preserve"> "row_id"</f>
@@ -8758,7 +8758,7 @@
         <v>9, 10, 11, 12</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -8767,13 +8767,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="27" t="str">
         <f t="shared" ref="F5:F10" si="1" xml:space="preserve"> "row_id"</f>
@@ -8810,7 +8810,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8819,13 +8819,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -8866,13 +8866,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="M7" s="49"/>
       <c r="N7" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -8913,13 +8913,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="M9" s="49"/>
       <c r="N9" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9007,13 +9007,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="M10" s="49"/>
       <c r="N10" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9054,13 +9054,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" ref="F11:F15" si="2" xml:space="preserve"> "row_id"</f>
@@ -9095,7 +9095,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -9104,13 +9104,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9145,7 +9145,7 @@
         <v>10, 11</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9154,13 +9154,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -9201,13 +9201,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -9248,13 +9248,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F15" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9295,13 +9295,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="27" t="str">
         <f xml:space="preserve"> "row_id"</f>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -9342,13 +9342,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>123</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -9431,10 +9431,10 @@
         <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9446,10 +9446,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>405</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9458,13 +9458,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>407</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9473,13 +9473,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9488,13 +9488,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9503,13 +9503,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -9518,13 +9518,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9533,13 +9533,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -9548,13 +9548,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
@@ -9563,13 +9563,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9581,10 +9581,10 @@
         <v>78</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9593,13 +9593,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -9608,13 +9608,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9623,13 +9623,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -9638,13 +9638,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -9653,13 +9653,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -9668,13 +9668,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -9683,13 +9683,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>421</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -9698,13 +9698,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>423</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -9713,13 +9713,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>425</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -9728,13 +9728,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -9743,13 +9743,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -9758,13 +9758,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -9773,13 +9773,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -9788,13 +9788,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>431</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -9803,13 +9803,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>433</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -9828,9 +9828,9 @@
   </sheetPr>
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E146" sqref="E146"/>
+      <selection pane="topRight" activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9850,7 +9850,7 @@
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -9878,7 +9878,7 @@
         <v>Sectors Table</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -9887,7 +9887,7 @@
         <v>Impact Year Estimates</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -9896,7 +9896,7 @@
         <v>Variants Table</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -9905,7 +9905,7 @@
         <v>Impact Types</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
         <v>Scalar Information</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -9923,7 +9923,7 @@
         <v>Economic Multipliers</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -9932,7 +9932,7 @@
         <v>Constants</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -9941,7 +9941,7 @@
         <v>Model Types</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -9950,7 +9950,7 @@
         <v>GCM Models &amp; SLR Scenarios</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -9959,7 +9959,7 @@
         <v>Regions</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -9968,7 +9968,7 @@
         <v>Input Scenario Information</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -9977,7 +9977,7 @@
         <v>States</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -9986,21 +9986,21 @@
         <v>SLR Scalars</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C16" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -10042,28 +10042,28 @@
         <v>104</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>395</v>
-      </c>
       <c r="L20" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10075,7 +10075,7 @@
         <v>99</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -10124,10 +10124,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
@@ -10176,10 +10176,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -10228,10 +10228,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -10280,10 +10280,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
@@ -10332,10 +10332,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E26" s="68">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" s="12">
         <v>1</v>
@@ -10488,10 +10488,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
@@ -10595,7 +10595,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -10751,7 +10751,7 @@
         <v>59</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E34" s="68">
         <v>1</v>
@@ -10800,10 +10800,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -11060,10 +11060,10 @@
         <v>20</v>
       </c>
       <c r="C40" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>261</v>
       </c>
       <c r="E40" s="13">
         <v>1</v>
@@ -11112,10 +11112,10 @@
         <v>21</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
@@ -11268,10 +11268,10 @@
         <v>24</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
@@ -11369,7 +11369,7 @@
     <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -11402,10 +11402,10 @@
         <v>38</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -11432,7 +11432,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>38</v>
@@ -11450,7 +11450,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>38</v>
@@ -11468,7 +11468,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>38</v>
@@ -11486,7 +11486,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>38</v>
@@ -11504,7 +11504,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>38</v>
@@ -11558,7 +11558,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>38</v>
@@ -11666,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>38</v>
@@ -11756,7 +11756,7 @@
         <v>20</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>38</v>
@@ -11774,7 +11774,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>38</v>
@@ -11828,7 +11828,7 @@
         <v>24</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>38</v>
@@ -11861,7 +11861,7 @@
     <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -11933,22 +11933,22 @@
         <v>56</v>
       </c>
       <c r="D80" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="E80" s="44" t="s">
-        <v>393</v>
-      </c>
       <c r="F80" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G80" s="31" t="s">
         <v>290</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>291</v>
       </c>
       <c r="H80" s="29" t="s">
         <v>138</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -12000,7 +12000,7 @@
         <v>99</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" s="48">
         <v>2040</v>
@@ -12031,13 +12031,13 @@
         <v>3</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D83" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="27">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E84" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F84" s="61">
         <v>1</v>
@@ -12099,13 +12099,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F85" s="61">
         <v>0</v>
@@ -12133,13 +12133,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F86" s="61">
         <v>0</v>
@@ -12167,13 +12167,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E87" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F87" s="61">
         <v>1</v>
@@ -12201,13 +12201,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D88" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E88" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F88" s="61">
         <v>0</v>
@@ -12235,13 +12235,13 @@
         <v>9</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F89" s="61">
         <v>1</v>
@@ -12269,13 +12269,13 @@
         <v>10</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F90" s="61">
         <v>1</v>
@@ -12303,13 +12303,13 @@
         <v>11</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F91" s="61">
         <v>0</v>
@@ -12337,13 +12337,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F92" s="61">
         <v>0</v>
@@ -12374,7 +12374,7 @@
         <v>21</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>22</v>
@@ -12479,7 +12479,7 @@
         <v>38</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F96" s="27">
         <v>1</v>
@@ -12507,10 +12507,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>22</v>
@@ -12541,7 +12541,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>120</v>
@@ -12575,7 +12575,7 @@
         <v>19</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>121</v>
@@ -12615,7 +12615,7 @@
         <v>117</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F100" s="27">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E101" s="48" t="s">
         <v>22</v>
@@ -12714,7 +12714,7 @@
         <v>58</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>22</v>
@@ -12785,7 +12785,7 @@
         <v>38</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F105" s="27">
         <v>1</v>
@@ -12819,7 +12819,7 @@
         <v>38</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" s="27">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>38</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" s="61">
         <v>1</v>
@@ -12881,13 +12881,13 @@
         <v>28</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" s="61">
         <v>1</v>
@@ -12918,7 +12918,7 @@
         <v>46</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E109" s="48" t="s">
         <v>22</v>
@@ -13020,7 +13020,7 @@
         <v>53</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E112" s="48" t="s">
         <v>22</v>
@@ -13125,7 +13125,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F115" s="27">
         <v>1</v>
@@ -13159,7 +13159,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F116" s="27">
         <v>1</v>
@@ -13187,13 +13187,13 @@
         <v>37</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D117" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F117" s="27">
         <v>1</v>
@@ -13221,13 +13221,13 @@
         <v>38</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D118" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F118" s="61">
         <v>1</v>
@@ -13261,7 +13261,7 @@
         <v>38</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F119" s="27">
         <v>1</v>
@@ -13295,7 +13295,7 @@
         <v>38</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F120" s="27">
         <v>1</v>
@@ -13323,13 +13323,13 @@
         <v>41</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F121" s="61">
         <v>1</v>
@@ -13363,7 +13363,7 @@
         <v>38</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F122" s="27">
         <v>1</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
@@ -13423,16 +13423,16 @@
         <v>56</v>
       </c>
       <c r="D126" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E126" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="F126" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F126" s="29" t="s">
-        <v>215</v>
-      </c>
       <c r="G126" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H126" s="29" t="s">
         <v>135</v>
@@ -13447,7 +13447,7 @@
         <v>96</v>
       </c>
       <c r="L126" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M126" s="31" t="s">
         <v>106</v>
@@ -13480,7 +13480,7 @@
         <v>142</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H127" s="28" t="s">
         <v>87</v>
@@ -13529,7 +13529,7 @@
         <v>143</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H128" s="28" t="s">
         <v>87</v>
@@ -13566,22 +13566,22 @@
         <v>3</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D129" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>91</v>
@@ -13615,19 +13615,19 @@
         <v>4</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H130" s="28" t="s">
         <v>87</v>
@@ -13664,16 +13664,16 @@
         <v>5</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G131" s="28" t="s">
         <v>38</v>
@@ -13713,16 +13713,16 @@
         <v>6</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G132" s="28" t="s">
         <v>38</v>
@@ -13762,16 +13762,16 @@
         <v>7</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G133" s="28" t="s">
         <v>38</v>
@@ -13811,16 +13811,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D134" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F134" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>369</v>
       </c>
       <c r="G134" s="28" t="s">
         <v>38</v>
@@ -13860,19 +13860,19 @@
         <v>9</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F135" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="G135" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="G135" s="28" t="s">
-        <v>384</v>
       </c>
       <c r="H135" s="28" t="s">
         <v>91</v>
@@ -13884,7 +13884,7 @@
         <v>91</v>
       </c>
       <c r="K135" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L135" s="28" t="s">
         <v>91</v>
@@ -13909,19 +13909,19 @@
         <v>10</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F136" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="G136" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="G136" s="28" t="s">
-        <v>384</v>
       </c>
       <c r="H136" s="28" t="s">
         <v>91</v>
@@ -13933,7 +13933,7 @@
         <v>91</v>
       </c>
       <c r="K136" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L136" s="28" t="s">
         <v>91</v>
@@ -13958,19 +13958,19 @@
         <v>11</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D137" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F137" s="32" t="s">
         <v>111</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H137" s="28" t="s">
         <v>87</v>
@@ -14013,7 +14013,7 @@
         <v>38</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" s="32" t="s">
         <v>145</v>
@@ -14062,10 +14062,10 @@
         <v>38</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>38</v>
@@ -14105,16 +14105,16 @@
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G140" s="28" t="s">
         <v>38</v>
@@ -14126,7 +14126,7 @@
         <v>91</v>
       </c>
       <c r="J140" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K140" s="28" t="s">
         <v>91</v>
@@ -14166,7 +14166,7 @@
         <v>152</v>
       </c>
       <c r="G141" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H141" s="28" t="s">
         <v>87</v>
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H142" s="28" t="s">
         <v>87</v>
@@ -14258,7 +14258,7 @@
         <v>38</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F143" s="32" t="s">
         <v>60</v>
@@ -14307,10 +14307,10 @@
         <v>38</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G144" s="28" t="s">
         <v>38</v>
@@ -14356,13 +14356,13 @@
         <v>38</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F145" s="32" t="s">
         <v>149</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H145" s="28" t="s">
         <v>103</v>
@@ -14374,7 +14374,7 @@
         <v>91</v>
       </c>
       <c r="K145" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L145" s="28" t="s">
         <v>92</v>
@@ -14405,10 +14405,10 @@
         <v>38</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G146" s="28" t="s">
         <v>38</v>
@@ -14448,28 +14448,28 @@
         <v>21</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H147" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J147" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K147" s="28" t="s">
         <v>129</v>
@@ -14503,7 +14503,7 @@
         <v>38</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F148" s="35" t="s">
         <v>147</v>
@@ -14552,7 +14552,7 @@
         <v>38</v>
       </c>
       <c r="E149" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F149" s="35" t="s">
         <v>150</v>
@@ -14598,7 +14598,7 @@
         <v>20</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>32</v>
@@ -14607,13 +14607,13 @@
         <v>51</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H150" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J150" s="28" t="s">
         <v>91</v>
@@ -14656,13 +14656,13 @@
         <v>50</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H151" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I151" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J151" s="28" t="s">
         <v>91</v>
@@ -14705,13 +14705,13 @@
         <v>41</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H152" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J152" s="28" t="s">
         <v>91</v>
@@ -14754,13 +14754,13 @@
         <v>49</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H153" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J153" s="28" t="s">
         <v>91</v>
@@ -14803,7 +14803,7 @@
         <v>151</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>87</v>
@@ -14846,10 +14846,10 @@
         <v>38</v>
       </c>
       <c r="E155" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G155" s="28" t="s">
         <v>38</v>
@@ -14890,31 +14890,31 @@
         <v>30</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E156" s="48" t="s">
         <v>146</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J156" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K156" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>92</v>
@@ -14939,7 +14939,7 @@
         <v>31</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>112</v>
@@ -14951,19 +14951,19 @@
         <v>112</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J157" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>91</v>
@@ -14988,7 +14988,7 @@
         <v>32</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>111</v>
@@ -15000,13 +15000,13 @@
         <v>111</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J158" s="28" t="s">
         <v>91</v>
@@ -15037,16 +15037,16 @@
         <v>33</v>
       </c>
       <c r="C159" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D159" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="D159" s="28" t="s">
-        <v>439</v>
-      </c>
       <c r="E159" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G159" s="28" t="s">
         <v>38</v>
@@ -15086,19 +15086,19 @@
         <v>34</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E160" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H160" s="28" t="s">
         <v>91</v>
@@ -15110,7 +15110,7 @@
         <v>91</v>
       </c>
       <c r="K160" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L160" s="28" t="s">
         <v>92</v>
@@ -15135,7 +15135,7 @@
         <v>35</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D161" s="28" t="s">
         <v>111</v>
@@ -15147,7 +15147,7 @@
         <v>111</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H161" s="28" t="s">
         <v>91</v>
@@ -15190,7 +15190,7 @@
         <v>38</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F162" s="32" t="s">
         <v>148</v>
@@ -15245,7 +15245,7 @@
         <v>112</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H163" s="28" t="s">
         <v>87</v>
@@ -15294,7 +15294,7 @@
         <v>111</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H164" s="28" t="s">
         <v>87</v>
@@ -15343,7 +15343,7 @@
         <v>144</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H165" s="28" t="s">
         <v>91</v>
@@ -15380,16 +15380,16 @@
         <v>40</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F166" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>38</v>
@@ -15438,7 +15438,7 @@
         <v>25</v>
       </c>
       <c r="F167" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G167" s="28" t="s">
         <v>38</v>
@@ -15487,7 +15487,7 @@
         <v>26</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G168" s="28" t="s">
         <v>38</v>
@@ -15536,7 +15536,7 @@
         <v>27</v>
       </c>
       <c r="F169" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G169" s="28" t="s">
         <v>38</v>
@@ -15573,7 +15573,7 @@
     <row r="172" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -15609,19 +15609,19 @@
         <v>155</v>
       </c>
       <c r="F174" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G174" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="G174" s="31" t="s">
-        <v>182</v>
       </c>
       <c r="H174" s="31" t="s">
         <v>159</v>
       </c>
       <c r="I174" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J174" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
@@ -15642,16 +15642,16 @@
         <v>157</v>
       </c>
       <c r="F175" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G175" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H175" s="81">
         <v>2015</v>
       </c>
       <c r="I175" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J175" s="66"/>
       <c r="Q175"/>
@@ -15664,7 +15664,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>140</v>
@@ -15673,16 +15673,16 @@
         <v>157</v>
       </c>
       <c r="F176" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G176" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H176" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I176" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J176" s="66"/>
       <c r="Q176"/>
@@ -15698,7 +15698,7 @@
         <v>91</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E177" s="81" t="s">
         <v>157</v>
@@ -15707,16 +15707,16 @@
         <v>128</v>
       </c>
       <c r="G177" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H177" s="81" t="s">
         <v>38</v>
       </c>
       <c r="I177" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J177" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q177"/>
       <c r="R177"/>
@@ -15737,16 +15737,16 @@
         <v>157</v>
       </c>
       <c r="F178" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G178" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H178" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I178" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J178" s="66"/>
       <c r="Q178"/>
@@ -15759,28 +15759,28 @@
         <v>5</v>
       </c>
       <c r="C179" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D179" s="26" t="s">
         <v>575</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>576</v>
       </c>
       <c r="E179" s="81" t="s">
         <v>157</v>
       </c>
       <c r="F179" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G179" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H179" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I179" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J179" s="66" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q179"/>
       <c r="R179"/>
@@ -15792,28 +15792,28 @@
         <v>6</v>
       </c>
       <c r="C180" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="D180" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>578</v>
       </c>
       <c r="E180" s="81" t="s">
         <v>157</v>
       </c>
       <c r="F180" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G180" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H180" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I180" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J180" s="66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q180"/>
       <c r="R180"/>
@@ -15825,28 +15825,28 @@
         <v>7</v>
       </c>
       <c r="C181" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>579</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>580</v>
       </c>
       <c r="E181" s="81" t="s">
         <v>157</v>
       </c>
       <c r="F181" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G181" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H181" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I181" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J181" s="66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q181"/>
       <c r="R181"/>
@@ -15858,10 +15858,10 @@
         <v>8</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E182" s="81" t="s">
         <v>156</v>
@@ -15870,13 +15870,13 @@
         <v>128</v>
       </c>
       <c r="G182" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H182" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I182" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J182" s="66"/>
       <c r="Q182"/>
@@ -15889,7 +15889,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>110</v>
@@ -15901,13 +15901,13 @@
         <v>128</v>
       </c>
       <c r="G183" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H183" s="82">
         <v>2010</v>
       </c>
       <c r="I183" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J183" s="66"/>
       <c r="Q183"/>
@@ -15932,13 +15932,13 @@
         <v>128</v>
       </c>
       <c r="G184" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H184" s="81">
         <v>2010</v>
       </c>
       <c r="I184" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J184" s="66"/>
       <c r="Q184"/>
@@ -15963,13 +15963,13 @@
         <v>128</v>
       </c>
       <c r="G185" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H185" s="81">
         <v>2010</v>
       </c>
       <c r="I185" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J185" s="66"/>
     </row>
@@ -15991,13 +15991,13 @@
         <v>128</v>
       </c>
       <c r="G186" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H186" s="81">
         <v>2010</v>
       </c>
       <c r="I186" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J186" s="66"/>
     </row>
@@ -16010,7 +16010,7 @@
         <v>91</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E187" s="81" t="s">
         <v>156</v>
@@ -16019,16 +16019,16 @@
         <v>128</v>
       </c>
       <c r="G187" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H187" s="81" t="s">
         <v>38</v>
       </c>
       <c r="I187" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J187" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.2">
@@ -16037,10 +16037,10 @@
         <v>14</v>
       </c>
       <c r="C188" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>375</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>376</v>
       </c>
       <c r="E188" s="81" t="s">
         <v>156</v>
@@ -16049,7 +16049,7 @@
         <v>128</v>
       </c>
       <c r="G188" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H188" s="82">
         <v>2015</v>
@@ -16063,10 +16063,10 @@
         <v>15</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E189" s="81" t="s">
         <v>156</v>
@@ -16075,13 +16075,13 @@
         <v>128</v>
       </c>
       <c r="G189" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H189" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I189" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J189" s="66"/>
     </row>
@@ -16091,10 +16091,10 @@
         <v>16</v>
       </c>
       <c r="C190" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D190" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>378</v>
       </c>
       <c r="E190" s="81" t="s">
         <v>156</v>
@@ -16103,7 +16103,7 @@
         <v>128</v>
       </c>
       <c r="G190" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H190" s="82">
         <v>2015</v>
@@ -16129,13 +16129,13 @@
         <v>128</v>
       </c>
       <c r="G191" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H191" s="81">
         <v>2010</v>
       </c>
       <c r="I191" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J191" s="66"/>
     </row>
@@ -16157,13 +16157,13 @@
         <v>128</v>
       </c>
       <c r="G192" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H192" s="82">
         <v>2010</v>
       </c>
       <c r="I192" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J192" s="66"/>
     </row>
@@ -16179,19 +16179,19 @@
         <v>136</v>
       </c>
       <c r="E193" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F193" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G193" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H193" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I193" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J193" s="66"/>
     </row>
@@ -16204,25 +16204,25 @@
         <v>91</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E194" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F194" s="81" t="s">
         <v>128</v>
       </c>
       <c r="G194" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H194" s="81" t="s">
         <v>38</v>
       </c>
       <c r="I194" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J194" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
@@ -16231,25 +16231,25 @@
         <v>21</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E195" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F195" s="81" t="s">
         <v>128</v>
       </c>
       <c r="G195" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H195" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I195" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J195" s="66"/>
     </row>
@@ -16259,25 +16259,25 @@
         <v>22</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E196" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F196" s="81" t="s">
         <v>128</v>
       </c>
       <c r="G196" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H196" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I196" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J196" s="66"/>
     </row>
@@ -16287,25 +16287,25 @@
         <v>23</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E197" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F197" s="81" t="s">
         <v>128</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H197" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I197" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J197" s="66"/>
     </row>
@@ -16315,25 +16315,25 @@
         <v>24</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E198" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F198" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G198" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H198" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I198" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J198" s="66"/>
     </row>
@@ -16352,16 +16352,16 @@
         <v>158</v>
       </c>
       <c r="F199" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G199" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H199" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I199" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J199" s="66"/>
     </row>
@@ -16374,7 +16374,7 @@
         <v>91</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E200" s="81" t="s">
         <v>158</v>
@@ -16383,16 +16383,16 @@
         <v>128</v>
       </c>
       <c r="G200" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H200" s="81" t="s">
         <v>38</v>
       </c>
       <c r="I200" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J200" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
@@ -16413,13 +16413,13 @@
         <v>128</v>
       </c>
       <c r="G201" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H201" s="82">
         <v>2010</v>
       </c>
       <c r="I201" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J201" s="66"/>
     </row>
@@ -16438,16 +16438,16 @@
         <v>158</v>
       </c>
       <c r="F202" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G202" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H202" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I202" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J202" s="66"/>
     </row>
@@ -16469,13 +16469,13 @@
         <v>128</v>
       </c>
       <c r="G203" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H203" s="82">
         <v>2010</v>
       </c>
       <c r="I203" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J203" s="66"/>
     </row>
@@ -16499,22 +16499,22 @@
         <v>31</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E205" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F205" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G205" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H205" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I205" s="49"/>
       <c r="J205" s="66"/>
@@ -16525,22 +16525,22 @@
         <v>32</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E206" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F206" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G206" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H206" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I206" s="49"/>
       <c r="J206" s="66"/>
@@ -16551,22 +16551,22 @@
         <v>33</v>
       </c>
       <c r="C207" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>444</v>
-      </c>
-      <c r="D207" s="26" t="s">
-        <v>445</v>
       </c>
       <c r="E207" s="81" t="s">
         <v>157</v>
       </c>
       <c r="F207" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G207" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H207" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I207" s="49"/>
       <c r="J207" s="66"/>
@@ -16577,22 +16577,22 @@
         <v>34</v>
       </c>
       <c r="C208" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D208" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="D208" s="26" t="s">
-        <v>447</v>
-      </c>
       <c r="E208" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F208" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G208" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H208" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I208" s="49"/>
       <c r="J208" s="66"/>
@@ -16600,7 +16600,7 @@
     <row r="211" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
@@ -16627,10 +16627,10 @@
         <v>123</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E213" s="30" t="s">
         <v>159</v>
@@ -16642,10 +16642,10 @@
         <v>1</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D214" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E214" s="46">
         <v>2015</v>
@@ -16660,7 +16660,7 @@
         <v>92</v>
       </c>
       <c r="D215" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E215" s="46" t="s">
         <v>38</v>
@@ -16675,7 +16675,7 @@
         <v>91</v>
       </c>
       <c r="D216" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E216" s="46" t="s">
         <v>38</v>
@@ -16684,7 +16684,7 @@
     <row r="219" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
@@ -16758,7 +16758,7 @@
     <row r="227" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
@@ -16782,7 +16782,7 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
@@ -16790,13 +16790,13 @@
         <v>123</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D230" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E230" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F230" s="29" t="s">
         <v>107</v>
@@ -16805,10 +16805,10 @@
         <v>108</v>
       </c>
       <c r="H230" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I230" s="29" t="s">
         <v>556</v>
-      </c>
-      <c r="I230" s="29" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
@@ -16850,7 +16850,7 @@
         <v>87</v>
       </c>
       <c r="E232" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F232" s="45">
         <v>0.16250000000000001</v>
@@ -16868,7 +16868,7 @@
     <row r="235" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
       <c r="B235" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C235" s="17"/>
       <c r="D235" s="17"/>
@@ -16895,34 +16895,34 @@
         <v>123</v>
       </c>
       <c r="C237" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D237" s="38" t="s">
-        <v>240</v>
-      </c>
       <c r="E237" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F237" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="G237" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="G237" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="H237" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I237" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J237" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K237" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L237" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="L237" s="37" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
@@ -16934,19 +16934,19 @@
         <v>161</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E238" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F238" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G238" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I238" s="43">
         <v>1</v>
@@ -16970,19 +16970,19 @@
         <v>160</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E239" s="42" t="s">
         <v>160</v>
       </c>
       <c r="F239" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G239" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H239" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I239" s="43">
         <v>25</v>
@@ -17000,7 +17000,7 @@
     <row r="242" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -17027,19 +17027,19 @@
         <v>123</v>
       </c>
       <c r="C244" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G244" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="D244" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="E244" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F244" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G244" s="30" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
@@ -17180,7 +17180,7 @@
         <v>7</v>
       </c>
       <c r="C251" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D251" s="45">
         <v>3</v>
@@ -17189,7 +17189,7 @@
         <v>161</v>
       </c>
       <c r="F251" s="87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G251" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17202,7 +17202,7 @@
         <v>8</v>
       </c>
       <c r="C252" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D252" s="45">
         <v>5</v>
@@ -17211,7 +17211,7 @@
         <v>161</v>
       </c>
       <c r="F252" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G252" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17224,7 +17224,7 @@
         <v>9</v>
       </c>
       <c r="C253" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D253" s="45">
         <v>250</v>
@@ -17233,7 +17233,7 @@
         <v>160</v>
       </c>
       <c r="F253" s="87" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G253" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17246,7 +17246,7 @@
         <v>10</v>
       </c>
       <c r="C254" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D254" s="45">
         <v>250</v>
@@ -17255,7 +17255,7 @@
         <v>160</v>
       </c>
       <c r="F254" s="87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G254" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17268,7 +17268,7 @@
         <v>11</v>
       </c>
       <c r="C255" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D255" s="45">
         <v>250</v>
@@ -17277,7 +17277,7 @@
         <v>160</v>
       </c>
       <c r="F255" s="87" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G255" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17290,7 +17290,7 @@
         <v>12</v>
       </c>
       <c r="C256" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D256" s="45">
         <v>250</v>
@@ -17299,7 +17299,7 @@
         <v>160</v>
       </c>
       <c r="F256" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G256" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17312,7 +17312,7 @@
         <v>13</v>
       </c>
       <c r="C257" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D257" s="45">
         <v>250</v>
@@ -17321,7 +17321,7 @@
         <v>160</v>
       </c>
       <c r="F257" s="87" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G257" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17334,7 +17334,7 @@
         <v>14</v>
       </c>
       <c r="C258" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D258" s="45">
         <v>250</v>
@@ -17343,7 +17343,7 @@
         <v>160</v>
       </c>
       <c r="F258" s="87" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G258" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
@@ -17353,7 +17353,7 @@
     <row r="261" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
@@ -17380,25 +17380,25 @@
         <v>123</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F263" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G263" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="H263" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="H263" s="31" t="s">
-        <v>330</v>
-      </c>
       <c r="I263" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J263" s="31" t="s">
         <v>55</v>
@@ -17410,23 +17410,23 @@
         <v>1</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D264" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E264" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G264" s="27">
         <v>0</v>
       </c>
       <c r="H264" s="27"/>
       <c r="I264" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J264" s="27">
         <v>0</v>
@@ -17441,20 +17441,20 @@
         <v>160</v>
       </c>
       <c r="D265" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E265" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G265" s="27">
         <v>0</v>
       </c>
       <c r="H265" s="27"/>
       <c r="I265" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J265" s="27">
         <v>0</v>
@@ -17466,16 +17466,16 @@
         <v>3</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D266" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E266" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G266" s="27">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v/>
       </c>
       <c r="I266" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J266" s="27">
         <v>0</v>
@@ -17497,16 +17497,16 @@
         <v>4</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D267" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E267" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G267" s="27">
         <v>0</v>
@@ -17516,7 +17516,7 @@
         <v/>
       </c>
       <c r="I267" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J267" s="27">
         <v>1</v>
@@ -17555,7 +17555,7 @@
         <v>70</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>162</v>
+        <v>605</v>
       </c>
       <c r="E272" s="2"/>
     </row>
@@ -17568,7 +17568,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Midwest</v>
       </c>
       <c r="E273" s="2"/>
@@ -17582,7 +17582,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Northeast</v>
       </c>
       <c r="E274" s="2"/>
@@ -17596,8 +17596,8 @@
         <v>8</v>
       </c>
       <c r="D275" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
-        <v>Northern_Plains</v>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>NorthernPlains</v>
       </c>
       <c r="E275" s="2"/>
     </row>
@@ -17610,7 +17610,7 @@
         <v>9</v>
       </c>
       <c r="D276" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Northwest</v>
       </c>
       <c r="E276" s="2"/>
@@ -17624,7 +17624,7 @@
         <v>10</v>
       </c>
       <c r="D277" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Southeast</v>
       </c>
       <c r="E277" s="2"/>
@@ -17638,8 +17638,8 @@
         <v>11</v>
       </c>
       <c r="D278" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
-        <v>Southern_Plains</v>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>SouthernPlains</v>
       </c>
       <c r="E278" s="2"/>
     </row>
@@ -17652,7 +17652,7 @@
         <v>12</v>
       </c>
       <c r="D279" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "_" )</f>
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Southwest</v>
       </c>
       <c r="E279" s="2"/>
@@ -17660,7 +17660,7 @@
     <row r="282" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C282" s="17"/>
       <c r="D282" s="17"/>
@@ -17687,16 +17687,16 @@
         <v>123</v>
       </c>
       <c r="C284" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
@@ -17705,10 +17705,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="D285" s="83" t="s">
         <v>453</v>
-      </c>
-      <c r="D285" s="83" t="s">
-        <v>454</v>
       </c>
       <c r="E285" s="83" t="s">
         <v>10</v>
@@ -17723,10 +17723,10 @@
         <v>2</v>
       </c>
       <c r="C286" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="D286" s="83" t="s">
         <v>455</v>
-      </c>
-      <c r="D286" s="83" t="s">
-        <v>456</v>
       </c>
       <c r="E286" s="83" t="s">
         <v>12</v>
@@ -17741,10 +17741,10 @@
         <v>3</v>
       </c>
       <c r="C287" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="D287" s="83" t="s">
         <v>457</v>
-      </c>
-      <c r="D287" s="83" t="s">
-        <v>458</v>
       </c>
       <c r="E287" s="83" t="s">
         <v>10</v>
@@ -17759,10 +17759,10 @@
         <v>4</v>
       </c>
       <c r="C288" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="D288" s="83" t="s">
         <v>459</v>
-      </c>
-      <c r="D288" s="83" t="s">
-        <v>460</v>
       </c>
       <c r="E288" s="83" t="s">
         <v>12</v>
@@ -17777,10 +17777,10 @@
         <v>5</v>
       </c>
       <c r="C289" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="D289" s="83" t="s">
         <v>461</v>
-      </c>
-      <c r="D289" s="83" t="s">
-        <v>462</v>
       </c>
       <c r="E289" s="83" t="s">
         <v>12</v>
@@ -17795,10 +17795,10 @@
         <v>6</v>
       </c>
       <c r="C290" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="D290" s="83" t="s">
         <v>463</v>
-      </c>
-      <c r="D290" s="83" t="s">
-        <v>464</v>
       </c>
       <c r="E290" s="83" t="s">
         <v>7</v>
@@ -17813,10 +17813,10 @@
         <v>7</v>
       </c>
       <c r="C291" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="D291" s="83" t="s">
         <v>465</v>
-      </c>
-      <c r="D291" s="83" t="s">
-        <v>466</v>
       </c>
       <c r="E291" s="83" t="s">
         <v>7</v>
@@ -17831,10 +17831,10 @@
         <v>8</v>
       </c>
       <c r="C292" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="D292" s="83" t="s">
         <v>467</v>
-      </c>
-      <c r="D292" s="83" t="s">
-        <v>468</v>
       </c>
       <c r="E292" s="83" t="s">
         <v>7</v>
@@ -17849,10 +17849,10 @@
         <v>9</v>
       </c>
       <c r="C293" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="D293" s="83" t="s">
         <v>469</v>
-      </c>
-      <c r="D293" s="83" t="s">
-        <v>470</v>
       </c>
       <c r="E293" s="83" t="s">
         <v>10</v>
@@ -17867,10 +17867,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="D294" s="83" t="s">
         <v>471</v>
-      </c>
-      <c r="D294" s="83" t="s">
-        <v>472</v>
       </c>
       <c r="E294" s="83" t="s">
         <v>10</v>
@@ -17885,7 +17885,7 @@
         <v>11</v>
       </c>
       <c r="C295" s="83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D295" s="83" t="s">
         <v>47</v>
@@ -17903,10 +17903,10 @@
         <v>12</v>
       </c>
       <c r="C296" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="D296" s="83" t="s">
         <v>474</v>
-      </c>
-      <c r="D296" s="83" t="s">
-        <v>475</v>
       </c>
       <c r="E296" s="83" t="s">
         <v>6</v>
@@ -17921,10 +17921,10 @@
         <v>13</v>
       </c>
       <c r="C297" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="D297" s="83" t="s">
         <v>476</v>
-      </c>
-      <c r="D297" s="83" t="s">
-        <v>477</v>
       </c>
       <c r="E297" s="83" t="s">
         <v>6</v>
@@ -17939,10 +17939,10 @@
         <v>14</v>
       </c>
       <c r="C298" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="D298" s="83" t="s">
         <v>478</v>
-      </c>
-      <c r="D298" s="83" t="s">
-        <v>479</v>
       </c>
       <c r="E298" s="83" t="s">
         <v>6</v>
@@ -17957,10 +17957,10 @@
         <v>15</v>
       </c>
       <c r="C299" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="D299" s="83" t="s">
         <v>480</v>
-      </c>
-      <c r="D299" s="83" t="s">
-        <v>481</v>
       </c>
       <c r="E299" s="83" t="s">
         <v>11</v>
@@ -17975,10 +17975,10 @@
         <v>16</v>
       </c>
       <c r="C300" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="D300" s="83" t="s">
         <v>482</v>
-      </c>
-      <c r="D300" s="83" t="s">
-        <v>483</v>
       </c>
       <c r="E300" s="83" t="s">
         <v>10</v>
@@ -17993,10 +17993,10 @@
         <v>17</v>
       </c>
       <c r="C301" s="83" t="s">
+        <v>483</v>
+      </c>
+      <c r="D301" s="83" t="s">
         <v>484</v>
-      </c>
-      <c r="D301" s="83" t="s">
-        <v>485</v>
       </c>
       <c r="E301" s="83" t="s">
         <v>10</v>
@@ -18011,10 +18011,10 @@
         <v>18</v>
       </c>
       <c r="C302" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="D302" s="83" t="s">
         <v>486</v>
-      </c>
-      <c r="D302" s="83" t="s">
-        <v>487</v>
       </c>
       <c r="E302" s="83" t="s">
         <v>7</v>
@@ -18029,10 +18029,10 @@
         <v>19</v>
       </c>
       <c r="C303" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="D303" s="83" t="s">
         <v>488</v>
-      </c>
-      <c r="D303" s="83" t="s">
-        <v>489</v>
       </c>
       <c r="E303" s="83" t="s">
         <v>7</v>
@@ -18047,10 +18047,10 @@
         <v>20</v>
       </c>
       <c r="C304" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="D304" s="83" t="s">
         <v>490</v>
-      </c>
-      <c r="D304" s="83" t="s">
-        <v>491</v>
       </c>
       <c r="E304" s="83" t="s">
         <v>7</v>
@@ -18065,10 +18065,10 @@
         <v>21</v>
       </c>
       <c r="C305" s="83" t="s">
+        <v>491</v>
+      </c>
+      <c r="D305" s="83" t="s">
         <v>492</v>
-      </c>
-      <c r="D305" s="83" t="s">
-        <v>493</v>
       </c>
       <c r="E305" s="83" t="s">
         <v>6</v>
@@ -18083,10 +18083,10 @@
         <v>22</v>
       </c>
       <c r="C306" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="D306" s="83" t="s">
         <v>494</v>
-      </c>
-      <c r="D306" s="83" t="s">
-        <v>495</v>
       </c>
       <c r="E306" s="83" t="s">
         <v>6</v>
@@ -18101,10 +18101,10 @@
         <v>23</v>
       </c>
       <c r="C307" s="83" t="s">
+        <v>495</v>
+      </c>
+      <c r="D307" s="83" t="s">
         <v>496</v>
-      </c>
-      <c r="D307" s="83" t="s">
-        <v>497</v>
       </c>
       <c r="E307" s="83" t="s">
         <v>10</v>
@@ -18119,10 +18119,10 @@
         <v>24</v>
       </c>
       <c r="C308" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="D308" s="83" t="s">
         <v>498</v>
-      </c>
-      <c r="D308" s="83" t="s">
-        <v>499</v>
       </c>
       <c r="E308" s="83" t="s">
         <v>6</v>
@@ -18137,10 +18137,10 @@
         <v>25</v>
       </c>
       <c r="C309" s="83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D309" s="83" t="s">
         <v>500</v>
-      </c>
-      <c r="D309" s="83" t="s">
-        <v>501</v>
       </c>
       <c r="E309" s="83" t="s">
         <v>8</v>
@@ -18155,10 +18155,10 @@
         <v>26</v>
       </c>
       <c r="C310" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="D310" s="83" t="s">
         <v>502</v>
-      </c>
-      <c r="D310" s="83" t="s">
-        <v>503</v>
       </c>
       <c r="E310" s="83" t="s">
         <v>8</v>
@@ -18173,10 +18173,10 @@
         <v>27</v>
       </c>
       <c r="C311" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="D311" s="83" t="s">
         <v>504</v>
-      </c>
-      <c r="D311" s="83" t="s">
-        <v>505</v>
       </c>
       <c r="E311" s="83" t="s">
         <v>12</v>
@@ -18191,10 +18191,10 @@
         <v>28</v>
       </c>
       <c r="C312" s="83" t="s">
+        <v>505</v>
+      </c>
+      <c r="D312" s="83" t="s">
         <v>506</v>
-      </c>
-      <c r="D312" s="83" t="s">
-        <v>507</v>
       </c>
       <c r="E312" s="83" t="s">
         <v>7</v>
@@ -18209,10 +18209,10 @@
         <v>29</v>
       </c>
       <c r="C313" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="D313" s="83" t="s">
         <v>508</v>
-      </c>
-      <c r="D313" s="83" t="s">
-        <v>509</v>
       </c>
       <c r="E313" s="83" t="s">
         <v>7</v>
@@ -18227,10 +18227,10 @@
         <v>30</v>
       </c>
       <c r="C314" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="D314" s="83" t="s">
         <v>510</v>
-      </c>
-      <c r="D314" s="83" t="s">
-        <v>511</v>
       </c>
       <c r="E314" s="83" t="s">
         <v>12</v>
@@ -18245,10 +18245,10 @@
         <v>31</v>
       </c>
       <c r="C315" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="D315" s="83" t="s">
         <v>512</v>
-      </c>
-      <c r="D315" s="83" t="s">
-        <v>513</v>
       </c>
       <c r="E315" s="83" t="s">
         <v>7</v>
@@ -18263,10 +18263,10 @@
         <v>32</v>
       </c>
       <c r="C316" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="D316" s="83" t="s">
         <v>514</v>
-      </c>
-      <c r="D316" s="83" t="s">
-        <v>515</v>
       </c>
       <c r="E316" s="83" t="s">
         <v>10</v>
@@ -18281,10 +18281,10 @@
         <v>33</v>
       </c>
       <c r="C317" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="D317" s="83" t="s">
         <v>516</v>
-      </c>
-      <c r="D317" s="83" t="s">
-        <v>517</v>
       </c>
       <c r="E317" s="83" t="s">
         <v>8</v>
@@ -18299,10 +18299,10 @@
         <v>34</v>
       </c>
       <c r="C318" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D318" s="83" t="s">
         <v>518</v>
-      </c>
-      <c r="D318" s="83" t="s">
-        <v>519</v>
       </c>
       <c r="E318" s="83" t="s">
         <v>6</v>
@@ -18317,10 +18317,10 @@
         <v>35</v>
       </c>
       <c r="C319" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="D319" s="83" t="s">
         <v>520</v>
-      </c>
-      <c r="D319" s="83" t="s">
-        <v>521</v>
       </c>
       <c r="E319" s="83" t="s">
         <v>11</v>
@@ -18335,10 +18335,10 @@
         <v>36</v>
       </c>
       <c r="C320" s="83" t="s">
+        <v>521</v>
+      </c>
+      <c r="D320" s="83" t="s">
         <v>522</v>
-      </c>
-      <c r="D320" s="83" t="s">
-        <v>523</v>
       </c>
       <c r="E320" s="83" t="s">
         <v>9</v>
@@ -18353,10 +18353,10 @@
         <v>37</v>
       </c>
       <c r="C321" s="83" t="s">
+        <v>523</v>
+      </c>
+      <c r="D321" s="83" t="s">
         <v>524</v>
-      </c>
-      <c r="D321" s="83" t="s">
-        <v>525</v>
       </c>
       <c r="E321" s="83" t="s">
         <v>7</v>
@@ -18371,10 +18371,10 @@
         <v>38</v>
       </c>
       <c r="C322" s="83" t="s">
+        <v>525</v>
+      </c>
+      <c r="D322" s="83" t="s">
         <v>526</v>
-      </c>
-      <c r="D322" s="83" t="s">
-        <v>527</v>
       </c>
       <c r="E322" s="83" t="s">
         <v>7</v>
@@ -18389,10 +18389,10 @@
         <v>39</v>
       </c>
       <c r="C323" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="D323" s="83" t="s">
         <v>528</v>
-      </c>
-      <c r="D323" s="83" t="s">
-        <v>529</v>
       </c>
       <c r="E323" s="83" t="s">
         <v>10</v>
@@ -18407,10 +18407,10 @@
         <v>40</v>
       </c>
       <c r="C324" s="83" t="s">
+        <v>529</v>
+      </c>
+      <c r="D324" s="83" t="s">
         <v>530</v>
-      </c>
-      <c r="D324" s="83" t="s">
-        <v>531</v>
       </c>
       <c r="E324" s="83" t="s">
         <v>8</v>
@@ -18425,10 +18425,10 @@
         <v>41</v>
       </c>
       <c r="C325" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="D325" s="83" t="s">
         <v>532</v>
-      </c>
-      <c r="D325" s="83" t="s">
-        <v>533</v>
       </c>
       <c r="E325" s="83" t="s">
         <v>10</v>
@@ -18443,10 +18443,10 @@
         <v>42</v>
       </c>
       <c r="C326" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="D326" s="83" t="s">
         <v>534</v>
-      </c>
-      <c r="D326" s="83" t="s">
-        <v>535</v>
       </c>
       <c r="E326" s="83" t="s">
         <v>11</v>
@@ -18461,10 +18461,10 @@
         <v>43</v>
       </c>
       <c r="C327" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="D327" s="83" t="s">
         <v>536</v>
-      </c>
-      <c r="D327" s="83" t="s">
-        <v>537</v>
       </c>
       <c r="E327" s="83" t="s">
         <v>12</v>
@@ -18479,10 +18479,10 @@
         <v>44</v>
       </c>
       <c r="C328" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="D328" s="83" t="s">
         <v>538</v>
-      </c>
-      <c r="D328" s="83" t="s">
-        <v>539</v>
       </c>
       <c r="E328" s="83" t="s">
         <v>7</v>
@@ -18497,10 +18497,10 @@
         <v>45</v>
       </c>
       <c r="C329" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="D329" s="83" t="s">
         <v>540</v>
-      </c>
-      <c r="D329" s="83" t="s">
-        <v>541</v>
       </c>
       <c r="E329" s="83" t="s">
         <v>10</v>
@@ -18515,10 +18515,10 @@
         <v>46</v>
       </c>
       <c r="C330" s="83" t="s">
+        <v>541</v>
+      </c>
+      <c r="D330" s="83" t="s">
         <v>542</v>
-      </c>
-      <c r="D330" s="83" t="s">
-        <v>543</v>
       </c>
       <c r="E330" s="83" t="s">
         <v>9</v>
@@ -18533,10 +18533,10 @@
         <v>47</v>
       </c>
       <c r="C331" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="D331" s="83" t="s">
         <v>544</v>
-      </c>
-      <c r="D331" s="83" t="s">
-        <v>545</v>
       </c>
       <c r="E331" s="83" t="s">
         <v>7</v>
@@ -18551,10 +18551,10 @@
         <v>48</v>
       </c>
       <c r="C332" s="83" t="s">
+        <v>545</v>
+      </c>
+      <c r="D332" s="83" t="s">
         <v>546</v>
-      </c>
-      <c r="D332" s="83" t="s">
-        <v>547</v>
       </c>
       <c r="E332" s="83" t="s">
         <v>6</v>
@@ -18569,10 +18569,10 @@
         <v>49</v>
       </c>
       <c r="C333" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="D333" s="83" t="s">
         <v>548</v>
-      </c>
-      <c r="D333" s="83" t="s">
-        <v>549</v>
       </c>
       <c r="E333" s="83" t="s">
         <v>8</v>
@@ -18584,22 +18584,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B35 B36:F45">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F34">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:J132">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18658,7 +18658,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -18669,13 +18669,13 @@
         <v>56</v>
       </c>
       <c r="D3" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>354</v>
-      </c>
       <c r="F3" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
@@ -18693,7 +18693,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -18711,12 +18711,12 @@
         <v>119</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -18727,10 +18727,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" t="s">
         <v>353</v>
-      </c>
-      <c r="E9" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -18853,25 +18853,25 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>594</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>595</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>596</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>597</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>598</v>
-      </c>
-      <c r="I1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16098DB-DD22-4DBA-85C6-8ABEBA2930CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05D944-288B-4983-9F50-62662DD09A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="-27450" windowWidth="18945" windowHeight="24630" tabRatio="764" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="loc_coConstants">co_constants[[#Headers],[row_id]]</definedName>
     <definedName name="loc_coImpactTypes">co_impactTypes[[#Headers],[row_id]]</definedName>
     <definedName name="loc_coImpactYears">co_impactYears[[#Headers],[row_id]]</definedName>
-    <definedName name="loc_coInputScenarioInfo">co_inputScenarioInfo[[#Headers],[row_id]]</definedName>
+    <definedName name="loc_coInputScenarioInfo">co_inputInfo[[#Headers],[row_id]]</definedName>
     <definedName name="loc_colorLegend">controlTables!$C$16</definedName>
     <definedName name="loc_coModels">co_models[[#Headers],[row_id]]</definedName>
     <definedName name="loc_coModelTypes">co_modelTypes[[#Headers],[row_id]]</definedName>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="607">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2126,6 +2126,9 @@
   </si>
   <si>
     <t>region_id</t>
+  </si>
+  <si>
+    <t>co_inputInfo</t>
   </si>
 </sst>
 </file>
@@ -3265,20 +3268,6 @@
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="198">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5568,6 +5557,20 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7600,62 +7603,62 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="B174:J208" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B175:J203">
     <sortCondition ref="E175:E203"/>
     <sortCondition ref="C175:C203"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="85">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="74">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="73" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="72" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B80:I122" xr:uid="{2B645CB4-F641-4C38-A983-F38F00FA7B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B81:I122">
     <sortCondition ref="C81:C122"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="56">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="55">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt; 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7664,68 +7667,68 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputScenarioInfo" displayName="co_inputScenarioInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="47">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="46">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="41">
-      <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="40">
+      <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="37">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7735,10 +7738,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="21">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7747,16 +7750,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7766,17 +7769,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7918,7 +7921,7 @@
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="125">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7927,16 +7930,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:G258" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:G258" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="123">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="122">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="121"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{2D75E915-5C37-41D0-8D80-E36A15696E43}" name="model_underscore" dataDxfId="118">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="120"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{2D75E915-5C37-41D0-8D80-E36A15696E43}" name="model_underscore" dataDxfId="117">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7945,49 +7948,49 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="B49:F74" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:F74">
     <sortCondition ref="C50:C74"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="N/A" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="N/A" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="106" totalsRowDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="B126:P169" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B127:P169">
     <sortCondition ref="C127:C169"/>
     <sortCondition ref="D127:D169"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="102">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="99"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="96"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="90"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="98"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="95"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="90"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="89"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="88">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8642,10 +8645,10 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9154,7 +9157,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>334</v>
+        <v>606</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -9350,8 +9353,9 @@
       <c r="E17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>123</v>
+      <c r="F17" s="27" t="str">
+        <f xml:space="preserve"> "row_id"</f>
+        <v>row_id</v>
       </c>
       <c r="G17" s="31" cm="1">
         <f t="array" aca="1" ref="G17" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
@@ -9828,9 +9832,9 @@
   </sheetPr>
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D274" sqref="D274"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9964,7 +9968,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="50" t="str">
-        <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputScenarioInfo[[#Headers],[row_id]] ), COLUMN( co_inputScenarioInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
+        <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -17406,7 +17410,7 @@
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B264" s="4">
-        <f xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</f>
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
       <c r="C264" s="7" t="s">
@@ -17434,7 +17438,7 @@
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B265" s="4">
-        <f xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</f>
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -17462,7 +17466,7 @@
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B266" s="4">
-        <f xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</f>
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
       <c r="C266" s="7" t="s">
@@ -17481,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="H266" s="27" t="str">
-        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
+        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
       <c r="I266" s="27" t="s">
@@ -17493,7 +17497,7 @@
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B267" s="4">
-        <f xml:space="preserve"> ROW( co_inputScenarioInfo[[#This Row],[row_id]] ) - ROW( co_inputScenarioInfo[[#Headers],[row_id]] )</f>
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
       <c r="C267" s="7" t="s">
@@ -17512,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="27" t="str">
-        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputScenarioInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
+        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
       <c r="I267" s="27" t="s">
@@ -18584,22 +18588,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B35 B36:F45">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F34">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:J132">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05D944-288B-4983-9F50-62662DD09A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F854F5-D1E2-46C0-B702-836566412A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
     <sheet name="tableNames" sheetId="43" r:id="rId2"/>
-    <sheet name="testDev" sheetId="52" r:id="rId3"/>
-    <sheet name="controlTables" sheetId="24" r:id="rId4"/>
-    <sheet name="slrReadMe" sheetId="50" state="hidden" r:id="rId5"/>
+    <sheet name="controlTables" sheetId="24" r:id="rId3"/>
+    <sheet name="slrReadMe" sheetId="50" state="hidden" r:id="rId4"/>
+    <sheet name="testDev" sheetId="52" r:id="rId5"/>
     <sheet name="slr_cm" sheetId="49" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -167,7 +167,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    For sectors with multiple adaptation scenarios, one scenario is considered the "primary" scenario -- frequently focused on in summary graphics across all sectors.</t>
+    For sectors with multiple variants, one variant is considered the "primary" variant -- e.g., as used in when aggregating across sectors.</t>
       </text>
     </comment>
     <comment ref="G80" authorId="5" shapeId="0" xr:uid="{3962DDEC-520D-4477-AB4D-6A758B04F9CC}">
@@ -175,7 +175,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Boolean field -- indicates whether a sector includes sub-impact estimates. See sector table above for list of sub-impact estimates.</t>
+    Numeric field -- indicates whether a sector should be included when aggregating over sectors. Sectors with a flag &gt;= 1 are generally included in aggregation. Flags &gt; 1 may have different treatments</t>
       </text>
     </comment>
     <comment ref="H144" authorId="6" shapeId="0" xr:uid="{B944EC01-36D0-40EC-99E6-BA8270B055AE}">
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="600">
   <si>
     <t>CanESM2</t>
   </si>
@@ -824,9 +824,6 @@
     <t>model_id</t>
   </si>
   <si>
-    <t>model_underscore</t>
-  </si>
-  <si>
     <t>data_scaledImpacts</t>
   </si>
   <si>
@@ -939,24 +936,6 @@
   </si>
   <si>
     <t>scaledImpacts</t>
-  </si>
-  <si>
-    <t>0p3</t>
-  </si>
-  <si>
-    <t>0p5</t>
-  </si>
-  <si>
-    <t>1p0</t>
-  </si>
-  <si>
-    <t>1p5</t>
-  </si>
-  <si>
-    <t>2p0</t>
-  </si>
-  <si>
-    <t>2p5</t>
   </si>
   <si>
     <t>model_label</t>
@@ -2957,7 +2936,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3200,6 +3179,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1" xfId="34" builtinId="30" customBuiltin="1"/>
@@ -3267,7 +3249,60 @@
     <cellStyle name="YellowCell 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="197">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5411,20 +5446,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5467,58 +5488,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7386,11 +7355,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Table Style 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{03CADF67-A835-4D43-81C5-75376CF934E2}">
-      <tableStyleElement type="wholeTable" dxfId="197"/>
+      <tableStyleElement type="wholeTable" dxfId="196"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="2" xr9:uid="{5906E8DD-1157-4888-9A27-3B2DB57DF7A2}">
-      <tableStyleElement type="wholeTable" dxfId="196"/>
-      <tableStyleElement type="headerRow" dxfId="195"/>
+      <tableStyleElement type="wholeTable" dxfId="195"/>
+      <tableStyleElement type="headerRow" dxfId="194"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7591,11 +7560,15 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="193">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="192"/>
     <tableColumn id="2" xr3:uid="{873A529C-ADE9-47CF-B36A-585DA33D7B04}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7603,62 +7576,38 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
-  <autoFilter ref="B174:J208" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B175:J203">
-    <sortCondition ref="E175:E203"/>
-    <sortCondition ref="C175:C203"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="85">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="77">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="75" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="74">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="72" dataCellStyle="Comma"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="B80:I122" xr:uid="{2B645CB4-F641-4C38-A983-F38F00FA7B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B81:I122">
     <sortCondition ref="C81:C122"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="58">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt; 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7666,82 +7615,82 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="55">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="49">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="43">
+      <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="46">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="40">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="39">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="40">
-      <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="37">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="36">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="32">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="29">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7749,19 +7698,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="20">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
+  <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
+    <sortCondition descending="1" ref="D4:D6"/>
+    <sortCondition ref="E4:E6"/>
+    <sortCondition ref="C4:C6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="174">
+      <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="173"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="171"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7769,24 +7738,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="B3:N17" xr:uid="{AD244AAD-EF2A-4E3D-905E-7CC1947F3F1F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N4">
     <sortCondition descending="1" ref="D4"/>
@@ -7794,134 +7763,114 @@
     <sortCondition ref="C4"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="190">
+    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="189">
       <calculatedColumnFormula xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="189"/>
-    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="186">
+    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="188"/>
+    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="185">
       <calculatedColumnFormula xml:space="preserve"> "row_id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="185">
+    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="184">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="184">
+    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="183">
       <calculatedColumnFormula xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="183">
+    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="182">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="182">
+    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="181">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="181">
+    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="180">
       <calculatedColumnFormula array="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="180">
+    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="179">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="178"/>
+    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
-  <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
-    <sortCondition descending="1" ref="D4:D6"/>
-    <sortCondition ref="E4:E6"/>
-    <sortCondition ref="C4:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:M45" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:M45">
+    <sortCondition ref="D21:D45"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="175">
-      <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
+  <tableColumns count="12">
+    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="165" totalsRowDxfId="164">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="174"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="173"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="155" totalsRowDxfId="154">
+      <calculatedColumnFormula array="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
+  IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="153" totalsRowDxfId="152">
+      <calculatedColumnFormula xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
+  OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="151" totalsRowDxfId="150">
+      <calculatedColumnFormula array="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
+  IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="149" totalsRowDxfId="148">
+      <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="147" totalsRowDxfId="146">
+      <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="145" totalsRowDxfId="144">
+      <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="143" totalsRowDxfId="142">
+      <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:M45" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:M45">
-    <sortCondition ref="D21:D45"/>
-  </sortState>
-  <tableColumns count="12">
-    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="166" totalsRowDxfId="165">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B237:L239" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="139">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="156" totalsRowDxfId="155">
-      <calculatedColumnFormula array="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
-  IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="154" totalsRowDxfId="153">
-      <calculatedColumnFormula xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
-  OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="152" totalsRowDxfId="151">
-      <calculatedColumnFormula array="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
-  IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="150" totalsRowDxfId="149">
-      <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="148" totalsRowDxfId="147">
-      <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="146" totalsRowDxfId="145">
-      <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="144" totalsRowDxfId="143">
-      <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="130"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B237:L239" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="140">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="139"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="134"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="132"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="130"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B272:D279" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B272:D279" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="126">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="125">
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="124">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7929,70 +7878,93 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:G258" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="122">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:F258" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="120"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{2D75E915-5C37-41D0-8D80-E36A15696E43}" name="model_underscore" dataDxfId="117">
-      <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="120"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+  <autoFilter ref="B49:F74" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:F74">
+    <sortCondition ref="C50:C74"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="117" totalsRowDxfId="116">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="109" totalsRowDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="B126:P169" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B127:P169">
+    <sortCondition ref="C127:C169"/>
+    <sortCondition ref="D127:D169"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="105">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="101"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="98"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="96"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="94"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="93"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="91">
+      <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
-  <autoFilter ref="B49:F74" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:F74">
-    <sortCondition ref="C50:C74"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+  <autoFilter ref="B174:J208" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B175:J203">
+    <sortCondition ref="E175:E203"/>
+    <sortCondition ref="C175:C203"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="114" totalsRowDxfId="113">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="88">
+      <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="N/A" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="106" totalsRowDxfId="105"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
-  <autoFilter ref="B126:P169" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B127:P169">
-    <sortCondition ref="C127:C169"/>
-    <sortCondition ref="D127:D169"/>
-  </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="102">
-      <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="98"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="95"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="90"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="88">
-      <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8328,10 +8300,10 @@
     <text>No spaces in this ID!</text>
   </threadedComment>
   <threadedComment ref="F80" dT="2021-04-02T15:18:13.84" personId="{00000000-0000-0000-0000-000000000000}" id="{7C7D377F-2B53-48B7-807A-23CFCBC48B83}">
-    <text>For sectors with multiple adaptation scenarios, one scenario is considered the "primary" scenario -- frequently focused on in summary graphics across all sectors.</text>
+    <text>For sectors with multiple variants, one variant is considered the "primary" variant -- e.g., as used in when aggregating across sectors.</text>
   </threadedComment>
   <threadedComment ref="G80" dT="2021-04-02T15:33:36.18" personId="{00000000-0000-0000-0000-000000000000}" id="{3962DDEC-520D-4477-AB4D-6A758B04F9CC}">
-    <text>Boolean field -- indicates whether a sector includes sub-impact estimates. See sector table above for list of sub-impact estimates.</text>
+    <text>Numeric field -- indicates whether a sector should be included when aggregating over sectors. Sectors with a flag &gt;= 1 are generally included in aggregation. Flags &gt; 1 may have different treatments</text>
   </threadedComment>
   <threadedComment ref="H144" dT="2021-04-29T18:53:19.81" personId="{00000000-0000-0000-0000-000000000000}" id="{B944EC01-36D0-40EC-99E6-BA8270B055AE}">
     <text>May add a physical scalar in the future - total regional property value</text>
@@ -8379,7 +8351,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8387,15 +8359,15 @@
         <v>81</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="80" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8403,13 +8375,13 @@
         <v>169</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="79"/>
       <c r="C13" s="58" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8451,7 +8423,7 @@
     <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="80"/>
       <c r="C20" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8469,7 +8441,7 @@
     <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="80"/>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8483,13 +8455,13 @@
         <v>174</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B26" s="80"/>
       <c r="C26" s="58" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8536,16 +8508,16 @@
     </row>
     <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B35" s="55"/>
       <c r="C35" s="58" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8560,37 +8532,37 @@
     </row>
     <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="55" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8645,8 +8617,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
@@ -8699,16 +8671,16 @@
         <v>97</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>207</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>65</v>
@@ -8726,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F4" s="27" t="str">
         <f t="shared" ref="F4" si="0" xml:space="preserve"> "row_id"</f>
@@ -8761,7 +8733,7 @@
         <v>9, 10, 11, 12</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -8770,13 +8742,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F5" s="27" t="str">
         <f t="shared" ref="F5:F10" si="1" xml:space="preserve"> "row_id"</f>
@@ -8813,7 +8785,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8828,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8860,7 +8832,7 @@
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -8875,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8907,7 +8879,7 @@
       </c>
       <c r="M7" s="49"/>
       <c r="N7" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -8922,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8954,7 +8926,7 @@
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8969,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9001,7 +8973,7 @@
       </c>
       <c r="M9" s="49"/>
       <c r="N9" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9010,13 +8982,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9040,15 +9012,15 @@
       </c>
       <c r="K10" s="31" cm="1">
         <f t="array" aca="1" ref="K10" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" s="49"/>
       <c r="N10" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9057,13 +9029,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" ref="F11:F15" si="2" xml:space="preserve"> "row_id"</f>
@@ -9098,7 +9070,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -9107,13 +9079,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9148,7 +9120,7 @@
         <v>10, 11</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9157,13 +9129,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9195,7 +9167,7 @@
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="48" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -9204,13 +9176,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F14" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9242,7 +9214,7 @@
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="48" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -9251,13 +9223,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F15" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9289,7 +9261,7 @@
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="48" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9298,13 +9270,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F16" s="27" t="str">
         <f xml:space="preserve"> "row_id"</f>
@@ -9336,7 +9308,7 @@
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="48" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -9345,13 +9317,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F17" s="27" t="str">
         <f xml:space="preserve"> "row_id"</f>
@@ -9383,7 +9355,7 @@
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="48" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -9398,443 +9370,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC7EF1-95B0-477B-A02D-086B6A131F7A}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>18</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>19</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>20</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>21</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>23</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
-        <v>25</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>433</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9854,7 +9398,7 @@
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -9882,7 +9426,7 @@
         <v>Sectors Table</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -9891,7 +9435,7 @@
         <v>Impact Year Estimates</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -9900,7 +9444,7 @@
         <v>Variants Table</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -9909,7 +9453,7 @@
         <v>Impact Types</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -9918,7 +9462,7 @@
         <v>Scalar Information</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -9927,7 +9471,7 @@
         <v>Economic Multipliers</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -9936,7 +9480,7 @@
         <v>Constants</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -9945,7 +9489,7 @@
         <v>Model Types</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -9954,7 +9498,7 @@
         <v>GCM Models &amp; SLR Scenarios</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -9963,7 +9507,7 @@
         <v>Regions</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -9972,7 +9516,7 @@
         <v>Input Scenario Information</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -9981,7 +9525,7 @@
         <v>States</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -9990,21 +9534,21 @@
         <v>SLR Scalars</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C16" s="54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -10049,7 +9593,7 @@
         <v>179</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>170</v>
@@ -10058,16 +9602,16 @@
         <v>171</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10079,7 +9623,7 @@
         <v>99</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -10097,7 +9641,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I21" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I21" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10107,7 +9651,7 @@
       </c>
       <c r="J21" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="36" cm="1">
         <f t="array" ref="K21" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10118,8 +9662,8 @@
         <v>2</v>
       </c>
       <c r="M21" s="36" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M21" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -10128,10 +9672,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
@@ -10149,7 +9693,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I22" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I22" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10159,7 +9703,7 @@
       </c>
       <c r="J22" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="36" cm="1">
         <f t="array" ref="K22" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10170,8 +9714,8 @@
         <v>1</v>
       </c>
       <c r="M22" s="36" cm="1">
-        <f t="array" ref="M22" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M22" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10180,10 +9724,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -10201,7 +9745,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I23" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I23" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10211,7 +9755,7 @@
       </c>
       <c r="J23" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="36" cm="1">
         <f t="array" ref="K23" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10222,8 +9766,8 @@
         <v>1</v>
       </c>
       <c r="M23" s="36" cm="1">
-        <f t="array" ref="M23" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M23" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10232,10 +9776,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -10253,7 +9797,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I24" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I24" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10263,7 +9807,7 @@
       </c>
       <c r="J24" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="36" cm="1">
         <f t="array" ref="K24" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10274,8 +9818,8 @@
         <v>4</v>
       </c>
       <c r="M24" s="36" cm="1">
-        <f t="array" ref="M24" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M24" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -10284,10 +9828,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
@@ -10305,7 +9849,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I25" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I25" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10315,7 +9859,7 @@
       </c>
       <c r="J25" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="36" cm="1">
         <f t="array" ref="K25" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10326,8 +9870,8 @@
         <v>2</v>
       </c>
       <c r="M25" s="36" cm="1">
-        <f t="array" ref="M25" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M25" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10336,10 +9880,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E26" s="68">
         <v>1</v>
@@ -10357,7 +9901,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I26" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I26" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10367,7 +9911,7 @@
       </c>
       <c r="J26" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="36" cm="1">
         <f t="array" ref="K26" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10378,8 +9922,8 @@
         <v>1</v>
       </c>
       <c r="M26" s="36" cm="1">
-        <f t="array" ref="M26" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M26" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10409,7 +9953,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I27" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I27" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10419,7 +9963,7 @@
       </c>
       <c r="J27" s="22">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="36" cm="1">
         <f t="array" ref="K27" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10430,8 +9974,8 @@
         <v>1</v>
       </c>
       <c r="M27" s="36" cm="1">
-        <f t="array" ref="M27" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M27" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10443,7 +9987,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E28" s="12">
         <v>1</v>
@@ -10461,7 +10005,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I28" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I28" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10471,7 +10015,7 @@
       </c>
       <c r="J28" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="36" cm="1">
         <f t="array" ref="K28" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10482,8 +10026,8 @@
         <v>1</v>
       </c>
       <c r="M28" s="36" cm="1">
-        <f t="array" ref="M28" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M28" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10492,10 +10036,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
@@ -10513,7 +10057,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I29" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I29" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10523,7 +10067,7 @@
       </c>
       <c r="J29" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="36" cm="1">
         <f t="array" ref="K29" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10534,8 +10078,8 @@
         <v>1</v>
       </c>
       <c r="M29" s="36" cm="1">
-        <f t="array" ref="M29" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M29" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10586,7 +10130,7 @@
         <v>2</v>
       </c>
       <c r="M30" s="36" cm="1">
-        <f t="array" ref="M30" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M30" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
@@ -10599,7 +10143,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -10617,7 +10161,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I31" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I31" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10627,7 +10171,7 @@
       </c>
       <c r="J31" s="22">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="36" cm="1">
         <f t="array" ref="K31" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10638,8 +10182,8 @@
         <v>1</v>
       </c>
       <c r="M31" s="36" cm="1">
-        <f t="array" ref="M31" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M31" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -10651,7 +10195,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -10669,7 +10213,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I32" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I32" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10679,7 +10223,7 @@
       </c>
       <c r="J32" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="36" cm="1">
         <f t="array" ref="K32" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10690,8 +10234,8 @@
         <v>1</v>
       </c>
       <c r="M32" s="36" cm="1">
-        <f t="array" ref="M32" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M32" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -10721,7 +10265,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I33" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I33" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10731,7 +10275,7 @@
       </c>
       <c r="J33" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="36" cm="1">
         <f t="array" ref="K33" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10742,8 +10286,8 @@
         <v>1</v>
       </c>
       <c r="M33" s="36" cm="1">
-        <f t="array" ref="M33" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M33" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -10755,7 +10299,7 @@
         <v>59</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E34" s="68">
         <v>1</v>
@@ -10773,7 +10317,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I34" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I34" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10783,7 +10327,7 @@
       </c>
       <c r="J34" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="36" cm="1">
         <f t="array" ref="K34" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10794,8 +10338,8 @@
         <v>1</v>
       </c>
       <c r="M34" s="36" cm="1">
-        <f t="array" ref="M34" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M34" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -10804,10 +10348,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -10825,7 +10369,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I35" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10835,7 +10379,7 @@
       </c>
       <c r="J35" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="36" cm="1">
         <f t="array" ref="K35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10846,8 +10390,8 @@
         <v>1</v>
       </c>
       <c r="M35" s="36" cm="1">
-        <f t="array" ref="M35" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10877,7 +10421,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I36" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10887,7 +10431,7 @@
       </c>
       <c r="J36" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="36" cm="1">
         <f t="array" ref="K36" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10898,8 +10442,8 @@
         <v>1</v>
       </c>
       <c r="M36" s="36" cm="1">
-        <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10929,7 +10473,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I37" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I37" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -10939,7 +10483,7 @@
       </c>
       <c r="J37" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="36" cm="1">
         <f t="array" ref="K37" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10950,8 +10494,8 @@
         <v>1</v>
       </c>
       <c r="M37" s="36" cm="1">
-        <f t="array" ref="M37" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M37" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="56.25" x14ac:dyDescent="0.2">
@@ -11002,7 +10546,7 @@
         <v>5</v>
       </c>
       <c r="M38" s="36" cm="1">
-        <f t="array" ref="M38" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M38" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
@@ -11033,7 +10577,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I39" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I39" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11043,7 +10587,7 @@
       </c>
       <c r="J39" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="36" cm="1">
         <f t="array" ref="K39" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11054,8 +10598,8 @@
         <v>1</v>
       </c>
       <c r="M39" s="36" cm="1">
-        <f t="array" ref="M39" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M39" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -11064,10 +10608,10 @@
         <v>20</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E40" s="13">
         <v>1</v>
@@ -11085,7 +10629,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I40" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I40" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11095,7 +10639,7 @@
       </c>
       <c r="J40" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="36" cm="1">
         <f t="array" ref="K40" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11106,8 +10650,8 @@
         <v>3</v>
       </c>
       <c r="M40" s="36" cm="1">
-        <f t="array" ref="M40" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M40" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -11116,10 +10660,10 @@
         <v>21</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
@@ -11137,7 +10681,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I41" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I41" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11147,7 +10691,7 @@
       </c>
       <c r="J41" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="36" cm="1">
         <f t="array" ref="K41" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11158,8 +10702,8 @@
         <v>3</v>
       </c>
       <c r="M41" s="36" cm="1">
-        <f t="array" ref="M41" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M41" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -11189,7 +10733,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I42" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I42" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11199,7 +10743,7 @@
       </c>
       <c r="J42" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="36" cm="1">
         <f t="array" ref="K42" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11210,8 +10754,8 @@
         <v>1</v>
       </c>
       <c r="M42" s="36" cm="1">
-        <f t="array" ref="M42" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M42" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -11241,7 +10785,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I43" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I43" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11251,7 +10795,7 @@
       </c>
       <c r="J43" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="36" cm="1">
         <f t="array" ref="K43" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11262,8 +10806,8 @@
         <v>3</v>
       </c>
       <c r="M43" s="36" cm="1">
-        <f t="array" ref="M43" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M43" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -11272,10 +10816,10 @@
         <v>24</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
@@ -11293,7 +10837,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="I44" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I44" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11303,7 +10847,7 @@
       </c>
       <c r="J44" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="36" cm="1">
         <f t="array" ref="K44" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11314,8 +10858,8 @@
         <v>1</v>
       </c>
       <c r="M44" s="36" cm="1">
-        <f t="array" ref="M44" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>1</v>
+        <f t="array" ref="M44" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -11366,14 +10910,14 @@
         <v>3</v>
       </c>
       <c r="M45" s="36" cm="1">
-        <f t="array" ref="M45" xml:space="preserve"> IF( INDEX( co_impactYears[N/A], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M45" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -11403,7 +10947,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>185</v>
@@ -11421,7 +10965,7 @@
         <v>99</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E50" s="81" t="s">
         <v>17</v>
@@ -11436,10 +10980,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E51" s="81" t="s">
         <v>17</v>
@@ -11454,10 +10998,10 @@
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E52" s="81" t="s">
         <v>17</v>
@@ -11472,10 +11016,10 @@
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E53" s="81" t="s">
         <v>17</v>
@@ -11490,10 +11034,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>17</v>
@@ -11508,10 +11052,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E55" s="81" t="s">
         <v>17</v>
@@ -11529,7 +11073,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E56" s="81" t="s">
         <v>17</v>
@@ -11547,7 +11091,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E57" s="81" t="s">
         <v>17</v>
@@ -11562,10 +11106,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E58" s="81" t="s">
         <v>17</v>
@@ -11601,7 +11145,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E60" s="81" t="s">
         <v>17</v>
@@ -11619,7 +11163,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E61" s="81" t="s">
         <v>17</v>
@@ -11637,7 +11181,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E62" s="81" t="s">
         <v>17</v>
@@ -11655,7 +11199,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E63" s="81" t="s">
         <v>17</v>
@@ -11670,10 +11214,10 @@
         <v>15</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E64" s="81" t="s">
         <v>17</v>
@@ -11691,7 +11235,7 @@
         <v>46</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E65" s="81" t="s">
         <v>17</v>
@@ -11709,7 +11253,7 @@
         <v>53</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E66" s="81" t="s">
         <v>17</v>
@@ -11745,7 +11289,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E68" s="81" t="s">
         <v>17</v>
@@ -11760,10 +11304,10 @@
         <v>20</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E69" s="81" t="s">
         <v>17</v>
@@ -11778,10 +11322,10 @@
         <v>21</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E70" s="81" t="s">
         <v>17</v>
@@ -11799,7 +11343,7 @@
         <v>63</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E71" s="81" t="s">
         <v>17</v>
@@ -11817,7 +11361,7 @@
         <v>105</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E72" s="81" t="s">
         <v>17</v>
@@ -11832,10 +11376,10 @@
         <v>24</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E73" s="81" t="s">
         <v>17</v>
@@ -11865,7 +11409,7 @@
     <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -11889,7 +11433,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -11903,7 +11447,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -11917,7 +11461,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -11937,22 +11481,22 @@
         <v>56</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E80" s="44" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H80" s="29" t="s">
         <v>138</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -12004,7 +11548,7 @@
         <v>99</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E82" s="48">
         <v>2040</v>
@@ -12035,13 +11579,13 @@
         <v>3</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D83" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F83" s="27">
         <v>1</v>
@@ -12069,13 +11613,13 @@
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E84" s="48" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F84" s="61">
         <v>1</v>
@@ -12103,13 +11647,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F85" s="61">
         <v>0</v>
@@ -12137,13 +11681,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F86" s="61">
         <v>0</v>
@@ -12171,13 +11715,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E87" s="48" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F87" s="61">
         <v>1</v>
@@ -12205,13 +11749,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D88" s="48" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E88" s="48" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F88" s="61">
         <v>0</v>
@@ -12239,13 +11783,13 @@
         <v>9</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="61">
         <v>1</v>
@@ -12273,13 +11817,13 @@
         <v>10</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F90" s="61">
         <v>1</v>
@@ -12307,13 +11851,13 @@
         <v>11</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F91" s="61">
         <v>0</v>
@@ -12341,13 +11885,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F92" s="61">
         <v>0</v>
@@ -12378,7 +11922,7 @@
         <v>21</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>22</v>
@@ -12483,7 +12027,7 @@
         <v>38</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F96" s="27">
         <v>1</v>
@@ -12511,10 +12055,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>22</v>
@@ -12545,7 +12089,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>120</v>
@@ -12579,7 +12123,7 @@
         <v>19</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>121</v>
@@ -12619,7 +12163,7 @@
         <v>117</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" s="27">
         <v>0</v>
@@ -12650,7 +12194,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E101" s="48" t="s">
         <v>22</v>
@@ -12718,7 +12262,7 @@
         <v>58</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>22</v>
@@ -12789,7 +12333,7 @@
         <v>38</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F105" s="27">
         <v>1</v>
@@ -12823,7 +12367,7 @@
         <v>38</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F106" s="27">
         <v>1</v>
@@ -12857,7 +12401,7 @@
         <v>38</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F107" s="61">
         <v>1</v>
@@ -12885,19 +12429,19 @@
         <v>28</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="61">
         <v>1</v>
       </c>
       <c r="G108" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
@@ -12922,7 +12466,7 @@
         <v>46</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E109" s="48" t="s">
         <v>22</v>
@@ -13024,7 +12568,7 @@
         <v>53</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E112" s="48" t="s">
         <v>22</v>
@@ -13129,7 +12673,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F115" s="27">
         <v>1</v>
@@ -13163,7 +12707,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F116" s="27">
         <v>1</v>
@@ -13191,13 +12735,13 @@
         <v>37</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D117" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F117" s="27">
         <v>1</v>
@@ -13225,13 +12769,13 @@
         <v>38</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D118" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F118" s="61">
         <v>1</v>
@@ -13265,7 +12809,7 @@
         <v>38</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F119" s="27">
         <v>1</v>
@@ -13299,7 +12843,7 @@
         <v>38</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F120" s="27">
         <v>1</v>
@@ -13327,13 +12871,13 @@
         <v>41</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F121" s="61">
         <v>1</v>
@@ -13367,7 +12911,7 @@
         <v>38</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F122" s="27">
         <v>1</v>
@@ -13416,7 +12960,7 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
@@ -13427,16 +12971,16 @@
         <v>56</v>
       </c>
       <c r="D126" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="F126" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="F126" s="29" t="s">
-        <v>214</v>
-      </c>
       <c r="G126" s="29" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H126" s="29" t="s">
         <v>135</v>
@@ -13451,7 +12995,7 @@
         <v>96</v>
       </c>
       <c r="L126" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M126" s="31" t="s">
         <v>106</v>
@@ -13484,7 +13028,7 @@
         <v>142</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H127" s="28" t="s">
         <v>87</v>
@@ -13533,7 +13077,7 @@
         <v>143</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H128" s="28" t="s">
         <v>87</v>
@@ -13570,22 +13114,22 @@
         <v>3</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D129" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>91</v>
@@ -13619,19 +13163,19 @@
         <v>4</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H130" s="28" t="s">
         <v>87</v>
@@ -13668,16 +13212,16 @@
         <v>5</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G131" s="28" t="s">
         <v>38</v>
@@ -13717,16 +13261,16 @@
         <v>6</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G132" s="28" t="s">
         <v>38</v>
@@ -13766,16 +13310,16 @@
         <v>7</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G133" s="28" t="s">
         <v>38</v>
@@ -13815,16 +13359,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G134" s="28" t="s">
         <v>38</v>
@@ -13864,19 +13408,19 @@
         <v>9</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H135" s="28" t="s">
         <v>91</v>
@@ -13888,7 +13432,7 @@
         <v>91</v>
       </c>
       <c r="K135" s="28" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L135" s="28" t="s">
         <v>91</v>
@@ -13913,19 +13457,19 @@
         <v>10</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H136" s="28" t="s">
         <v>91</v>
@@ -13937,7 +13481,7 @@
         <v>91</v>
       </c>
       <c r="K136" s="28" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L136" s="28" t="s">
         <v>91</v>
@@ -13962,19 +13506,19 @@
         <v>11</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D137" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F137" s="32" t="s">
         <v>111</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H137" s="28" t="s">
         <v>87</v>
@@ -14017,7 +13561,7 @@
         <v>38</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F138" s="32" t="s">
         <v>145</v>
@@ -14066,10 +13610,10 @@
         <v>38</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>38</v>
@@ -14109,16 +13653,16 @@
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G140" s="28" t="s">
         <v>38</v>
@@ -14130,7 +13674,7 @@
         <v>91</v>
       </c>
       <c r="J140" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K140" s="28" t="s">
         <v>91</v>
@@ -14170,7 +13714,7 @@
         <v>152</v>
       </c>
       <c r="G141" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H141" s="28" t="s">
         <v>87</v>
@@ -14219,7 +13763,7 @@
         <v>153</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H142" s="28" t="s">
         <v>87</v>
@@ -14262,7 +13806,7 @@
         <v>38</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F143" s="32" t="s">
         <v>60</v>
@@ -14311,10 +13855,10 @@
         <v>38</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G144" s="28" t="s">
         <v>38</v>
@@ -14360,13 +13904,13 @@
         <v>38</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F145" s="32" t="s">
         <v>149</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H145" s="28" t="s">
         <v>103</v>
@@ -14378,7 +13922,7 @@
         <v>91</v>
       </c>
       <c r="K145" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L145" s="28" t="s">
         <v>92</v>
@@ -14409,10 +13953,10 @@
         <v>38</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G146" s="28" t="s">
         <v>38</v>
@@ -14452,28 +13996,28 @@
         <v>21</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H147" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J147" s="28" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K147" s="28" t="s">
         <v>129</v>
@@ -14507,7 +14051,7 @@
         <v>38</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F148" s="35" t="s">
         <v>147</v>
@@ -14556,7 +14100,7 @@
         <v>38</v>
       </c>
       <c r="E149" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F149" s="35" t="s">
         <v>150</v>
@@ -14602,7 +14146,7 @@
         <v>20</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>32</v>
@@ -14611,13 +14155,13 @@
         <v>51</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H150" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="J150" s="28" t="s">
         <v>91</v>
@@ -14660,13 +14204,13 @@
         <v>50</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H151" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I151" s="28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="J151" s="28" t="s">
         <v>91</v>
@@ -14709,13 +14253,13 @@
         <v>41</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H152" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="J152" s="28" t="s">
         <v>91</v>
@@ -14758,13 +14302,13 @@
         <v>49</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H153" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="J153" s="28" t="s">
         <v>91</v>
@@ -14807,7 +14351,7 @@
         <v>151</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>87</v>
@@ -14850,10 +14394,10 @@
         <v>38</v>
       </c>
       <c r="E155" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G155" s="28" t="s">
         <v>38</v>
@@ -14894,31 +14438,31 @@
         <v>30</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E156" s="48" t="s">
         <v>146</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J156" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K156" s="28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>92</v>
@@ -14943,7 +14487,7 @@
         <v>31</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>112</v>
@@ -14955,19 +14499,19 @@
         <v>112</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J157" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>91</v>
@@ -14992,7 +14536,7 @@
         <v>32</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>111</v>
@@ -15004,13 +14548,13 @@
         <v>111</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J158" s="28" t="s">
         <v>91</v>
@@ -15041,16 +14585,16 @@
         <v>33</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G159" s="28" t="s">
         <v>38</v>
@@ -15090,19 +14634,19 @@
         <v>34</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E160" s="48" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H160" s="28" t="s">
         <v>91</v>
@@ -15114,7 +14658,7 @@
         <v>91</v>
       </c>
       <c r="K160" s="28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L160" s="28" t="s">
         <v>92</v>
@@ -15139,7 +14683,7 @@
         <v>35</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D161" s="28" t="s">
         <v>111</v>
@@ -15151,7 +14695,7 @@
         <v>111</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H161" s="28" t="s">
         <v>91</v>
@@ -15194,7 +14738,7 @@
         <v>38</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F162" s="32" t="s">
         <v>148</v>
@@ -15249,7 +14793,7 @@
         <v>112</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H163" s="28" t="s">
         <v>87</v>
@@ -15298,7 +14842,7 @@
         <v>111</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H164" s="28" t="s">
         <v>87</v>
@@ -15347,7 +14891,7 @@
         <v>144</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H165" s="28" t="s">
         <v>91</v>
@@ -15384,16 +14928,16 @@
         <v>40</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F166" s="32" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>38</v>
@@ -15442,7 +14986,7 @@
         <v>25</v>
       </c>
       <c r="F167" s="32" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G167" s="28" t="s">
         <v>38</v>
@@ -15491,7 +15035,7 @@
         <v>26</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G168" s="28" t="s">
         <v>38</v>
@@ -15540,7 +15084,7 @@
         <v>27</v>
       </c>
       <c r="F169" s="32" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G169" s="28" t="s">
         <v>38</v>
@@ -15577,7 +15121,7 @@
     <row r="172" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="17" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -15622,7 +15166,7 @@
         <v>159</v>
       </c>
       <c r="I174" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J174" s="29" t="s">
         <v>172</v>
@@ -15655,7 +15199,7 @@
         <v>2015</v>
       </c>
       <c r="I175" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J175" s="66"/>
       <c r="Q175"/>
@@ -15668,7 +15212,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>140</v>
@@ -15683,10 +15227,10 @@
         <v>183</v>
       </c>
       <c r="H176" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I176" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J176" s="66"/>
       <c r="Q176"/>
@@ -15702,7 +15246,7 @@
         <v>91</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E177" s="81" t="s">
         <v>157</v>
@@ -15717,10 +15261,10 @@
         <v>38</v>
       </c>
       <c r="I177" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J177" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q177"/>
       <c r="R177"/>
@@ -15747,10 +15291,10 @@
         <v>182</v>
       </c>
       <c r="H178" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I178" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J178" s="66"/>
       <c r="Q178"/>
@@ -15763,10 +15307,10 @@
         <v>5</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E179" s="81" t="s">
         <v>157</v>
@@ -15778,13 +15322,13 @@
         <v>183</v>
       </c>
       <c r="H179" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I179" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J179" s="66" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="Q179"/>
       <c r="R179"/>
@@ -15796,10 +15340,10 @@
         <v>6</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D180" s="26" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E180" s="81" t="s">
         <v>157</v>
@@ -15811,13 +15355,13 @@
         <v>183</v>
       </c>
       <c r="H180" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I180" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J180" s="66" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="Q180"/>
       <c r="R180"/>
@@ -15829,10 +15373,10 @@
         <v>7</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E181" s="81" t="s">
         <v>157</v>
@@ -15844,13 +15388,13 @@
         <v>183</v>
       </c>
       <c r="H181" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I181" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J181" s="66" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="Q181"/>
       <c r="R181"/>
@@ -15862,10 +15406,10 @@
         <v>8</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E182" s="81" t="s">
         <v>156</v>
@@ -15877,10 +15421,10 @@
         <v>182</v>
       </c>
       <c r="H182" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I182" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J182" s="66"/>
       <c r="Q182"/>
@@ -15893,7 +15437,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>110</v>
@@ -15911,7 +15455,7 @@
         <v>2010</v>
       </c>
       <c r="I183" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J183" s="66"/>
       <c r="Q183"/>
@@ -15942,7 +15486,7 @@
         <v>2010</v>
       </c>
       <c r="I184" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J184" s="66"/>
       <c r="Q184"/>
@@ -15973,7 +15517,7 @@
         <v>2010</v>
       </c>
       <c r="I185" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J185" s="66"/>
     </row>
@@ -16001,7 +15545,7 @@
         <v>2010</v>
       </c>
       <c r="I186" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J186" s="66"/>
     </row>
@@ -16014,7 +15558,7 @@
         <v>91</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E187" s="81" t="s">
         <v>156</v>
@@ -16029,10 +15573,10 @@
         <v>38</v>
       </c>
       <c r="I187" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J187" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.2">
@@ -16041,10 +15585,10 @@
         <v>14</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E188" s="81" t="s">
         <v>156</v>
@@ -16067,10 +15611,10 @@
         <v>15</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E189" s="81" t="s">
         <v>156</v>
@@ -16082,10 +15626,10 @@
         <v>182</v>
       </c>
       <c r="H189" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I189" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J189" s="66"/>
     </row>
@@ -16095,10 +15639,10 @@
         <v>16</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E190" s="81" t="s">
         <v>156</v>
@@ -16139,7 +15683,7 @@
         <v>2010</v>
       </c>
       <c r="I191" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J191" s="66"/>
     </row>
@@ -16167,7 +15711,7 @@
         <v>2010</v>
       </c>
       <c r="I192" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J192" s="66"/>
     </row>
@@ -16192,10 +15736,10 @@
         <v>183</v>
       </c>
       <c r="H193" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I193" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J193" s="66"/>
     </row>
@@ -16208,7 +15752,7 @@
         <v>91</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E194" s="81" t="s">
         <v>173</v>
@@ -16223,10 +15767,10 @@
         <v>38</v>
       </c>
       <c r="I194" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J194" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
@@ -16235,10 +15779,10 @@
         <v>21</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E195" s="81" t="s">
         <v>173</v>
@@ -16250,10 +15794,10 @@
         <v>182</v>
       </c>
       <c r="H195" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I195" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J195" s="66"/>
     </row>
@@ -16263,10 +15807,10 @@
         <v>22</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E196" s="81" t="s">
         <v>173</v>
@@ -16278,10 +15822,10 @@
         <v>182</v>
       </c>
       <c r="H196" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I196" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J196" s="66"/>
     </row>
@@ -16291,10 +15835,10 @@
         <v>23</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E197" s="81" t="s">
         <v>173</v>
@@ -16306,10 +15850,10 @@
         <v>182</v>
       </c>
       <c r="H197" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I197" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J197" s="66"/>
     </row>
@@ -16319,10 +15863,10 @@
         <v>24</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E198" s="81" t="s">
         <v>158</v>
@@ -16334,10 +15878,10 @@
         <v>183</v>
       </c>
       <c r="H198" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I198" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J198" s="66"/>
     </row>
@@ -16362,10 +15906,10 @@
         <v>183</v>
       </c>
       <c r="H199" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I199" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J199" s="66"/>
     </row>
@@ -16378,7 +15922,7 @@
         <v>91</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E200" s="81" t="s">
         <v>158</v>
@@ -16393,10 +15937,10 @@
         <v>38</v>
       </c>
       <c r="I200" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J200" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
@@ -16423,7 +15967,7 @@
         <v>2010</v>
       </c>
       <c r="I201" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J201" s="66"/>
     </row>
@@ -16448,10 +15992,10 @@
         <v>183</v>
       </c>
       <c r="H202" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I202" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J202" s="66"/>
     </row>
@@ -16479,7 +16023,7 @@
         <v>2010</v>
       </c>
       <c r="I203" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J203" s="66"/>
     </row>
@@ -16503,10 +16047,10 @@
         <v>31</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E205" s="81" t="s">
         <v>173</v>
@@ -16518,7 +16062,7 @@
         <v>183</v>
       </c>
       <c r="H205" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I205" s="49"/>
       <c r="J205" s="66"/>
@@ -16529,10 +16073,10 @@
         <v>32</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E206" s="81" t="s">
         <v>173</v>
@@ -16544,7 +16088,7 @@
         <v>183</v>
       </c>
       <c r="H206" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I206" s="49"/>
       <c r="J206" s="66"/>
@@ -16555,10 +16099,10 @@
         <v>33</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E207" s="81" t="s">
         <v>157</v>
@@ -16570,7 +16114,7 @@
         <v>183</v>
       </c>
       <c r="H207" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I207" s="49"/>
       <c r="J207" s="66"/>
@@ -16581,10 +16125,10 @@
         <v>34</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E208" s="81" t="s">
         <v>173</v>
@@ -16596,7 +16140,7 @@
         <v>183</v>
       </c>
       <c r="H208" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I208" s="49"/>
       <c r="J208" s="66"/>
@@ -16604,7 +16148,7 @@
     <row r="211" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
@@ -16631,10 +16175,10 @@
         <v>123</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E213" s="30" t="s">
         <v>159</v>
@@ -16649,7 +16193,7 @@
         <v>187</v>
       </c>
       <c r="D214" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E214" s="46">
         <v>2015</v>
@@ -16664,7 +16208,7 @@
         <v>92</v>
       </c>
       <c r="D215" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E215" s="46" t="s">
         <v>38</v>
@@ -16679,7 +16223,7 @@
         <v>91</v>
       </c>
       <c r="D216" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E216" s="46" t="s">
         <v>38</v>
@@ -16688,7 +16232,7 @@
     <row r="219" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="17" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
@@ -16762,7 +16306,7 @@
     <row r="227" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="17" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
@@ -16786,7 +16330,7 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
@@ -16794,13 +16338,13 @@
         <v>123</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D230" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E230" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F230" s="29" t="s">
         <v>107</v>
@@ -16809,10 +16353,10 @@
         <v>108</v>
       </c>
       <c r="H230" s="29" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I230" s="29" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
@@ -16872,7 +16416,7 @@
     <row r="235" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
       <c r="B235" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C235" s="17"/>
       <c r="D235" s="17"/>
@@ -16899,34 +16443,34 @@
         <v>123</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D237" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F237" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G237" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H237" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E237" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="F237" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="G237" s="39" t="s">
+      <c r="I237" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J237" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="H237" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="I237" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="J237" s="37" t="s">
-        <v>251</v>
-      </c>
       <c r="K237" s="37" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L237" s="37" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
@@ -16938,19 +16482,19 @@
         <v>161</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E238" s="42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F238" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G238" s="41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I238" s="43">
         <v>1</v>
@@ -16974,19 +16518,19 @@
         <v>160</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E239" s="42" t="s">
         <v>160</v>
       </c>
       <c r="F239" s="42" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G239" s="41" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H239" s="41" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I239" s="43">
         <v>25</v>
@@ -17004,7 +16548,7 @@
     <row r="242" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="17" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -17034,16 +16578,13 @@
         <v>188</v>
       </c>
       <c r="D244" s="29" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E244" s="29" t="s">
         <v>179</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="G244" s="30" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
@@ -17051,8 +16592,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C245" s="45" t="s">
-        <v>0</v>
+      <c r="C245" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CanESM2</v>
       </c>
       <c r="D245" s="45">
         <v>6</v>
@@ -17062,10 +16604,6 @@
       </c>
       <c r="F245" s="87" t="s">
         <v>0</v>
-      </c>
-      <c r="G245" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>CanESM2</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.2">
@@ -17073,8 +16611,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C246" s="45" t="s">
-        <v>1</v>
+      <c r="C246" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CCSM4</v>
       </c>
       <c r="D246" s="45">
         <v>5</v>
@@ -17084,10 +16623,6 @@
       </c>
       <c r="F246" s="87" t="s">
         <v>1</v>
-      </c>
-      <c r="G246" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>CCSM4</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
@@ -17095,8 +16630,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C247" s="45" t="s">
-        <v>2</v>
+      <c r="C247" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>GISSE2R</v>
       </c>
       <c r="D247" s="45">
         <v>3</v>
@@ -17106,10 +16642,6 @@
       </c>
       <c r="F247" s="87" t="s">
         <v>2</v>
-      </c>
-      <c r="G247" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>GISS_E2_R</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
@@ -17117,8 +16649,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C248" s="45" t="s">
-        <v>3</v>
+      <c r="C248" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>HadGEM2ES</v>
       </c>
       <c r="D248" s="45">
         <v>6</v>
@@ -17128,10 +16661,6 @@
       </c>
       <c r="F248" s="87" t="s">
         <v>3</v>
-      </c>
-      <c r="G248" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>HadGEM2_ES</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
@@ -17139,8 +16668,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
-      <c r="C249" s="45" t="s">
-        <v>4</v>
+      <c r="C249" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>MIROC5</v>
       </c>
       <c r="D249" s="45">
         <v>5</v>
@@ -17150,10 +16680,6 @@
       </c>
       <c r="F249" s="87" t="s">
         <v>4</v>
-      </c>
-      <c r="G249" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>MIROC5</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
@@ -17161,8 +16687,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
-      <c r="C250" s="45" t="s">
-        <v>5</v>
+      <c r="C250" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>GFDLCM3</v>
       </c>
       <c r="D250" s="45">
         <v>6</v>
@@ -17172,10 +16699,6 @@
       </c>
       <c r="F250" s="87" t="s">
         <v>5</v>
-      </c>
-      <c r="G250" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>GFDL_CM3</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
@@ -17183,8 +16706,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
-      <c r="C251" s="45" t="s">
-        <v>348</v>
+      <c r="C251" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>MRICGCM3</v>
       </c>
       <c r="D251" s="45">
         <v>3</v>
@@ -17193,11 +16717,7 @@
         <v>161</v>
       </c>
       <c r="F251" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="G251" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>MRI_CGCM3</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.2">
@@ -17205,8 +16725,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
-      <c r="C252" s="45" t="s">
-        <v>346</v>
+      <c r="C252" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>GCMEnsemble</v>
       </c>
       <c r="D252" s="45">
         <v>5</v>
@@ -17215,11 +16736,7 @@
         <v>161</v>
       </c>
       <c r="F252" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="G252" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>GCMEnsemble</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.2">
@@ -17227,8 +16744,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
-      <c r="C253" s="45" t="s">
-        <v>228</v>
+      <c r="C253" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>30cm</v>
       </c>
       <c r="D253" s="45">
         <v>250</v>
@@ -17237,11 +16755,7 @@
         <v>160</v>
       </c>
       <c r="F253" s="87" t="s">
-        <v>586</v>
-      </c>
-      <c r="G253" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>30cm</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
@@ -17249,8 +16763,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
       </c>
-      <c r="C254" s="45" t="s">
-        <v>229</v>
+      <c r="C254" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>50cm</v>
       </c>
       <c r="D254" s="45">
         <v>250</v>
@@ -17259,11 +16774,7 @@
         <v>160</v>
       </c>
       <c r="F254" s="87" t="s">
-        <v>587</v>
-      </c>
-      <c r="G254" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>50cm</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
@@ -17271,8 +16782,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
-      <c r="C255" s="45" t="s">
-        <v>230</v>
+      <c r="C255" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>100cm</v>
       </c>
       <c r="D255" s="45">
         <v>250</v>
@@ -17281,11 +16793,7 @@
         <v>160</v>
       </c>
       <c r="F255" s="87" t="s">
-        <v>588</v>
-      </c>
-      <c r="G255" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>100cm</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">
@@ -17293,8 +16801,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
-      <c r="C256" s="45" t="s">
-        <v>231</v>
+      <c r="C256" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>150cm</v>
       </c>
       <c r="D256" s="45">
         <v>250</v>
@@ -17303,11 +16812,7 @@
         <v>160</v>
       </c>
       <c r="F256" s="87" t="s">
-        <v>589</v>
-      </c>
-      <c r="G256" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>150cm</v>
+        <v>582</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.2">
@@ -17315,8 +16820,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
-      <c r="C257" s="45" t="s">
-        <v>232</v>
+      <c r="C257" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>200cm</v>
       </c>
       <c r="D257" s="45">
         <v>250</v>
@@ -17325,11 +16831,7 @@
         <v>160</v>
       </c>
       <c r="F257" s="87" t="s">
-        <v>590</v>
-      </c>
-      <c r="G257" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>200cm</v>
+        <v>583</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.2">
@@ -17337,8 +16839,9 @@
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
-      <c r="C258" s="45" t="s">
-        <v>233</v>
+      <c r="C258" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>250cm</v>
       </c>
       <c r="D258" s="45">
         <v>250</v>
@@ -17347,17 +16850,13 @@
         <v>160</v>
       </c>
       <c r="F258" s="87" t="s">
-        <v>591</v>
-      </c>
-      <c r="G258" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE(SUBSTITUTE( co_models[[#This Row],[model_label]], "-", "_" ), " ", "" )</f>
-        <v>250cm</v>
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
@@ -17384,25 +16883,25 @@
         <v>123</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F263" s="31" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G263" s="31" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H263" s="31" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I263" s="31" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J263" s="31" t="s">
         <v>55</v>
@@ -17414,23 +16913,23 @@
         <v>1</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D264" s="45" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E264" s="45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G264" s="27">
         <v>0</v>
       </c>
       <c r="H264" s="27"/>
       <c r="I264" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J264" s="27">
         <v>0</v>
@@ -17445,20 +16944,20 @@
         <v>160</v>
       </c>
       <c r="D265" s="45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E265" s="45" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G265" s="27">
         <v>0</v>
       </c>
       <c r="H265" s="27"/>
       <c r="I265" s="27" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="J265" s="27">
         <v>0</v>
@@ -17470,16 +16969,16 @@
         <v>3</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D266" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E266" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="E266" s="45" t="s">
-        <v>326</v>
-      </c>
       <c r="F266" s="27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G266" s="27">
         <v>0</v>
@@ -17501,16 +17000,16 @@
         <v>4</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D267" s="45" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E267" s="45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G267" s="27">
         <v>0</v>
@@ -17520,7 +17019,7 @@
         <v/>
       </c>
       <c r="I267" s="27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J267" s="27">
         <v>1</v>
@@ -17559,7 +17058,7 @@
         <v>70</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E272" s="2"/>
     </row>
@@ -17664,7 +17163,7 @@
     <row r="282" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C282" s="17"/>
       <c r="D282" s="17"/>
@@ -17691,16 +17190,16 @@
         <v>123</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
@@ -17709,10 +17208,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="83" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D285" s="83" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E285" s="83" t="s">
         <v>10</v>
@@ -17727,10 +17226,10 @@
         <v>2</v>
       </c>
       <c r="C286" s="83" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D286" s="83" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E286" s="83" t="s">
         <v>12</v>
@@ -17745,10 +17244,10 @@
         <v>3</v>
       </c>
       <c r="C287" s="83" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D287" s="83" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E287" s="83" t="s">
         <v>10</v>
@@ -17763,10 +17262,10 @@
         <v>4</v>
       </c>
       <c r="C288" s="83" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D288" s="83" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E288" s="83" t="s">
         <v>12</v>
@@ -17781,10 +17280,10 @@
         <v>5</v>
       </c>
       <c r="C289" s="83" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D289" s="83" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E289" s="83" t="s">
         <v>12</v>
@@ -17799,10 +17298,10 @@
         <v>6</v>
       </c>
       <c r="C290" s="83" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D290" s="83" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E290" s="83" t="s">
         <v>7</v>
@@ -17817,10 +17316,10 @@
         <v>7</v>
       </c>
       <c r="C291" s="83" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D291" s="83" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E291" s="83" t="s">
         <v>7</v>
@@ -17835,10 +17334,10 @@
         <v>8</v>
       </c>
       <c r="C292" s="83" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D292" s="83" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E292" s="83" t="s">
         <v>7</v>
@@ -17853,10 +17352,10 @@
         <v>9</v>
       </c>
       <c r="C293" s="83" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D293" s="83" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E293" s="83" t="s">
         <v>10</v>
@@ -17871,10 +17370,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="83" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D294" s="83" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E294" s="83" t="s">
         <v>10</v>
@@ -17889,7 +17388,7 @@
         <v>11</v>
       </c>
       <c r="C295" s="83" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D295" s="83" t="s">
         <v>47</v>
@@ -17907,10 +17406,10 @@
         <v>12</v>
       </c>
       <c r="C296" s="83" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D296" s="83" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E296" s="83" t="s">
         <v>6</v>
@@ -17925,10 +17424,10 @@
         <v>13</v>
       </c>
       <c r="C297" s="83" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D297" s="83" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E297" s="83" t="s">
         <v>6</v>
@@ -17943,10 +17442,10 @@
         <v>14</v>
       </c>
       <c r="C298" s="83" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D298" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E298" s="83" t="s">
         <v>6</v>
@@ -17961,10 +17460,10 @@
         <v>15</v>
       </c>
       <c r="C299" s="83" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D299" s="83" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E299" s="83" t="s">
         <v>11</v>
@@ -17979,10 +17478,10 @@
         <v>16</v>
       </c>
       <c r="C300" s="83" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D300" s="83" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E300" s="83" t="s">
         <v>10</v>
@@ -17997,10 +17496,10 @@
         <v>17</v>
       </c>
       <c r="C301" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D301" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E301" s="83" t="s">
         <v>10</v>
@@ -18015,10 +17514,10 @@
         <v>18</v>
       </c>
       <c r="C302" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D302" s="83" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E302" s="83" t="s">
         <v>7</v>
@@ -18033,10 +17532,10 @@
         <v>19</v>
       </c>
       <c r="C303" s="83" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D303" s="83" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E303" s="83" t="s">
         <v>7</v>
@@ -18051,10 +17550,10 @@
         <v>20</v>
       </c>
       <c r="C304" s="83" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D304" s="83" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E304" s="83" t="s">
         <v>7</v>
@@ -18069,10 +17568,10 @@
         <v>21</v>
       </c>
       <c r="C305" s="83" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D305" s="83" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E305" s="83" t="s">
         <v>6</v>
@@ -18087,10 +17586,10 @@
         <v>22</v>
       </c>
       <c r="C306" s="83" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D306" s="83" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E306" s="83" t="s">
         <v>6</v>
@@ -18105,10 +17604,10 @@
         <v>23</v>
       </c>
       <c r="C307" s="83" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D307" s="83" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E307" s="83" t="s">
         <v>10</v>
@@ -18123,10 +17622,10 @@
         <v>24</v>
       </c>
       <c r="C308" s="83" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D308" s="83" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E308" s="83" t="s">
         <v>6</v>
@@ -18141,10 +17640,10 @@
         <v>25</v>
       </c>
       <c r="C309" s="83" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D309" s="83" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E309" s="83" t="s">
         <v>8</v>
@@ -18159,10 +17658,10 @@
         <v>26</v>
       </c>
       <c r="C310" s="83" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D310" s="83" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E310" s="83" t="s">
         <v>8</v>
@@ -18177,10 +17676,10 @@
         <v>27</v>
       </c>
       <c r="C311" s="83" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D311" s="83" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E311" s="83" t="s">
         <v>12</v>
@@ -18195,10 +17694,10 @@
         <v>28</v>
       </c>
       <c r="C312" s="83" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D312" s="83" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E312" s="83" t="s">
         <v>7</v>
@@ -18213,10 +17712,10 @@
         <v>29</v>
       </c>
       <c r="C313" s="83" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D313" s="83" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E313" s="83" t="s">
         <v>7</v>
@@ -18231,10 +17730,10 @@
         <v>30</v>
       </c>
       <c r="C314" s="83" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D314" s="83" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E314" s="83" t="s">
         <v>12</v>
@@ -18249,10 +17748,10 @@
         <v>31</v>
       </c>
       <c r="C315" s="83" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D315" s="83" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E315" s="83" t="s">
         <v>7</v>
@@ -18267,10 +17766,10 @@
         <v>32</v>
       </c>
       <c r="C316" s="83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D316" s="83" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E316" s="83" t="s">
         <v>10</v>
@@ -18285,10 +17784,10 @@
         <v>33</v>
       </c>
       <c r="C317" s="83" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D317" s="83" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E317" s="83" t="s">
         <v>8</v>
@@ -18303,10 +17802,10 @@
         <v>34</v>
       </c>
       <c r="C318" s="83" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D318" s="83" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E318" s="83" t="s">
         <v>6</v>
@@ -18321,10 +17820,10 @@
         <v>35</v>
       </c>
       <c r="C319" s="83" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D319" s="83" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E319" s="83" t="s">
         <v>11</v>
@@ -18339,10 +17838,10 @@
         <v>36</v>
       </c>
       <c r="C320" s="83" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D320" s="83" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E320" s="83" t="s">
         <v>9</v>
@@ -18357,10 +17856,10 @@
         <v>37</v>
       </c>
       <c r="C321" s="83" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D321" s="83" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E321" s="83" t="s">
         <v>7</v>
@@ -18375,10 +17874,10 @@
         <v>38</v>
       </c>
       <c r="C322" s="83" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D322" s="83" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E322" s="83" t="s">
         <v>7</v>
@@ -18393,10 +17892,10 @@
         <v>39</v>
       </c>
       <c r="C323" s="83" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D323" s="83" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E323" s="83" t="s">
         <v>10</v>
@@ -18411,10 +17910,10 @@
         <v>40</v>
       </c>
       <c r="C324" s="83" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D324" s="83" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E324" s="83" t="s">
         <v>8</v>
@@ -18429,10 +17928,10 @@
         <v>41</v>
       </c>
       <c r="C325" s="83" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D325" s="83" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E325" s="83" t="s">
         <v>10</v>
@@ -18447,10 +17946,10 @@
         <v>42</v>
       </c>
       <c r="C326" s="83" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D326" s="83" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E326" s="83" t="s">
         <v>11</v>
@@ -18465,10 +17964,10 @@
         <v>43</v>
       </c>
       <c r="C327" s="83" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D327" s="83" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E327" s="83" t="s">
         <v>12</v>
@@ -18483,10 +17982,10 @@
         <v>44</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D328" s="83" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E328" s="83" t="s">
         <v>7</v>
@@ -18501,10 +18000,10 @@
         <v>45</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D329" s="83" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E329" s="83" t="s">
         <v>10</v>
@@ -18519,10 +18018,10 @@
         <v>46</v>
       </c>
       <c r="C330" s="83" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D330" s="83" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E330" s="83" t="s">
         <v>9</v>
@@ -18537,10 +18036,10 @@
         <v>47</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D331" s="83" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E331" s="83" t="s">
         <v>7</v>
@@ -18555,10 +18054,10 @@
         <v>48</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D332" s="83" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E332" s="83" t="s">
         <v>6</v>
@@ -18573,10 +18072,10 @@
         <v>49</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D333" s="83" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E333" s="83" t="s">
         <v>8</v>
@@ -18588,22 +18087,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B35 B36:F45">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F34">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:J132">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18642,7 +18141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EBA677-80B7-4A1F-8551-EE691CBD86A4}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -18662,7 +18161,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -18673,13 +18172,13 @@
         <v>56</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
@@ -18697,7 +18196,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -18715,12 +18214,12 @@
         <v>119</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -18731,10 +18230,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -18831,6 +18330,434 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC7EF1-95B0-477B-A02D-086B6A131F7A}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="84.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
@@ -18857,25 +18784,25 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F854F5-D1E2-46C0-B702-836566412A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A933AF-095E-4564-828E-C125748A6F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -3251,59 +3251,6 @@
   </cellStyles>
   <dxfs count="197">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -3405,6 +3352,138 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5500,6 +5579,59 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6802,138 +6934,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
@@ -7560,10 +7560,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="193">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
@@ -7576,38 +7572,38 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B221:D224" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="80">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="75" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="78" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B80:I122" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B80:I122" xr:uid="{2B645CB4-F641-4C38-A983-F38F00FA7B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B81:I122">
     <sortCondition ref="C81:C122"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt; 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7616,68 +7612,68 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B213:E216" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B263:J267" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B284:F333" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B230:I232" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7687,10 +7683,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7699,23 +7695,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -7723,12 +7719,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="174">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7738,17 +7734,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7798,43 +7794,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:M45" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:M45" totalsRowShown="0" headerRowDxfId="176" dataDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="173" totalsRowBorderDxfId="172">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:M45">
     <sortCondition ref="D21:D45"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="171" totalsRowDxfId="170">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula array="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="159" totalsRowDxfId="158">
       <calculatedColumnFormula xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="157" totalsRowDxfId="156">
       <calculatedColumnFormula array="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="155" totalsRowDxfId="154">
       <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7843,34 +7839,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B237:L239" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B237:L239" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="130"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="137"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="136"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B272:D279" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B272:D279" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="130">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7879,66 +7875,66 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:F258" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B244:F258" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="126">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="125"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B49:F74" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="B49:F74" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:F74">
     <sortCondition ref="C50:C74"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="112" totalsRowDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B126:P169" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="B126:P169" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B127:P169">
     <sortCondition ref="C127:C169"/>
     <sortCondition ref="D127:D169"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="108">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="101"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="98"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="96"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="94"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="93"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="91">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="104"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="101"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="96"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="94">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7947,24 +7943,24 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B174:J208" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="B174:J208" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B175:J203">
     <sortCondition ref="E175:E203"/>
     <sortCondition ref="C175:C203"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="91">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8617,10 +8613,10 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9115,10 +9111,7 @@
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
         <v>11</v>
       </c>
-      <c r="M12" s="49" t="str" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", , COLUMN( co_modelTypes[[#Headers],[modelMaxOutput]:[modelMaxExtrap]] )  - doc_tablesList[[#This Row],[id_colIndex]] + 1 )</f>
-        <v>10, 11</v>
-      </c>
+      <c r="M12" s="49"/>
       <c r="N12" s="48" t="s">
         <v>269</v>
       </c>
@@ -9376,9 +9369,9 @@
   </sheetPr>
   <dimension ref="A1:U333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A211" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G108" sqref="G108"/>
+      <selection pane="topRight" activeCell="L237" sqref="L237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18087,22 +18080,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B35 B36:F45">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F34">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula xml:space="preserve"> IF( $E35 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:J132">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F409E1-002B-4C05-8126-05BD5A5660CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2600DC6-75F8-4F29-AE38-209B14B337A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4860" yWindow="-29370" windowWidth="26790" windowHeight="22920" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="632">
   <si>
     <t>CanESM2</t>
   </si>
@@ -3032,7 +3032,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3278,63 +3278,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1" xfId="34" builtinId="30" customBuiltin="1"/>
@@ -3403,32 +3346,6 @@
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="197">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4374,6 +4291,32 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7756,7 +7699,7 @@
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7765,68 +7708,68 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B230:E233" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B230:E233" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B280:J284" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B280:J284" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B301:F350" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B301:F350" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B247:I249" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B247:I249" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7836,10 +7779,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7848,23 +7791,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -7872,12 +7815,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7887,17 +7830,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9522,9 +9465,9 @@
   </sheetPr>
   <dimension ref="A1:U350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I32" sqref="I32"/>
+      <selection pane="topRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10489,105 +10432,105 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="91">
+      <c r="B35" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="76" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="E35" s="94">
-        <v>1</v>
-      </c>
-      <c r="F35" s="95" t="s">
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="96" t="str" cm="1">
+      <c r="G35" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</f>
         <v>Low Accretion Scenario, Medium Accretion Scenario, High Accretion Scenario</v>
       </c>
-      <c r="H35" s="96" t="str">
+      <c r="H35" s="89" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
         <v>NA</v>
       </c>
-      <c r="I35" s="96" t="str" cm="1">
+      <c r="I35" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
         <v>Lost Carbon Sequestration, Lost Methane Sequestration, Lost Marsh Area, Property Protection Costs</v>
       </c>
-      <c r="J35" s="97">
+      <c r="J35" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="K35" s="96" cm="1">
+      <c r="K35" s="89" cm="1">
         <f t="array" ref="K35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
         <v>3</v>
       </c>
-      <c r="L35" s="96" cm="1">
+      <c r="L35" s="89" cm="1">
         <f t="array" ref="L35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
         <v>4</v>
       </c>
-      <c r="M35" s="96" cm="1">
+      <c r="M35" s="89" cm="1">
         <f t="array" ref="M35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="91">
+      <c r="B36" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="76" t="s">
         <v>625</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="E36" s="94">
-        <v>1</v>
-      </c>
-      <c r="F36" s="95" t="s">
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="96" t="str" cm="1">
+      <c r="G36" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</f>
         <v>Low Accretion Scenario, Medium Accretion Scenario, High Accretion Scenario</v>
       </c>
-      <c r="H36" s="96" t="str">
+      <c r="H36" s="89" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
         <v>NA</v>
       </c>
-      <c r="I36" s="96" t="str" cm="1">
+      <c r="I36" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
         <v>Restoration Costs</v>
       </c>
-      <c r="J36" s="97">
+      <c r="J36" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="K36" s="96" cm="1">
+      <c r="K36" s="89" cm="1">
         <f t="array" ref="K36" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
         <v>3</v>
       </c>
-      <c r="L36" s="96" cm="1">
+      <c r="L36" s="89" cm="1">
         <f t="array" ref="L36" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
         <v>1</v>
       </c>
-      <c r="M36" s="96" cm="1">
+      <c r="M36" s="89" cm="1">
         <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
         <v>2</v>
       </c>
@@ -11459,32 +11402,32 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B66" s="98">
+      <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D66" s="99" t="s">
+      <c r="D66" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="100"/>
-      <c r="F66" s="99"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B67" s="98">
+      <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="D67" s="99" t="s">
+      <c r="D67" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="100"/>
-      <c r="F67" s="99"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
@@ -12702,7 +12645,7 @@
       <c r="M111"/>
     </row>
     <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B112" s="98">
+      <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
@@ -12715,18 +12658,18 @@
       <c r="E112" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="F112" s="101">
-        <v>1</v>
-      </c>
-      <c r="G112" s="101">
-        <v>1</v>
-      </c>
-      <c r="H112" s="102" t="str">
+      <c r="F112" s="61">
+        <v>0</v>
+      </c>
+      <c r="G112" s="61">
+        <v>0</v>
+      </c>
+      <c r="H112" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I112" s="103" cm="1">
+      <c r="I112" s="34" cm="1">
         <f t="array" ref="I112" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -12736,7 +12679,7 @@
       <c r="M112"/>
     </row>
     <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" s="98">
+      <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
@@ -12749,18 +12692,18 @@
       <c r="E113" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="F113" s="101">
-        <v>1</v>
-      </c>
-      <c r="G113" s="101">
-        <v>1</v>
-      </c>
-      <c r="H113" s="102" t="str">
+      <c r="F113" s="61">
+        <v>1</v>
+      </c>
+      <c r="G113" s="61">
+        <v>1</v>
+      </c>
+      <c r="H113" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I113" s="103" cm="1">
+      <c r="I113" s="34" cm="1">
         <f t="array" ref="I113" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -12770,7 +12713,7 @@
       <c r="M113"/>
     </row>
     <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B114" s="98">
+      <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
@@ -12783,18 +12726,18 @@
       <c r="E114" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="F114" s="101">
-        <v>1</v>
-      </c>
-      <c r="G114" s="101">
-        <v>1</v>
-      </c>
-      <c r="H114" s="102" t="str">
+      <c r="F114" s="61">
+        <v>0</v>
+      </c>
+      <c r="G114" s="61">
+        <v>0</v>
+      </c>
+      <c r="H114" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I114" s="103" cm="1">
+      <c r="I114" s="34" cm="1">
         <f t="array" ref="I114" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -12804,7 +12747,7 @@
       <c r="M114"/>
     </row>
     <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B115" s="98">
+      <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
@@ -12817,18 +12760,18 @@
       <c r="E115" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="F115" s="101">
-        <v>1</v>
-      </c>
-      <c r="G115" s="101">
-        <v>1</v>
-      </c>
-      <c r="H115" s="102" t="str">
+      <c r="F115" s="61">
+        <v>0</v>
+      </c>
+      <c r="G115" s="61">
+        <v>0</v>
+      </c>
+      <c r="H115" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I115" s="103" cm="1">
+      <c r="I115" s="34" cm="1">
         <f t="array" ref="I115" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -12838,7 +12781,7 @@
       <c r="M115"/>
     </row>
     <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B116" s="98">
+      <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
       </c>
@@ -12851,18 +12794,18 @@
       <c r="E116" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="F116" s="101">
-        <v>1</v>
-      </c>
-      <c r="G116" s="101">
-        <v>1</v>
-      </c>
-      <c r="H116" s="102" t="str">
+      <c r="F116" s="61">
+        <v>1</v>
+      </c>
+      <c r="G116" s="61">
+        <v>1</v>
+      </c>
+      <c r="H116" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I116" s="103" cm="1">
+      <c r="I116" s="34" cm="1">
         <f t="array" ref="I116" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -12872,7 +12815,7 @@
       <c r="M116"/>
     </row>
     <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B117" s="98">
+      <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
@@ -12885,18 +12828,18 @@
       <c r="E117" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="F117" s="101">
-        <v>1</v>
-      </c>
-      <c r="G117" s="101">
-        <v>1</v>
-      </c>
-      <c r="H117" s="102" t="str">
+      <c r="F117" s="61">
+        <v>0</v>
+      </c>
+      <c r="G117" s="61">
+        <v>0</v>
+      </c>
+      <c r="H117" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I117" s="103" cm="1">
+      <c r="I117" s="34" cm="1">
         <f t="array" ref="I117" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -14473,11 +14416,11 @@
       </c>
     </row>
     <row r="157" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B157" s="98">
+      <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
-      <c r="C157" s="104" t="s">
+      <c r="C157" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D157" s="28" t="s">
@@ -14504,7 +14447,7 @@
       <c r="K157" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="L157" s="105" t="s">
+      <c r="L157" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M157" s="27">
@@ -14516,17 +14459,17 @@
       <c r="O157" s="27">
         <v>1</v>
       </c>
-      <c r="P157" s="106" t="str">
+      <c r="P157" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="158" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B158" s="98">
+      <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C158" s="104" t="s">
+      <c r="C158" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D158" s="28" t="s">
@@ -14553,7 +14496,7 @@
       <c r="K158" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="L158" s="105" t="s">
+      <c r="L158" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M158" s="27">
@@ -14565,17 +14508,17 @@
       <c r="O158" s="27">
         <v>1</v>
       </c>
-      <c r="P158" s="106" t="str">
+      <c r="P158" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B159" s="98">
+      <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
-      <c r="C159" s="104" t="s">
+      <c r="C159" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D159" s="28" t="s">
@@ -14602,7 +14545,7 @@
       <c r="K159" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L159" s="105" t="s">
+      <c r="L159" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M159" s="27">
@@ -14614,17 +14557,17 @@
       <c r="O159" s="27">
         <v>1</v>
       </c>
-      <c r="P159" s="106" t="str">
+      <c r="P159" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="160" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="98">
+      <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
       </c>
-      <c r="C160" s="104" t="s">
+      <c r="C160" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D160" s="28" t="s">
@@ -14651,7 +14594,7 @@
       <c r="K160" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L160" s="105" t="s">
+      <c r="L160" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M160" s="27">
@@ -14663,17 +14606,17 @@
       <c r="O160" s="27">
         <v>1</v>
       </c>
-      <c r="P160" s="106" t="str">
+      <c r="P160" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B161" s="98">
+      <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
       </c>
-      <c r="C161" s="104" t="s">
+      <c r="C161" s="7" t="s">
         <v>625</v>
       </c>
       <c r="D161" s="28" t="s">
@@ -14700,15 +14643,19 @@
       <c r="K161" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L161" s="105" t="s">
+      <c r="L161" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M161" s="27">
         <v>0</v>
       </c>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
-      <c r="P161" s="106" t="str">
+      <c r="N161" s="27">
+        <v>1</v>
+      </c>
+      <c r="O161" s="27">
+        <v>1</v>
+      </c>
+      <c r="P161" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
@@ -16329,7 +16276,7 @@
       <c r="J203" s="66"/>
     </row>
     <row r="204" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B204" s="107">
+      <c r="B204" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
@@ -16348,16 +16295,16 @@
       <c r="G204" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H204" s="108">
+      <c r="H204" s="82">
         <v>2015</v>
       </c>
-      <c r="I204" s="109" t="s">
+      <c r="I204" s="49" t="s">
         <v>191</v>
       </c>
       <c r="J204" s="66"/>
     </row>
     <row r="205" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B205" s="107">
+      <c r="B205" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
@@ -16376,10 +16323,10 @@
       <c r="G205" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H205" s="108">
+      <c r="H205" s="82">
         <v>2015</v>
       </c>
-      <c r="I205" s="109" t="s">
+      <c r="I205" s="49" t="s">
         <v>191</v>
       </c>
       <c r="J205" s="66"/>
@@ -18866,22 +18813,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B37 B38:F47">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula xml:space="preserve"> IF( $E37 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F36">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:F37">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula xml:space="preserve"> IF( $E37 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I142:J142">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2600DC6-75F8-4F29-AE38-209B14B337A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A0F73-F14F-42B6-98F4-7929091DB094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="-29370" windowWidth="26790" windowHeight="22920" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -9465,9 +9465,9 @@
   </sheetPr>
   <dimension ref="A1:U350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G118" sqref="G118"/>
+      <selection pane="topRight" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12798,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911CEC0-2A3C-4BB8-9BB7-87F9161A8051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62BF34E-9A97-4C70-B778-9E6DBCD7F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3050,7 +3050,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3296,36 +3296,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1" xfId="34" builtinId="30" customBuiltin="1"/>
@@ -3394,6 +3364,60 @@
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="197">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6240,33 +6264,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
@@ -6397,33 +6394,6 @@
         <top/>
         <bottom/>
       </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -7716,38 +7686,38 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B243:D246" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B243:D246" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="82">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="80" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B86:I135" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B86:I135" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B86:I135" xr:uid="{2B645CB4-F641-4C38-A983-F38F00FA7B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B87:I135">
     <sortCondition ref="C87:C135"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="63">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7756,68 +7726,68 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B235:E238" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B235:E238" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="60">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B285:J289" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B285:J289" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="54">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="48">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B306:F355" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B306:F355" totalsRowShown="0" headerRowDxfId="45">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="44">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B252:I254" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B252:I254" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="37">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7827,10 +7797,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7839,23 +7809,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="25">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -7863,12 +7833,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7878,17 +7848,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7965,17 +7935,17 @@
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="155" totalsRowDxfId="154">
-      <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="1" totalsRowDxfId="155">
+      <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="149" totalsRowDxfId="148">
-      <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="0" totalsRowDxfId="150">
+      <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7983,34 +7953,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B259:L261" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B259:L261" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="147">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="143"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="137"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="139"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B294:D301" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B294:D301" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="134">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8019,66 +7989,66 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B266:F280" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B266:F280" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="129">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="126">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="128">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="125"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="127"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B52:F80" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B52:F80" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="B52:F80" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B53:F80">
     <sortCondition ref="C53:C80"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="114" totalsRowDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B139:P188" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B139:P188" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="B139:P188" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B140:P188">
     <sortCondition ref="C140:C188"/>
     <sortCondition ref="D140:D188"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="110">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="104"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="95"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="106"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="103"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="99"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="98"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="96">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8087,24 +8057,24 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B193:J230" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B193:J230" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="B193:J230" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B194:J225">
     <sortCondition ref="E194:E225"/>
     <sortCondition ref="C194:C225"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="93">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9513,9 +9483,9 @@
   </sheetPr>
   <dimension ref="A1:U355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9787,8 +9757,8 @@
         <v>Ozone, PM2.5</v>
       </c>
       <c r="J21" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K21" s="36" cm="1">
         <f t="array" ref="K21" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -9799,8 +9769,8 @@
         <v>2</v>
       </c>
       <c r="M21" s="36" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M21" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -9839,8 +9809,8 @@
         <v>N/A</v>
       </c>
       <c r="J22" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K22" s="36" cm="1">
         <f t="array" ref="K22" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -9851,8 +9821,8 @@
         <v>1</v>
       </c>
       <c r="M22" s="36" cm="1">
-        <f t="array" ref="M22" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M22" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -9891,8 +9861,8 @@
         <v>N/A</v>
       </c>
       <c r="J23" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K23" s="36" cm="1">
         <f t="array" ref="K23" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -9903,8 +9873,8 @@
         <v>1</v>
       </c>
       <c r="M23" s="36" cm="1">
-        <f t="array" ref="M23" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M23" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -9943,8 +9913,8 @@
         <v>Cotton, Maize, Soybean, Wheat</v>
       </c>
       <c r="J24" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K24" s="36" cm="1">
         <f t="array" ref="K24" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -9955,8 +9925,8 @@
         <v>4</v>
       </c>
       <c r="M24" s="36" cm="1">
-        <f t="array" ref="M24" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M24" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -9995,8 +9965,8 @@
         <v>Property, Violent</v>
       </c>
       <c r="J25" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K25" s="36" cm="1">
         <f t="array" ref="K25" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10007,8 +9977,8 @@
         <v>2</v>
       </c>
       <c r="M25" s="36" cm="1">
-        <f t="array" ref="M25" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M25" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10047,8 +10017,8 @@
         <v>N/A</v>
       </c>
       <c r="J26" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K26" s="36" cm="1">
         <f t="array" ref="K26" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10059,8 +10029,8 @@
         <v>1</v>
       </c>
       <c r="M26" s="36" cm="1">
-        <f t="array" ref="M26" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M26" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10099,8 +10069,8 @@
         <v>N/A</v>
       </c>
       <c r="J27" s="22">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K27" s="36" cm="1">
         <f t="array" ref="K27" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10111,8 +10081,8 @@
         <v>1</v>
       </c>
       <c r="M27" s="36" cm="1">
-        <f t="array" ref="M27" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M27" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10151,8 +10121,8 @@
         <v>N/A</v>
       </c>
       <c r="J28" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K28" s="36" cm="1">
         <f t="array" ref="K28" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10163,8 +10133,8 @@
         <v>1</v>
       </c>
       <c r="M28" s="36" cm="1">
-        <f t="array" ref="M28" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M28" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -10203,8 +10173,8 @@
         <v>N/A</v>
       </c>
       <c r="J29" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K29" s="36" cm="1">
         <f t="array" ref="K29" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10215,8 +10185,8 @@
         <v>1</v>
       </c>
       <c r="M29" s="36" cm="1">
-        <f t="array" ref="M29" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M29" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
@@ -10255,7 +10225,7 @@
         <v>Cold, Hot</v>
       </c>
       <c r="J30" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="K30" s="36" cm="1">
@@ -10267,7 +10237,7 @@
         <v>2</v>
       </c>
       <c r="M30" s="36" cm="1">
-        <f t="array" ref="M30" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M30" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
@@ -10307,8 +10277,8 @@
         <v>N/A</v>
       </c>
       <c r="J31" s="22">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K31" s="36" cm="1">
         <f t="array" ref="K31" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10319,8 +10289,8 @@
         <v>1</v>
       </c>
       <c r="M31" s="36" cm="1">
-        <f t="array" ref="M31" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M31" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -10359,8 +10329,8 @@
         <v>N/A</v>
       </c>
       <c r="J32" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K32" s="36" cm="1">
         <f t="array" ref="K32" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10371,8 +10341,8 @@
         <v>1</v>
       </c>
       <c r="M32" s="36" cm="1">
-        <f t="array" ref="M32" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M32" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -10411,8 +10381,8 @@
         <v>N/A</v>
       </c>
       <c r="J33" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K33" s="36" cm="1">
         <f t="array" ref="K33" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10423,8 +10393,8 @@
         <v>1</v>
       </c>
       <c r="M33" s="36" cm="1">
-        <f t="array" ref="M33" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M33" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -10463,8 +10433,8 @@
         <v>N/A</v>
       </c>
       <c r="J34" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K34" s="89" cm="1">
         <f t="array" ref="K34" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10475,8 +10445,8 @@
         <v>1</v>
       </c>
       <c r="M34" s="89" cm="1">
-        <f t="array" ref="M34" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M34" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -10515,8 +10485,8 @@
         <v>N/A</v>
       </c>
       <c r="J35" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K35" s="36" cm="1">
         <f t="array" ref="K35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10527,8 +10497,8 @@
         <v>1</v>
       </c>
       <c r="M35" s="36" cm="1">
-        <f t="array" ref="M35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
@@ -10567,8 +10537,8 @@
         <v>Lost Carbon Sequestration, Lost Methane Sequestration, Lost Marsh Area, Property Protection Costs</v>
       </c>
       <c r="J36" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K36" s="89" cm="1">
         <f t="array" ref="K36" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10579,8 +10549,8 @@
         <v>4</v>
       </c>
       <c r="M36" s="89" cm="1">
-        <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
@@ -10619,8 +10589,8 @@
         <v>Restoration Costs</v>
       </c>
       <c r="J37" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K37" s="89" cm="1">
         <f t="array" ref="K37" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10631,8 +10601,8 @@
         <v>1</v>
       </c>
       <c r="M37" s="89" cm="1">
-        <f t="array" ref="M37" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M37" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
@@ -10671,8 +10641,8 @@
         <v>N/A</v>
       </c>
       <c r="J38" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K38" s="36" cm="1">
         <f t="array" ref="K38" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10683,8 +10653,8 @@
         <v>1</v>
       </c>
       <c r="M38" s="36" cm="1">
-        <f t="array" ref="M38" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M38" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
@@ -10723,8 +10693,8 @@
         <v>N/A</v>
       </c>
       <c r="J39" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K39" s="36" cm="1">
         <f t="array" ref="K39" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10735,8 +10705,8 @@
         <v>1</v>
       </c>
       <c r="M39" s="36" cm="1">
-        <f t="array" ref="M39" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M39" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
@@ -10775,8 +10745,8 @@
         <v>N/A</v>
       </c>
       <c r="J40" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K40" s="36" cm="1">
         <f t="array" ref="K40" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10787,8 +10757,8 @@
         <v>1</v>
       </c>
       <c r="M40" s="36" cm="1">
-        <f t="array" ref="M40" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M40" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
@@ -10827,7 +10797,7 @@
         <v>Acute Myocardial Infarction, All Cardiovascular, All Mortality, All Respiratory, Asthma ER</v>
       </c>
       <c r="J41" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="K41" s="36" cm="1">
@@ -10839,7 +10809,7 @@
         <v>5</v>
       </c>
       <c r="M41" s="36" cm="1">
-        <f t="array" ref="M41" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M41" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
@@ -10879,8 +10849,8 @@
         <v>N/A</v>
       </c>
       <c r="J42" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K42" s="36" cm="1">
         <f t="array" ref="K42" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10891,8 +10861,8 @@
         <v>1</v>
       </c>
       <c r="M42" s="36" cm="1">
-        <f t="array" ref="M42" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M42" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
@@ -10931,8 +10901,8 @@
         <v>Lost Wages, Morbidity, Mortality</v>
       </c>
       <c r="J43" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K43" s="36" cm="1">
         <f t="array" ref="K43" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10943,8 +10913,8 @@
         <v>3</v>
       </c>
       <c r="M43" s="36" cm="1">
-        <f t="array" ref="M43" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M43" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
@@ -10983,8 +10953,8 @@
         <v>Direct Medical Cost, Lost Days, Mortality</v>
       </c>
       <c r="J44" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K44" s="36" cm="1">
         <f t="array" ref="K44" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -10995,8 +10965,8 @@
         <v>3</v>
       </c>
       <c r="M44" s="36" cm="1">
-        <f t="array" ref="M44" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M44" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
@@ -11035,8 +11005,8 @@
         <v>N/A</v>
       </c>
       <c r="J45" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K45" s="36" cm="1">
         <f t="array" ref="K45" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11047,8 +11017,8 @@
         <v>1</v>
       </c>
       <c r="M45" s="36" cm="1">
-        <f t="array" ref="M45" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M45" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
@@ -11087,8 +11057,8 @@
         <v>Morbidity, Mortality, Response Costs</v>
       </c>
       <c r="J46" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K46" s="36" cm="1">
         <f t="array" ref="K46" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11099,8 +11069,8 @@
         <v>3</v>
       </c>
       <c r="M46" s="36" cm="1">
-        <f t="array" ref="M46" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M46" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -11139,8 +11109,8 @@
         <v>N/A</v>
       </c>
       <c r="J47" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
-        <v>1</v>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K47" s="36" cm="1">
         <f t="array" ref="K47" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
@@ -11151,8 +11121,8 @@
         <v>1</v>
       </c>
       <c r="M47" s="36" cm="1">
-        <f t="array" ref="M47" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
-        <v>2</v>
+        <f t="array" ref="M47" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
@@ -11191,7 +11161,7 @@
         <v>Alpine Skiing, Cross-Country Skiing, Snowmobiling</v>
       </c>
       <c r="J48" s="21">
-        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "N/A", 0, 1)</f>
+        <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>1</v>
       </c>
       <c r="K48" s="36" cm="1">
@@ -11203,7 +11173,7 @@
         <v>3</v>
       </c>
       <c r="M48" s="36" cm="1">
-        <f t="array" ref="M48" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "N/A", 1, 2 )</f>
+        <f t="array" ref="M48" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>2</v>
       </c>
     </row>
@@ -12725,7 +12695,7 @@
       <c r="M112"/>
     </row>
     <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" s="91">
+      <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
@@ -12736,20 +12706,20 @@
         <v>38</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="92">
-        <v>1</v>
-      </c>
-      <c r="G113" s="92">
-        <v>1</v>
-      </c>
-      <c r="H113" s="93" t="str">
+        <v>207</v>
+      </c>
+      <c r="F113" s="61">
+        <v>1</v>
+      </c>
+      <c r="G113" s="61">
+        <v>1</v>
+      </c>
+      <c r="H113" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I113" s="94" cm="1">
+      <c r="I113" s="34" cm="1">
         <f t="array" ref="I113" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -14515,18 +14485,18 @@
       </c>
     </row>
     <row r="159" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B159" s="91">
+      <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
-      <c r="C159" s="95" t="s">
+      <c r="C159" s="7" t="s">
         <v>632</v>
       </c>
       <c r="D159" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="F159" s="32" t="s">
         <v>634</v>
@@ -14546,7 +14516,7 @@
       <c r="K159" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="L159" s="96" t="s">
+      <c r="L159" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M159" s="27">
@@ -14558,7 +14528,7 @@
       <c r="O159" s="27">
         <v>1</v>
       </c>
-      <c r="P159" s="97" t="str">
+      <c r="P159" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
@@ -16447,7 +16417,7 @@
       </c>
     </row>
     <row r="207" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B207" s="98">
+      <c r="B207" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
@@ -16466,10 +16436,10 @@
       <c r="G207" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H207" s="99">
+      <c r="H207" s="81">
         <v>2015</v>
       </c>
-      <c r="I207" s="100" t="s">
+      <c r="I207" s="49" t="s">
         <v>191</v>
       </c>
       <c r="J207" s="66"/>
@@ -19038,22 +19008,22 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B38 B39:F48">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula xml:space="preserve"> IF( $E38 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F37">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula xml:space="preserve"> IF( $E38 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:J145">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CAC697-69D9-4C31-B42C-2CF8D1507338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC9458D-DA84-436E-88EA-485645A35402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="slr_cm" sheetId="49" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="k_coBillions">controlTables!$D$256</definedName>
-    <definedName name="k_coMillions">controlTables!$D$257</definedName>
-    <definedName name="k_coThousands">controlTables!$D$258</definedName>
+    <definedName name="k_coBillions">controlTables!$D$254</definedName>
+    <definedName name="k_coMillions">controlTables!$D$255</definedName>
+    <definedName name="k_coThousands">controlTables!$D$256</definedName>
     <definedName name="list_co_gcms">co_models[model_id]</definedName>
     <definedName name="list_coimpactYearOptions" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN(co_impactYears[[#Headers],[2090]]), , , "DropDownMenus" ) ), 1, 0, mv_coNum_impactYears, 1 )</definedName>
     <definedName name="loc_coAdaptations">co_variants[[#Headers],[row_id]]</definedName>
@@ -196,7 +196,7 @@
     This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</t>
       </text>
     </comment>
-    <comment ref="J271" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+    <comment ref="J269" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +204,7 @@
     Year when change and impacts are zero</t>
       </text>
     </comment>
-    <comment ref="L271" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+    <comment ref="L269" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +212,7 @@
     Maximum value to extrapolate to, for models that go up to the maximum output value.</t>
       </text>
     </comment>
-    <comment ref="D278" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+    <comment ref="D276" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +220,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J297" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J295" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="661">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2162,18 +2162,6 @@
   </si>
   <si>
     <t>Restoration Costs</t>
-  </si>
-  <si>
-    <t>unitCost_carbon</t>
-  </si>
-  <si>
-    <t>unitCost_methane</t>
-  </si>
-  <si>
-    <t>Unit Cost of Carbon</t>
-  </si>
-  <si>
-    <t>Unit Cost of Methane</t>
   </si>
   <si>
     <t>Acres of Lost Marsh Area</t>
@@ -3131,7 +3119,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3376,57 +3364,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -7818,7 +7755,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B255:D258" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B253:D256" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="80">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -7858,7 +7795,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B247:E250" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B245:E248" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -7872,7 +7809,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B297:J301" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B295:J299" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -7893,7 +7830,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B318:F367" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B316:F365" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -7908,7 +7845,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B264:I266" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B262:I264" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8085,7 +8022,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B271:L273" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B269:L271" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8106,7 +8043,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B306:D313" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B304:D311" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8121,7 +8058,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B278:F292" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B276:F290" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8189,11 +8126,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B202:J242" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
-  <autoFilter ref="B202:J242" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B203:J237">
-    <sortCondition ref="E203:E237"/>
-    <sortCondition ref="C203:C237"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B202:J240" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="B202:J240" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B203:J235">
+    <sortCondition ref="E203:E235"/>
+    <sortCondition ref="C203:C235"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="91">
@@ -8556,16 +8493,16 @@
   <threadedComment ref="F202" dT="2021-04-02T15:36:58.50" personId="{00000000-0000-0000-0000-000000000000}" id="{EF83C059-A623-47AC-AFC4-40246F6AF9B2}">
     <text>This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</text>
   </threadedComment>
-  <threadedComment ref="J271" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+  <threadedComment ref="J269" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
     <text>Year when change and impacts are zero</text>
   </threadedComment>
-  <threadedComment ref="L271" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+  <threadedComment ref="L269" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
     <text>Maximum value to extrapolate to, for models that go up to the maximum output value.</text>
   </threadedComment>
-  <threadedComment ref="D278" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+  <threadedComment ref="D276" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J297" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J295" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -9148,11 +9085,11 @@
       </c>
       <c r="H8" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J8" s="31" cm="1">
         <f t="array" aca="1" ref="J8" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9191,7 +9128,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9199,7 +9136,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9238,7 +9175,7 @@
       </c>
       <c r="G10" s="31" cm="1">
         <f t="array" aca="1" ref="G10" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9246,7 +9183,7 @@
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9285,7 +9222,7 @@
       </c>
       <c r="G11" s="31" cm="1">
         <f t="array" aca="1" ref="G11" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H11" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9293,7 +9230,7 @@
       </c>
       <c r="I11" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J11" s="31" cm="1">
         <f t="array" aca="1" ref="J11" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9335,7 +9272,7 @@
       </c>
       <c r="G12" s="31" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H12" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9343,7 +9280,7 @@
       </c>
       <c r="I12" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J12" s="31" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9382,7 +9319,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9390,7 +9327,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9523,7 +9460,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9531,7 +9468,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9570,7 +9507,7 @@
       </c>
       <c r="G17" s="31" cm="1">
         <f t="array" aca="1" ref="G17" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H17" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9578,7 +9515,7 @@
       </c>
       <c r="I17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J17" s="31" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9613,11 +9550,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U367"/>
+  <dimension ref="A1:U365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D39" sqref="D39"/>
+      <selection pane="topRight" activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10535,10 +10472,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E34" s="12">
         <v>1</v>
@@ -10633,16 +10570,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B36" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C36" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>626</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>630</v>
       </c>
       <c r="E36" s="12">
         <v>1</v>
@@ -10666,7 +10603,7 @@
         <f t="array" aca="1" ref="I36" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
-        <v>Lost Carbon Sequestration, Lost Methane Sequestration, Lost Marsh Area, Property Protection Costs</v>
+        <v>Restoration Costs</v>
       </c>
       <c r="J36" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
@@ -10678,23 +10615,23 @@
       </c>
       <c r="L36" s="89" cm="1">
         <f t="array" ref="L36" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M36" s="89" cm="1">
         <f t="array" ref="M36" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B37" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E37" s="12">
         <v>1</v>
@@ -10718,7 +10655,7 @@
         <f t="array" aca="1" ref="I37" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
-        <v>Restoration Costs</v>
+        <v>Lost Carbon Sequestration, Lost Methane Sequestration, Lost Marsh Area, Property Protection Costs</v>
       </c>
       <c r="J37" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
@@ -10730,7 +10667,7 @@
       </c>
       <c r="L37" s="89" cm="1">
         <f t="array" ref="L37" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37" s="89" cm="1">
         <f t="array" ref="M37" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
@@ -10738,53 +10675,53 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="91">
+      <c r="B38" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
-      <c r="C38" s="92" t="s">
-        <v>638</v>
-      </c>
-      <c r="D38" s="93" t="s">
-        <v>664</v>
-      </c>
-      <c r="E38" s="94">
-        <v>1</v>
-      </c>
-      <c r="F38" s="95" t="s">
+      <c r="C38" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="96" t="str" cm="1">
+      <c r="G38" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</f>
         <v>Proactive Adaptation, No Adaptation</v>
       </c>
-      <c r="H38" s="96" t="str">
+      <c r="H38" s="89" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
         <v>NA</v>
       </c>
-      <c r="I38" s="96" t="str" cm="1">
+      <c r="I38" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="I38" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
         <v>Fishing Activity, Snow Sport Activity, Water Sport Activity, Other Activity, Other Activity Trips</v>
       </c>
-      <c r="J38" s="97">
+      <c r="J38" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="96" cm="1">
+      <c r="K38" s="89" cm="1">
         <f t="array" ref="K38" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
         <v>2</v>
       </c>
-      <c r="L38" s="96" cm="1">
+      <c r="L38" s="89" cm="1">
         <f t="array" ref="L38" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
         <v>5</v>
       </c>
-      <c r="M38" s="96" cm="1">
+      <c r="M38" s="89" cm="1">
         <f t="array" ref="M38" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>1</v>
       </c>
@@ -11643,7 +11580,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>207</v>
@@ -11675,7 +11612,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>207</v>
@@ -11689,7 +11626,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>207</v>
@@ -11698,18 +11635,18 @@
       <c r="F70" s="27"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="98">
+      <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="D71" s="99" t="s">
+        <v>634</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="100"/>
-      <c r="F71" s="99"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
@@ -12898,7 +12835,7 @@
         <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D115" s="26" t="s">
         <v>38</v>
@@ -12966,10 +12903,10 @@
         <v>29</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>602</v>
@@ -13000,10 +12937,10 @@
         <v>30</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>601</v>
@@ -13034,10 +12971,10 @@
         <v>31</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>600</v>
@@ -13068,10 +13005,10 @@
         <v>32</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>602</v>
@@ -13102,10 +13039,10 @@
         <v>33</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>601</v>
@@ -13136,10 +13073,10 @@
         <v>34</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>625</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>629</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>600</v>
@@ -13165,12 +13102,12 @@
       <c r="M122"/>
     </row>
     <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B123" s="98">
+      <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D123" s="26" t="s">
         <v>120</v>
@@ -13178,18 +13115,18 @@
       <c r="E123" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F123" s="101">
-        <v>0</v>
-      </c>
-      <c r="G123" s="101">
-        <v>0</v>
-      </c>
-      <c r="H123" s="102" t="str">
+      <c r="F123" s="61">
+        <v>0</v>
+      </c>
+      <c r="G123" s="61">
+        <v>0</v>
+      </c>
+      <c r="H123" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I123" s="103" cm="1">
+      <c r="I123" s="34" cm="1">
         <f t="array" ref="I123" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -13199,31 +13136,31 @@
       <c r="M123"/>
     </row>
     <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B124" s="98">
+      <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D124" s="26" t="s">
         <v>119</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="F124" s="101">
-        <v>1</v>
-      </c>
-      <c r="G124" s="101">
-        <v>1</v>
-      </c>
-      <c r="H124" s="102" t="str">
+        <v>635</v>
+      </c>
+      <c r="F124" s="61">
+        <v>1</v>
+      </c>
+      <c r="G124" s="61">
+        <v>1</v>
+      </c>
+      <c r="H124" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( co_variants[[#This Row],[sector_id]] = "Roads","_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I124" s="103" cm="1">
+      <c r="I124" s="34" cm="1">
         <f t="array" ref="I124" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -14756,7 +14693,7 @@
         <v>20</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>38</v>
@@ -14765,13 +14702,13 @@
         <v>207</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H163" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>91</v>
@@ -14780,7 +14717,7 @@
         <v>91</v>
       </c>
       <c r="K163" s="28" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L163" s="28" t="s">
         <v>91</v>
@@ -14854,7 +14791,7 @@
         <v>22</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>613</v>
@@ -14866,7 +14803,7 @@
         <v>611</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H165" s="28" t="s">
         <v>91</v>
@@ -14878,7 +14815,7 @@
         <v>91</v>
       </c>
       <c r="K165" s="28" t="s">
-        <v>618</v>
+        <v>91</v>
       </c>
       <c r="L165" s="28" t="s">
         <v>91</v>
@@ -14887,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="N165" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O165" s="27">
         <v>1</v>
@@ -14903,7 +14840,7 @@
         <v>23</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>614</v>
@@ -14915,7 +14852,7 @@
         <v>612</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H166" s="28" t="s">
         <v>91</v>
@@ -14927,7 +14864,7 @@
         <v>91</v>
       </c>
       <c r="K166" s="28" t="s">
-        <v>619</v>
+        <v>91</v>
       </c>
       <c r="L166" s="28" t="s">
         <v>91</v>
@@ -14936,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="N166" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O166" s="27">
         <v>1</v>
@@ -14952,7 +14889,7 @@
         <v>24</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>615</v>
@@ -14964,7 +14901,7 @@
         <v>608</v>
       </c>
       <c r="G167" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H167" s="28" t="s">
         <v>91</v>
@@ -15001,7 +14938,7 @@
         <v>25</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D168" s="28" t="s">
         <v>616</v>
@@ -15050,7 +14987,7 @@
         <v>26</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>617</v>
@@ -15094,21 +15031,21 @@
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B170" s="98">
+      <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
-      <c r="C170" s="104" t="s">
-        <v>638</v>
+      <c r="C170" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F170" s="32" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G170" s="28" t="s">
         <v>38</v>
@@ -15117,13 +15054,13 @@
         <v>87</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J170" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K170" s="28" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L170" s="28" t="s">
         <v>91</v>
@@ -15137,27 +15074,27 @@
       <c r="O170" s="27">
         <v>1</v>
       </c>
-      <c r="P170" s="105" t="str">
+      <c r="P170" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B171" s="98">
+      <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
-      <c r="C171" s="104" t="s">
+      <c r="C171" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D171" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="D171" s="28" t="s">
-        <v>642</v>
-      </c>
       <c r="E171" s="48" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G171" s="28" t="s">
         <v>38</v>
@@ -15166,13 +15103,13 @@
         <v>87</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J171" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K171" s="28" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L171" s="28" t="s">
         <v>91</v>
@@ -15186,27 +15123,27 @@
       <c r="O171" s="27">
         <v>1</v>
       </c>
-      <c r="P171" s="105" t="str">
+      <c r="P171" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B172" s="98">
+      <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
-      <c r="C172" s="104" t="s">
-        <v>638</v>
+      <c r="C172" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F172" s="32" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G172" s="28" t="s">
         <v>38</v>
@@ -15215,13 +15152,13 @@
         <v>87</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J172" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K172" s="28" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L172" s="28" t="s">
         <v>91</v>
@@ -15235,27 +15172,27 @@
       <c r="O172" s="27">
         <v>1</v>
       </c>
-      <c r="P172" s="105" t="str">
+      <c r="P172" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B173" s="98">
+      <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
-      <c r="C173" s="104" t="s">
-        <v>638</v>
+      <c r="C173" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G173" s="28" t="s">
         <v>38</v>
@@ -15264,7 +15201,7 @@
         <v>87</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J173" s="28" t="s">
         <v>91</v>
@@ -15284,36 +15221,36 @@
       <c r="O173" s="27">
         <v>1</v>
       </c>
-      <c r="P173" s="105" t="str">
+      <c r="P173" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B174" s="98">
+      <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
-      <c r="C174" s="104" t="s">
-        <v>638</v>
+      <c r="C174" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H174" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J174" s="28" t="s">
         <v>91</v>
@@ -15333,7 +15270,7 @@
       <c r="O174" s="27">
         <v>1</v>
       </c>
-      <c r="P174" s="105" t="str">
+      <c r="P174" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
@@ -16780,15 +16717,15 @@
       <c r="S210"/>
     </row>
     <row r="211" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B211" s="106">
+      <c r="B211" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E211" s="81" t="s">
         <v>156</v>
@@ -16799,7 +16736,7 @@
       <c r="G211" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H211" s="107">
+      <c r="H211" s="82">
         <v>2015</v>
       </c>
       <c r="I211" s="49" t="s">
@@ -16934,10 +16871,10 @@
         <v>14</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E216" s="81" t="s">
         <v>156</v>
@@ -17013,15 +16950,15 @@
       <c r="J218" s="66"/>
     </row>
     <row r="219" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B219" s="106">
+      <c r="B219" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E219" s="81" t="s">
         <v>156</v>
@@ -17032,7 +16969,7 @@
       <c r="G219" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H219" s="107">
+      <c r="H219" s="82">
         <v>2015</v>
       </c>
       <c r="I219" s="49" t="s">
@@ -17040,28 +16977,28 @@
       </c>
       <c r="J219" s="66"/>
     </row>
-    <row r="220" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B220" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>618</v>
+        <v>260</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="E220" s="81" t="s">
         <v>156</v>
       </c>
       <c r="F220" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G220" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H220" s="82">
-        <v>2015</v>
+      <c r="H220" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I220" s="49" t="s">
         <v>191</v>
@@ -17074,38 +17011,36 @@
         <v>19</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>619</v>
+        <v>369</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="E221" s="81" t="s">
         <v>156</v>
       </c>
       <c r="F221" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G221" s="81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H221" s="82">
         <v>2015</v>
       </c>
-      <c r="I221" s="49" t="s">
-        <v>191</v>
-      </c>
+      <c r="I221" s="49"/>
       <c r="J221" s="66"/>
     </row>
-    <row r="222" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
-      <c r="C222" s="32" t="s">
-        <v>260</v>
+      <c r="C222" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="E222" s="81" t="s">
         <v>156</v>
@@ -17116,8 +17051,8 @@
       <c r="G222" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H222" s="82" t="s">
-        <v>225</v>
+      <c r="H222" s="81">
+        <v>2010</v>
       </c>
       <c r="I222" s="49" t="s">
         <v>191</v>
@@ -17130,10 +17065,10 @@
         <v>21</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>369</v>
+        <v>655</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>370</v>
+        <v>658</v>
       </c>
       <c r="E223" s="81" t="s">
         <v>156</v>
@@ -17142,12 +17077,14 @@
         <v>128</v>
       </c>
       <c r="G223" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H223" s="82">
+        <v>182</v>
+      </c>
+      <c r="H223" s="81">
         <v>2015</v>
       </c>
-      <c r="I223" s="49"/>
+      <c r="I223" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="J223" s="66"/>
     </row>
     <row r="224" spans="2:19" x14ac:dyDescent="0.2">
@@ -17155,11 +17092,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C224" s="26" t="s">
-        <v>129</v>
+      <c r="C224" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E224" s="81" t="s">
         <v>156</v>
@@ -17168,9 +17105,9 @@
         <v>128</v>
       </c>
       <c r="G224" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H224" s="81">
+        <v>183</v>
+      </c>
+      <c r="H224" s="82">
         <v>2010</v>
       </c>
       <c r="I224" s="49" t="s">
@@ -17179,27 +17116,27 @@
       <c r="J224" s="66"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B225" s="106">
+      <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>659</v>
+        <v>93</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>662</v>
+        <v>136</v>
       </c>
       <c r="E225" s="81" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F225" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G225" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H225" s="100">
-        <v>2015</v>
+        <v>183</v>
+      </c>
+      <c r="H225" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I225" s="49" t="s">
         <v>191</v>
@@ -17212,47 +17149,49 @@
         <v>24</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="E226" s="81" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F226" s="81" t="s">
         <v>128</v>
       </c>
       <c r="G226" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H226" s="82">
-        <v>2010</v>
+        <v>182</v>
+      </c>
+      <c r="H226" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="I226" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J226" s="66"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="J226" s="66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="E227" s="81" t="s">
         <v>173</v>
       </c>
       <c r="F227" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G227" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H227" s="82" t="s">
         <v>225</v>
@@ -17262,16 +17201,16 @@
       </c>
       <c r="J227" s="66"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="E228" s="81" t="s">
         <v>173</v>
@@ -17282,15 +17221,13 @@
       <c r="G228" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H228" s="81" t="s">
-        <v>38</v>
+      <c r="H228" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I228" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J228" s="66" t="s">
-        <v>197</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J228" s="66"/>
     </row>
     <row r="229" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B229" s="6">
@@ -17298,10 +17235,10 @@
         <v>27</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E229" s="81" t="s">
         <v>173</v>
@@ -17320,25 +17257,25 @@
       </c>
       <c r="J229" s="66"/>
     </row>
-    <row r="230" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E230" s="81" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F230" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G230" s="81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H230" s="82" t="s">
         <v>225</v>
@@ -17348,25 +17285,25 @@
       </c>
       <c r="J230" s="66"/>
     </row>
-    <row r="231" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="E231" s="81" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F231" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G231" s="81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H231" s="82" t="s">
         <v>225</v>
@@ -17382,27 +17319,29 @@
         <v>30</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="E232" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F232" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G232" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H232" s="82" t="s">
-        <v>225</v>
+        <v>182</v>
+      </c>
+      <c r="H232" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="I232" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J232" s="66"/>
+        <v>193</v>
+      </c>
+      <c r="J232" s="66" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B233" s="6">
@@ -17410,22 +17349,22 @@
         <v>31</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E233" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F233" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G233" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H233" s="82" t="s">
-        <v>225</v>
+      <c r="H233" s="82">
+        <v>2010</v>
       </c>
       <c r="I233" s="49" t="s">
         <v>191</v>
@@ -17438,29 +17377,27 @@
         <v>32</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="E234" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F234" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G234" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H234" s="81" t="s">
-        <v>38</v>
+        <v>183</v>
+      </c>
+      <c r="H234" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I234" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J234" s="66" t="s">
-        <v>197</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J234" s="66"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B235" s="6">
@@ -17468,10 +17405,10 @@
         <v>33</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E235" s="81" t="s">
         <v>158</v>
@@ -17490,19 +17427,19 @@
       </c>
       <c r="J235" s="66"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>87</v>
+        <v>652</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>48</v>
+        <v>659</v>
       </c>
       <c r="E236" s="81" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F236" s="81" t="s">
         <v>184</v>
@@ -17510,40 +17447,38 @@
       <c r="G236" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H236" s="82" t="s">
-        <v>225</v>
+      <c r="H236" s="82">
+        <v>2015</v>
       </c>
       <c r="I236" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J236" s="66"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
-      <c r="C237" s="32" t="s">
-        <v>86</v>
+      <c r="C237" s="28" t="s">
+        <v>573</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>139</v>
+        <v>575</v>
       </c>
       <c r="E237" s="81" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F237" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G237" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H237" s="82">
-        <v>2010</v>
-      </c>
-      <c r="I237" s="49" t="s">
-        <v>191</v>
-      </c>
+      <c r="H237" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I237" s="49"/>
       <c r="J237" s="66"/>
     </row>
     <row r="238" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
@@ -17551,11 +17486,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
-      <c r="C238" s="32" t="s">
-        <v>656</v>
+      <c r="C238" s="28" t="s">
+        <v>574</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>663</v>
+        <v>576</v>
       </c>
       <c r="E238" s="81" t="s">
         <v>173</v>
@@ -17566,27 +17501,25 @@
       <c r="G238" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H238" s="82">
-        <v>2015</v>
-      </c>
-      <c r="I238" s="49" t="s">
-        <v>191</v>
-      </c>
+      <c r="H238" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I238" s="49"/>
       <c r="J238" s="66"/>
     </row>
-    <row r="239" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
-      <c r="C239" s="28" t="s">
-        <v>573</v>
+      <c r="C239" s="32" t="s">
+        <v>436</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>575</v>
+        <v>437</v>
       </c>
       <c r="E239" s="81" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F239" s="81" t="s">
         <v>184</v>
@@ -17605,11 +17538,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
-      <c r="C240" s="28" t="s">
-        <v>574</v>
+      <c r="C240" s="32" t="s">
+        <v>438</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>576</v>
+        <v>439</v>
       </c>
       <c r="E240" s="81" t="s">
         <v>173</v>
@@ -17626,565 +17559,551 @@
       <c r="I240" s="49"/>
       <c r="J240" s="66"/>
     </row>
-    <row r="241" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B241" s="6">
-        <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
-        <v>39</v>
-      </c>
-      <c r="C241" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="D241" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E241" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F241" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="G241" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H241" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="I241" s="49"/>
-      <c r="J241" s="66"/>
-    </row>
-    <row r="242" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B242" s="6">
-        <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
-        <v>40</v>
-      </c>
-      <c r="C242" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="D242" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="E242" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="F242" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="G242" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H242" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="I242" s="49"/>
-      <c r="J242" s="66"/>
-    </row>
-    <row r="245" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A245" s="16"/>
-      <c r="B245" s="17" t="s">
+    <row r="243" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="16"/>
+      <c r="B243" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C245" s="17"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
-      <c r="J245" s="17"/>
-      <c r="K245" s="17"/>
-      <c r="L245" s="17"/>
-      <c r="M245" s="17"/>
-      <c r="N245" s="17"/>
-      <c r="O245" s="17"/>
-      <c r="P245" s="17"/>
-      <c r="Q245" s="17"/>
-      <c r="R245" s="17"/>
-      <c r="S245" s="17"/>
-      <c r="T245" s="17"/>
-      <c r="U245" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+      <c r="M243" s="17"/>
+      <c r="N243" s="17"/>
+      <c r="O243" s="17"/>
+      <c r="P243" s="17"/>
+      <c r="Q243" s="17"/>
+      <c r="R243" s="17"/>
+      <c r="S243" s="17"/>
+      <c r="T243" s="17"/>
+      <c r="U243" s="17"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B245" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C245" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D245" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B246" s="4">
+        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D246" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E246" s="46">
+        <v>2015</v>
+      </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B247" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C247" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D247" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="E247" s="30" t="s">
-        <v>159</v>
+      <c r="B247" s="4">
+        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D247" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E247" s="46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B248" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D248" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E248" s="46">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B249" s="4">
-        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
+        <v>196</v>
+      </c>
+      <c r="E248" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+      <c r="M251" s="17"/>
+      <c r="N251" s="17"/>
+      <c r="O251" s="17"/>
+      <c r="P251" s="17"/>
+      <c r="Q251" s="17"/>
+      <c r="R251" s="17"/>
+      <c r="S251" s="17"/>
+      <c r="T251" s="17"/>
+      <c r="U251" s="17"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B253" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B254" s="4">
+        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D254" s="85">
+        <f xml:space="preserve"> 10^9</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B255" s="4">
+        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D249" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E249" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B250" s="4">
-        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D250" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E250" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A253" s="16"/>
-      <c r="B253" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="17"/>
-      <c r="M253" s="17"/>
-      <c r="N253" s="17"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="17"/>
-      <c r="Q253" s="17"/>
-      <c r="R253" s="17"/>
-      <c r="S253" s="17"/>
-      <c r="T253" s="17"/>
-      <c r="U253" s="17"/>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B255" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C255" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D255" s="29" t="s">
-        <v>90</v>
+      <c r="C255" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D255" s="85">
+        <f xml:space="preserve"> 10^6</f>
+        <v>1000000</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B256" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D256" s="85">
-        <f xml:space="preserve"> 10^9</f>
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B257" s="4">
-        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
-        <v>2</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D257" s="85">
-        <f xml:space="preserve"> 10^6</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B258" s="4">
-        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D258" s="85">
         <v>1000</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A261" s="16"/>
-      <c r="B261" s="17" t="s">
+    <row r="259" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C261" s="17"/>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="17"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="17"/>
-      <c r="I261" s="17"/>
-      <c r="J261" s="17"/>
-      <c r="K261" s="17"/>
-      <c r="L261" s="17"/>
-      <c r="M261" s="17"/>
-      <c r="N261" s="17"/>
-      <c r="O261" s="17"/>
-      <c r="P261" s="17"/>
-      <c r="Q261" s="17"/>
-      <c r="R261" s="17"/>
-      <c r="S261" s="17"/>
-      <c r="T261" s="17"/>
-      <c r="U261" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="17"/>
+      <c r="Q259" s="17"/>
+      <c r="R259" s="17"/>
+      <c r="S259" s="17"/>
+      <c r="T259" s="17"/>
+      <c r="U259" s="17"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B260" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B262" s="2" t="s">
-        <v>547</v>
+      <c r="B262" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C262" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D262" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E262" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F262" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G262" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H262" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="I262" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B263" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C263" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E263" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F263" s="45">
+        <v>1</v>
+      </c>
+      <c r="G263" s="45">
+        <v>0.45</v>
+      </c>
+      <c r="H263" s="45">
+        <v>0</v>
+      </c>
+      <c r="I263" s="45">
+        <v>2100</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B264" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C264" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D264" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E264" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F264" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G264" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H264" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="I264" s="29" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B265" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C265" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D265" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E265" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F265" s="45">
-        <v>1</v>
-      </c>
-      <c r="G265" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="H265" s="45">
-        <v>0</v>
-      </c>
-      <c r="I265" s="45">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B266" s="4">
+      <c r="B264" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C266" s="45" t="s">
+      <c r="C264" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D266" s="45" t="s">
+      <c r="D264" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E266" s="45" t="s">
+      <c r="E264" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="F266" s="45">
+      <c r="F264" s="45">
         <v>0.16250000000000001</v>
       </c>
-      <c r="G266" s="45">
-        <v>1</v>
-      </c>
-      <c r="H266" s="45">
+      <c r="G264" s="45">
+        <v>1</v>
+      </c>
+      <c r="H264" s="45">
         <v>0.83750000000000002</v>
       </c>
-      <c r="I266" s="45">
+      <c r="I264" s="45">
         <v>2100</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A269" s="16"/>
-      <c r="B269" s="17" t="s">
+    <row r="267" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C269" s="17"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="17"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="17"/>
-      <c r="O269" s="17"/>
-      <c r="P269" s="17"/>
-      <c r="Q269" s="17"/>
-      <c r="R269" s="17"/>
-      <c r="S269" s="17"/>
-      <c r="T269" s="17"/>
-      <c r="U269" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
+      <c r="P267" s="17"/>
+      <c r="Q267" s="17"/>
+      <c r="R267" s="17"/>
+      <c r="S267" s="17"/>
+      <c r="T267" s="17"/>
+      <c r="U267" s="17"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B269" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C269" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D269" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E269" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F269" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G269" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H269" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I269" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J269" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="K269" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="L269" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B270" s="4">
+        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E270" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F270" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G270" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H270" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I270" s="43">
+        <v>1</v>
+      </c>
+      <c r="J270" s="43">
+        <v>1995</v>
+      </c>
+      <c r="K270" s="43">
+        <v>6</v>
+      </c>
+      <c r="L270" s="43">
+        <v>30</v>
+      </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B271" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C271" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E271" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F271" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="G271" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H271" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I271" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="J271" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="K271" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="L271" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B272" s="4">
-        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E272" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="F272" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G272" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H272" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="I272" s="43">
-        <v>1</v>
-      </c>
-      <c r="J272" s="43">
-        <v>1995</v>
-      </c>
-      <c r="K272" s="43">
-        <v>6</v>
-      </c>
-      <c r="L272" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B273" s="4">
+      <c r="B271" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D273" s="7" t="s">
+      <c r="D271" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E273" s="42" t="s">
+      <c r="E271" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F273" s="42" t="s">
+      <c r="F271" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="G273" s="41" t="s">
+      <c r="G271" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="H273" s="41" t="s">
+      <c r="H271" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="I273" s="43">
+      <c r="I271" s="43">
         <v>25</v>
       </c>
-      <c r="J273" s="43">
+      <c r="J271" s="43">
         <v>2000</v>
       </c>
-      <c r="K273" s="43">
+      <c r="K271" s="43">
         <v>250</v>
       </c>
-      <c r="L273" s="43">
+      <c r="L271" s="43">
         <v>1000</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A276" s="16"/>
-      <c r="B276" s="17" t="s">
+    <row r="274" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C276" s="17"/>
-      <c r="D276" s="17"/>
-      <c r="E276" s="17"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="17"/>
-      <c r="I276" s="17"/>
-      <c r="J276" s="17"/>
-      <c r="K276" s="17"/>
-      <c r="L276" s="17"/>
-      <c r="M276" s="17"/>
-      <c r="N276" s="17"/>
-      <c r="O276" s="17"/>
-      <c r="P276" s="17"/>
-      <c r="Q276" s="17"/>
-      <c r="R276" s="17"/>
-      <c r="S276" s="17"/>
-      <c r="T276" s="17"/>
-      <c r="U276" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="17"/>
+      <c r="F274" s="17"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="17"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+      <c r="M274" s="17"/>
+      <c r="N274" s="17"/>
+      <c r="O274" s="17"/>
+      <c r="P274" s="17"/>
+      <c r="Q274" s="17"/>
+      <c r="R274" s="17"/>
+      <c r="S274" s="17"/>
+      <c r="T274" s="17"/>
+      <c r="U274" s="17"/>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B276" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C276" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E276" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F276" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B277" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C277" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CanESM2</v>
+      </c>
+      <c r="D277" s="45">
+        <v>6</v>
+      </c>
+      <c r="E277" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F277" s="87" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B278" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C278" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D278" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="E278" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F278" s="30" t="s">
-        <v>227</v>
+      <c r="B278" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C278" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CCSM4</v>
+      </c>
+      <c r="D278" s="45">
+        <v>5</v>
+      </c>
+      <c r="E278" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F278" s="87" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B279" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C279" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CanESM2</v>
+        <v>GISSE2R</v>
       </c>
       <c r="D279" s="45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E279" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F279" s="87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B280" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C280" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CCSM4</v>
+        <v>HadGEM2ES</v>
       </c>
       <c r="D280" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E280" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F280" s="87" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B281" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C281" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GISSE2R</v>
+        <v>MIROC5</v>
       </c>
       <c r="D281" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E281" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F281" s="87" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B282" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C282" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>HadGEM2ES</v>
+        <v>GFDLCM3</v>
       </c>
       <c r="D282" s="45">
         <v>6</v>
@@ -18193,93 +18112,93 @@
         <v>161</v>
       </c>
       <c r="F282" s="87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B283" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C283" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MIROC5</v>
+        <v>MRICGCM3</v>
       </c>
       <c r="D283" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E283" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F283" s="87" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B284" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C284" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GFDLCM3</v>
+        <v>GCMEnsemble</v>
       </c>
       <c r="D284" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E284" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F284" s="87" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B285" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C285" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MRICGCM3</v>
+        <v>30cm</v>
       </c>
       <c r="D285" s="45">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F285" s="87" t="s">
-        <v>341</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B286" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C286" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GCMEnsemble</v>
+        <v>50cm</v>
       </c>
       <c r="D286" s="45">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F286" s="87" t="s">
-        <v>339</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B287" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C287" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>30cm</v>
+        <v>100cm</v>
       </c>
       <c r="D287" s="45">
         <v>250</v>
@@ -18288,17 +18207,17 @@
         <v>160</v>
       </c>
       <c r="F287" s="87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B288" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C288" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>50cm</v>
+        <v>150cm</v>
       </c>
       <c r="D288" s="45">
         <v>250</v>
@@ -18307,17 +18226,17 @@
         <v>160</v>
       </c>
       <c r="F288" s="87" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C289" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>100cm</v>
+        <v>200cm</v>
       </c>
       <c r="D289" s="45">
         <v>250</v>
@@ -18326,17 +18245,17 @@
         <v>160</v>
       </c>
       <c r="F289" s="87" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C290" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>150cm</v>
+        <v>250cm</v>
       </c>
       <c r="D290" s="45">
         <v>250</v>
@@ -18345,124 +18264,145 @@
         <v>160</v>
       </c>
       <c r="F290" s="87" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B291" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>13</v>
-      </c>
-      <c r="C291" s="90" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>200cm</v>
-      </c>
-      <c r="D291" s="45">
-        <v>250</v>
-      </c>
-      <c r="E291" s="45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="16"/>
+      <c r="B293" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C293" s="17"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="17"/>
+      <c r="F293" s="17"/>
+      <c r="G293" s="17"/>
+      <c r="H293" s="17"/>
+      <c r="I293" s="17"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="17"/>
+      <c r="L293" s="17"/>
+      <c r="M293" s="17"/>
+      <c r="N293" s="17"/>
+      <c r="O293" s="17"/>
+      <c r="P293" s="17"/>
+      <c r="Q293" s="17"/>
+      <c r="R293" s="17"/>
+      <c r="S293" s="17"/>
+      <c r="T293" s="17"/>
+      <c r="U293" s="17"/>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B295" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C295" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="E295" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F295" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="G295" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="H295" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="I295" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="J295" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B296" s="4">
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D296" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E296" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="F296" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G296" s="27">
+        <v>0</v>
+      </c>
+      <c r="H296" s="27"/>
+      <c r="I296" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="J296" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B297" s="4">
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C297" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F291" s="87" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B292" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>14</v>
-      </c>
-      <c r="C292" s="90" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>250cm</v>
-      </c>
-      <c r="D292" s="45">
-        <v>250</v>
-      </c>
-      <c r="E292" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F292" s="87" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A295" s="16"/>
-      <c r="B295" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C295" s="17"/>
-      <c r="D295" s="17"/>
-      <c r="E295" s="17"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
-      <c r="J295" s="17"/>
-      <c r="K295" s="17"/>
-      <c r="L295" s="17"/>
-      <c r="M295" s="17"/>
-      <c r="N295" s="17"/>
-      <c r="O295" s="17"/>
-      <c r="P295" s="17"/>
-      <c r="Q295" s="17"/>
-      <c r="R295" s="17"/>
-      <c r="S295" s="17"/>
-      <c r="T295" s="17"/>
-      <c r="U295" s="17"/>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B297" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C297" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="D297" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="E297" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="F297" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="G297" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="H297" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="I297" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="J297" s="31" t="s">
-        <v>55</v>
+      <c r="D297" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E297" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="F297" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G297" s="27">
+        <v>0</v>
+      </c>
+      <c r="H297" s="27"/>
+      <c r="I297" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="J297" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D298" s="45" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F298" s="27" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="G298" s="27">
         <v>0</v>
       </c>
-      <c r="H298" s="27"/>
+      <c r="H298" s="27" t="str">
+        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
+        <v/>
+      </c>
       <c r="I298" s="27" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="J298" s="27">
         <v>0</v>
@@ -18471,1149 +18411,1090 @@
     <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="D299" s="45" t="s">
-        <v>233</v>
+        <v>577</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F299" s="27" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="G299" s="27">
         <v>0</v>
       </c>
-      <c r="H299" s="27"/>
-      <c r="I299" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="J299" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B300" s="4">
-        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D300" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="E300" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="F300" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="G300" s="27">
-        <v>0</v>
-      </c>
-      <c r="H300" s="27" t="str">
+      <c r="H299" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I300" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J300" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B301" s="4">
-        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C301" s="7" t="s">
+      <c r="I299" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D301" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="E301" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="F301" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G301" s="27">
-        <v>0</v>
-      </c>
-      <c r="H301" s="27" t="str">
-        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
-        <v/>
-      </c>
-      <c r="I301" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="J301" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A304" s="16"/>
-      <c r="B304" s="17" t="s">
+      <c r="J299" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="16"/>
+      <c r="B302" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C304" s="17"/>
-      <c r="D304" s="17"/>
-      <c r="E304" s="17"/>
-      <c r="F304" s="17"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="17"/>
-      <c r="I304" s="17"/>
-      <c r="J304" s="17"/>
-      <c r="K304" s="17"/>
-      <c r="L304" s="17"/>
-      <c r="M304" s="17"/>
-      <c r="N304" s="17"/>
-      <c r="O304" s="17"/>
-      <c r="P304" s="17"/>
-      <c r="Q304" s="17"/>
-      <c r="R304" s="17"/>
-      <c r="S304" s="17"/>
-      <c r="T304" s="17"/>
-      <c r="U304" s="17"/>
+      <c r="C302" s="17"/>
+      <c r="D302" s="17"/>
+      <c r="E302" s="17"/>
+      <c r="F302" s="17"/>
+      <c r="G302" s="17"/>
+      <c r="H302" s="17"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+      <c r="M302" s="17"/>
+      <c r="N302" s="17"/>
+      <c r="O302" s="17"/>
+      <c r="P302" s="17"/>
+      <c r="Q302" s="17"/>
+      <c r="R302" s="17"/>
+      <c r="S302" s="17"/>
+      <c r="T302" s="17"/>
+      <c r="U302" s="17"/>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B304" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B305" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C305" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Midwest</v>
+      </c>
+      <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B306" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C306" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D306" s="30" t="s">
-        <v>598</v>
+      <c r="B306" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C306" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Northeast</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B307" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C307" s="45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D307" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Midwest</v>
+        <v>NorthernPlains</v>
       </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B308" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C308" s="45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D308" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northeast</v>
+        <v>Northwest</v>
       </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B309" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C309" s="45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D309" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>NorthernPlains</v>
+        <v>Southeast</v>
       </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B310" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C310" s="45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D310" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northwest</v>
+        <v>SouthernPlains</v>
       </c>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B311" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C311" s="45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D311" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southeast</v>
+        <v>Southwest</v>
       </c>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B312" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
-      </c>
-      <c r="C312" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D312" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>SouthernPlains</v>
-      </c>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B313" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
-      </c>
-      <c r="C313" s="45" t="s">
+    <row r="314" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="16"/>
+      <c r="B314" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C314" s="17"/>
+      <c r="D314" s="17"/>
+      <c r="E314" s="17"/>
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+      <c r="M314" s="17"/>
+      <c r="N314" s="17"/>
+      <c r="O314" s="17"/>
+      <c r="P314" s="17"/>
+      <c r="Q314" s="17"/>
+      <c r="R314" s="17"/>
+      <c r="S314" s="17"/>
+      <c r="T314" s="17"/>
+      <c r="U314" s="17"/>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B316" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B317" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C317" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="D317" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="E317" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B318" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C318" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="D318" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="E318" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D313" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southwest</v>
-      </c>
-      <c r="E313" s="2"/>
-    </row>
-    <row r="316" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A316" s="16"/>
-      <c r="B316" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C316" s="17"/>
-      <c r="D316" s="17"/>
-      <c r="E316" s="17"/>
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="17"/>
-      <c r="I316" s="17"/>
-      <c r="J316" s="17"/>
-      <c r="K316" s="17"/>
-      <c r="L316" s="17"/>
-      <c r="M316" s="17"/>
-      <c r="N316" s="17"/>
-      <c r="O316" s="17"/>
-      <c r="P316" s="17"/>
-      <c r="Q316" s="17"/>
-      <c r="R316" s="17"/>
-      <c r="S316" s="17"/>
-      <c r="T316" s="17"/>
-      <c r="U316" s="17"/>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B318" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F318" s="9" t="s">
-        <v>444</v>
+      <c r="F318" s="84">
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B319" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C319" s="83" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D319" s="83" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E319" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F319" s="84">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B320" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C320" s="83" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D320" s="83" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E320" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="84">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B321" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C321" s="83" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D321" s="83" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E321" s="83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F321" s="84">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B322" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C322" s="83" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D322" s="83" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E322" s="83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F322" s="84">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B323" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C323" s="83" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D323" s="83" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E323" s="83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F323" s="84">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B324" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C324" s="83" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D324" s="83" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E324" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F324" s="84">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B325" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C325" s="83" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D325" s="83" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E325" s="83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F325" s="84">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B326" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C326" s="83" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D326" s="83" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E326" s="83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F326" s="84">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B327" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>11</v>
+      </c>
+      <c r="C327" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="D327" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E327" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C327" s="83" t="s">
-        <v>461</v>
-      </c>
-      <c r="D327" s="83" t="s">
-        <v>462</v>
-      </c>
-      <c r="E327" s="83" t="s">
-        <v>10</v>
-      </c>
       <c r="F327" s="84">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B328" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D328" s="83" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E328" s="83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F328" s="84">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B329" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D329" s="83" t="s">
-        <v>47</v>
+        <v>469</v>
       </c>
       <c r="E329" s="83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F329" s="84">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B330" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C330" s="83" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D330" s="83" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E330" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F330" s="84">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B331" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D331" s="83" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E331" s="83" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F331" s="84">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B332" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D332" s="83" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E332" s="83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F332" s="84">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B333" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D333" s="83" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E333" s="83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F333" s="84">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B334" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C334" s="83" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D334" s="83" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E334" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F334" s="84">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B335" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C335" s="83" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D335" s="83" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E335" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F335" s="84">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B336" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C336" s="83" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D336" s="83" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E336" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F336" s="84">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B337" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C337" s="83" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D337" s="83" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E337" s="83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F337" s="84">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B338" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C338" s="83" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D338" s="83" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E338" s="83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F338" s="84">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B339" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C339" s="83" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D339" s="83" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E339" s="83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F339" s="84">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B340" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D340" s="83" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E340" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F340" s="84">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B341" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C341" s="83" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D341" s="83" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E341" s="83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F341" s="84">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B342" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C342" s="83" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D342" s="83" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E342" s="83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F342" s="84">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B343" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C343" s="83" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D343" s="83" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E343" s="83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F343" s="84">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B344" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D344" s="83" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E344" s="83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F344" s="84">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B345" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C345" s="83" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D345" s="83" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E345" s="83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F345" s="84">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B346" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C346" s="83" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D346" s="83" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E346" s="83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F346" s="84">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B347" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C347" s="83" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D347" s="83" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E347" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F347" s="84">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B348" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C348" s="83" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D348" s="83" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E348" s="83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F348" s="84">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C349" s="83" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D349" s="83" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E349" s="83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F349" s="84">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B350" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C350" s="83" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D350" s="83" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E350" s="83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F350" s="84">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B351" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C351" s="83" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D351" s="83" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E351" s="83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F351" s="84">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B352" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C352" s="83" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D352" s="83" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E352" s="83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F352" s="84">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C353" s="83" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D353" s="83" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E353" s="83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F353" s="84">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C354" s="83" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D354" s="83" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E354" s="83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F354" s="84">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C355" s="83" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D355" s="83" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E355" s="83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F355" s="84">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C356" s="83" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D356" s="83" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E356" s="83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F356" s="84">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C357" s="83" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D357" s="83" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E357" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F357" s="84">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C358" s="83" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D358" s="83" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E358" s="83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F358" s="84">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C359" s="83" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D359" s="83" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E359" s="83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F359" s="84">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C360" s="83" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D360" s="83" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E360" s="83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F360" s="84">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C361" s="83" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D361" s="83" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E361" s="83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F361" s="84">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C362" s="83" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D362" s="83" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E362" s="83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F362" s="84">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C363" s="83" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D363" s="83" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E363" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F363" s="84">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C364" s="83" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D364" s="83" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E364" s="83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F364" s="84">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C365" s="83" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E365" s="83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F365" s="84">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B366" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
-      </c>
-      <c r="C366" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D366" s="83" t="s">
-        <v>539</v>
-      </c>
-      <c r="E366" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F366" s="84">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B367" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>49</v>
-      </c>
-      <c r="C367" s="83" t="s">
-        <v>540</v>
-      </c>
-      <c r="D367" s="83" t="s">
-        <v>541</v>
-      </c>
-      <c r="E367" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F367" s="84">
         <v>56</v>
       </c>
     </row>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0FDE1-05F2-4DA4-A093-D82ABB03A285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C21C815-5EB6-48C0-A6DA-5EAF837753E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="slr_cm" sheetId="49" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="k_coBillions">controlTables!$D$261</definedName>
-    <definedName name="k_coMillions">controlTables!$D$262</definedName>
-    <definedName name="k_coThousands">controlTables!$D$263</definedName>
+    <definedName name="k_coBillions">controlTables!$D$262</definedName>
+    <definedName name="k_coMillions">controlTables!$D$263</definedName>
+    <definedName name="k_coThousands">controlTables!$D$264</definedName>
     <definedName name="list_co_gcms">co_models[model_id]</definedName>
     <definedName name="list_coimpactYearOptions" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN(co_impactYears[[#Headers],[2090]]), , , "DropDownMenus" ) ), 1, 0, mv_coNum_impactYears, 1 )</definedName>
     <definedName name="loc_coAdaptations">co_variants[[#Headers],[row_id]]</definedName>
@@ -196,7 +196,7 @@
     This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</t>
       </text>
     </comment>
-    <comment ref="J276" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+    <comment ref="J277" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +204,7 @@
     Year when change and impacts are zero</t>
       </text>
     </comment>
-    <comment ref="L276" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+    <comment ref="L277" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +212,7 @@
     Maximum value to extrapolate to, for models that go up to the maximum output value.</t>
       </text>
     </comment>
-    <comment ref="D283" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+    <comment ref="D284" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +220,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J302" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J303" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="676">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2327,6 +2327,15 @@
   </si>
   <si>
     <t>SSP5  Socioeconomic Growth</t>
+  </si>
+  <si>
+    <t>For scaling forestry losses</t>
+  </si>
+  <si>
+    <t>GDP per capita</t>
+  </si>
+  <si>
+    <t>gdp_oercao</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3164,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3401,8 +3410,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -3472,26 +3487,6 @@
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="197">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4483,6 +4478,26 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7794,7 +7809,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B260:D263" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B261:D264" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="80">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -7821,11 +7836,11 @@
     <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="69" totalsRowDxfId="68"/>
     <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="67" totalsRowDxfId="66"/>
     <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="0" totalsRowDxfId="63">
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7834,68 +7849,69 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B252:E255" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B253:E256" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B302:J306" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B303:J307" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B323:F372" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B324:F373" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="B324:F373" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B269:I271" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B270:I272" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7905,10 +7921,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -7917,23 +7933,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -7941,12 +7957,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7956,17 +7972,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8061,7 +8077,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B276:L278" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B277:L279" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8082,7 +8098,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B311:D318" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B312:D319" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8097,7 +8113,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B283:F297" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B284:F298" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8165,11 +8181,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B207:J247" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
-  <autoFilter ref="B207:J247" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B208:J242">
-    <sortCondition ref="E208:E242"/>
-    <sortCondition ref="C208:C242"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B207:J248" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="B207:J248" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B208:J243">
+    <sortCondition ref="E208:E243"/>
+    <sortCondition ref="C208:C243"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="91">
@@ -8532,16 +8548,16 @@
   <threadedComment ref="F207" dT="2021-04-02T15:36:58.50" personId="{00000000-0000-0000-0000-000000000000}" id="{EF83C059-A623-47AC-AFC4-40246F6AF9B2}">
     <text>This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</text>
   </threadedComment>
-  <threadedComment ref="J276" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+  <threadedComment ref="J277" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
     <text>Year when change and impacts are zero</text>
   </threadedComment>
-  <threadedComment ref="L276" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+  <threadedComment ref="L277" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
     <text>Maximum value to extrapolate to, for models that go up to the maximum output value.</text>
   </threadedComment>
-  <threadedComment ref="D283" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+  <threadedComment ref="D284" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J302" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J303" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -9124,11 +9140,11 @@
       </c>
       <c r="H8" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J8" s="31" cm="1">
         <f t="array" aca="1" ref="J8" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9167,7 +9183,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9175,7 +9191,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9214,7 +9230,7 @@
       </c>
       <c r="G10" s="31" cm="1">
         <f t="array" aca="1" ref="G10" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9222,7 +9238,7 @@
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9261,7 +9277,7 @@
       </c>
       <c r="G11" s="31" cm="1">
         <f t="array" aca="1" ref="G11" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H11" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9269,7 +9285,7 @@
       </c>
       <c r="I11" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J11" s="31" cm="1">
         <f t="array" aca="1" ref="J11" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9311,7 +9327,7 @@
       </c>
       <c r="G12" s="31" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H12" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9319,7 +9335,7 @@
       </c>
       <c r="I12" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J12" s="31" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9358,7 +9374,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9366,7 +9382,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9499,7 +9515,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9507,7 +9523,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9546,7 +9562,7 @@
       </c>
       <c r="G17" s="31" cm="1">
         <f t="array" aca="1" ref="G17" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H17" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9554,7 +9570,7 @@
       </c>
       <c r="I17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J17" s="31" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9589,11 +9605,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U372"/>
+  <dimension ref="A1:U373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L165" sqref="L165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10349,7 +10365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B31" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10713,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B38" s="74">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12784,7 +12800,7 @@
       <c r="G112" s="61">
         <v>1</v>
       </c>
-      <c r="H112" s="91" t="str">
+      <c r="H112" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>forestryLoss_growthFactor_SSP2</v>
@@ -12818,7 +12834,7 @@
       <c r="G113" s="61">
         <v>0</v>
       </c>
-      <c r="H113" s="91" t="str">
+      <c r="H113" s="47" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>forestryLoss_growthFactor_SSP5</v>
@@ -14076,7 +14092,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B151" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14743,11 +14759,11 @@
         <v>668</v>
       </c>
       <c r="K164" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="L164" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L164" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="M164" s="27">
         <v>0</v>
       </c>
@@ -14757,9 +14773,9 @@
       <c r="O164" s="27">
         <v>1</v>
       </c>
-      <c r="P164" s="33">
+      <c r="P164" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
-        <v>2010</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="165" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
@@ -15791,7 +15807,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="186" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -17032,46 +17048,46 @@
       <c r="S218"/>
     </row>
     <row r="219" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B219" s="6">
+      <c r="B219" s="91">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
-      <c r="C219" s="26" t="s">
-        <v>279</v>
+      <c r="C219" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>110</v>
+        <v>674</v>
       </c>
       <c r="E219" s="81" t="s">
         <v>156</v>
       </c>
       <c r="F219" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G219" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H219" s="82">
-        <v>2010</v>
-      </c>
-      <c r="I219" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J219" s="66"/>
+      <c r="H219" s="92"/>
+      <c r="I219" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="J219" s="66" t="s">
+        <v>673</v>
+      </c>
       <c r="Q219"/>
       <c r="R219"/>
       <c r="S219"/>
     </row>
-    <row r="220" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B220" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
-      <c r="C220" s="32" t="s">
-        <v>154</v>
+      <c r="C220" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E220" s="81" t="s">
         <v>156</v>
@@ -17082,7 +17098,7 @@
       <c r="G220" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H220" s="81">
+      <c r="H220" s="82">
         <v>2010</v>
       </c>
       <c r="I220" s="49" t="s">
@@ -17093,16 +17109,16 @@
       <c r="R220"/>
       <c r="S220"/>
     </row>
-    <row r="221" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E221" s="81" t="s">
         <v>156</v>
@@ -17120,6 +17136,9 @@
         <v>191</v>
       </c>
       <c r="J221" s="66"/>
+      <c r="Q221"/>
+      <c r="R221"/>
+      <c r="S221"/>
     </row>
     <row r="222" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B222" s="6">
@@ -17127,10 +17146,10 @@
         <v>15</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E222" s="81" t="s">
         <v>156</v>
@@ -17155,10 +17174,10 @@
         <v>16</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>632</v>
+        <v>132</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>633</v>
+        <v>133</v>
       </c>
       <c r="E223" s="81" t="s">
         <v>156</v>
@@ -17170,23 +17189,23 @@
         <v>182</v>
       </c>
       <c r="H223" s="81">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="I223" s="49" t="s">
         <v>191</v>
       </c>
       <c r="J223" s="66"/>
     </row>
-    <row r="224" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>91</v>
+        <v>632</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>196</v>
+        <v>633</v>
       </c>
       <c r="E224" s="81" t="s">
         <v>156</v>
@@ -17197,15 +17216,13 @@
       <c r="G224" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H224" s="81" t="s">
-        <v>38</v>
+      <c r="H224" s="81">
+        <v>2015</v>
       </c>
       <c r="I224" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J224" s="66" t="s">
-        <v>197</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J224" s="66"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B225" s="6">
@@ -17213,10 +17230,10 @@
         <v>18</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="E225" s="81" t="s">
         <v>156</v>
@@ -17225,13 +17242,17 @@
         <v>128</v>
       </c>
       <c r="G225" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H225" s="82">
-        <v>2015</v>
-      </c>
-      <c r="I225" s="49"/>
-      <c r="J225" s="66"/>
+        <v>182</v>
+      </c>
+      <c r="H225" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I225" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="J225" s="66" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B226" s="6">
@@ -17239,10 +17260,10 @@
         <v>19</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>654</v>
+        <v>367</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>657</v>
+        <v>368</v>
       </c>
       <c r="E226" s="81" t="s">
         <v>156</v>
@@ -17251,26 +17272,24 @@
         <v>128</v>
       </c>
       <c r="G226" s="81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H226" s="82">
         <v>2015</v>
       </c>
-      <c r="I226" s="49" t="s">
-        <v>191</v>
-      </c>
+      <c r="I226" s="49"/>
       <c r="J226" s="66"/>
     </row>
-    <row r="227" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>260</v>
+        <v>654</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>262</v>
+        <v>657</v>
       </c>
       <c r="E227" s="81" t="s">
         <v>156</v>
@@ -17281,24 +17300,24 @@
       <c r="G227" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H227" s="82" t="s">
-        <v>225</v>
+      <c r="H227" s="82">
+        <v>2015</v>
       </c>
       <c r="I227" s="49" t="s">
         <v>191</v>
       </c>
       <c r="J227" s="66"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="E228" s="81" t="s">
         <v>156</v>
@@ -17307,12 +17326,14 @@
         <v>128</v>
       </c>
       <c r="G228" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H228" s="82">
-        <v>2015</v>
-      </c>
-      <c r="I228" s="49"/>
+        <v>182</v>
+      </c>
+      <c r="H228" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I228" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="J228" s="66"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.2">
@@ -17320,11 +17341,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C229" s="26" t="s">
-        <v>129</v>
+      <c r="C229" s="32" t="s">
+        <v>369</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="E229" s="81" t="s">
         <v>156</v>
@@ -17333,14 +17354,12 @@
         <v>128</v>
       </c>
       <c r="G229" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H229" s="81">
-        <v>2010</v>
-      </c>
-      <c r="I229" s="49" t="s">
-        <v>191</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="H229" s="82">
+        <v>2015</v>
+      </c>
+      <c r="I229" s="49"/>
       <c r="J229" s="66"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.2">
@@ -17348,11 +17367,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
-      <c r="C230" s="32" t="s">
-        <v>655</v>
+      <c r="C230" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>658</v>
+        <v>16</v>
       </c>
       <c r="E230" s="81" t="s">
         <v>156</v>
@@ -17364,7 +17383,7 @@
         <v>182</v>
       </c>
       <c r="H230" s="81">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="I230" s="49" t="s">
         <v>191</v>
@@ -17377,10 +17396,10 @@
         <v>24</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>114</v>
+        <v>655</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>113</v>
+        <v>658</v>
       </c>
       <c r="E231" s="81" t="s">
         <v>156</v>
@@ -17389,10 +17408,10 @@
         <v>128</v>
       </c>
       <c r="G231" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H231" s="82">
-        <v>2010</v>
+        <v>182</v>
+      </c>
+      <c r="H231" s="81">
+        <v>2015</v>
       </c>
       <c r="I231" s="49" t="s">
         <v>191</v>
@@ -17405,22 +17424,22 @@
         <v>25</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E232" s="81" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F232" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G232" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H232" s="82" t="s">
-        <v>225</v>
+      <c r="H232" s="82">
+        <v>2010</v>
       </c>
       <c r="I232" s="49" t="s">
         <v>191</v>
@@ -17433,40 +17452,38 @@
         <v>26</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="E233" s="81" t="s">
         <v>173</v>
       </c>
       <c r="F233" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G233" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H233" s="81" t="s">
-        <v>38</v>
+        <v>183</v>
+      </c>
+      <c r="H233" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I233" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J233" s="66" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="J233" s="66"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>280</v>
+        <v>91</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="E234" s="81" t="s">
         <v>173</v>
@@ -17477,13 +17494,15 @@
       <c r="G234" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H234" s="82" t="s">
-        <v>225</v>
+      <c r="H234" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="I234" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J234" s="66"/>
+        <v>193</v>
+      </c>
+      <c r="J234" s="66" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="235" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B235" s="6">
@@ -17491,10 +17510,10 @@
         <v>28</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E235" s="81" t="s">
         <v>173</v>
@@ -17519,10 +17538,10 @@
         <v>29</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E236" s="81" t="s">
         <v>173</v>
@@ -17541,25 +17560,25 @@
       </c>
       <c r="J236" s="66"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E237" s="81" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F237" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G237" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H237" s="82" t="s">
         <v>225</v>
@@ -17575,10 +17594,10 @@
         <v>31</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="E238" s="81" t="s">
         <v>158</v>
@@ -17603,29 +17622,27 @@
         <v>32</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="E239" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F239" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G239" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H239" s="81" t="s">
-        <v>38</v>
+        <v>183</v>
+      </c>
+      <c r="H239" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I239" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J239" s="66" t="s">
-        <v>197</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J239" s="66"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B240" s="6">
@@ -17633,10 +17650,10 @@
         <v>33</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="E240" s="81" t="s">
         <v>158</v>
@@ -17645,15 +17662,17 @@
         <v>128</v>
       </c>
       <c r="G240" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="H240" s="82">
-        <v>2010</v>
+        <v>182</v>
+      </c>
+      <c r="H240" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="I240" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J240" s="66"/>
+        <v>193</v>
+      </c>
+      <c r="J240" s="66" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B241" s="6">
@@ -17661,25 +17680,25 @@
         <v>34</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E241" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F241" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G241" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H241" s="82" t="s">
-        <v>225</v>
+      <c r="H241" s="82">
+        <v>2010</v>
       </c>
       <c r="I241" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J241" s="66"/>
     </row>
@@ -17689,50 +17708,50 @@
         <v>35</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="E242" s="81" t="s">
         <v>158</v>
       </c>
       <c r="F242" s="81" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G242" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H242" s="82">
-        <v>2010</v>
+      <c r="H242" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I242" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J242" s="66"/>
     </row>
-    <row r="243" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>652</v>
+        <v>86</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>659</v>
+        <v>139</v>
       </c>
       <c r="E243" s="81" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F243" s="81" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G243" s="81" t="s">
         <v>183</v>
       </c>
       <c r="H243" s="82">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="I243" s="49" t="s">
         <v>191</v>
@@ -17744,11 +17763,11 @@
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
-      <c r="C244" s="28" t="s">
-        <v>573</v>
+      <c r="C244" s="32" t="s">
+        <v>652</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="E244" s="81" t="s">
         <v>173</v>
@@ -17759,10 +17778,12 @@
       <c r="G244" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H244" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="I244" s="49"/>
+      <c r="H244" s="82">
+        <v>2015</v>
+      </c>
+      <c r="I244" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="J244" s="66"/>
     </row>
     <row r="245" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
@@ -17771,10 +17792,10 @@
         <v>38</v>
       </c>
       <c r="C245" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E245" s="81" t="s">
         <v>173</v>
@@ -17791,19 +17812,19 @@
       <c r="I245" s="49"/>
       <c r="J245" s="66"/>
     </row>
-    <row r="246" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
-      <c r="C246" s="32" t="s">
-        <v>436</v>
+      <c r="C246" s="28" t="s">
+        <v>574</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>437</v>
+        <v>576</v>
       </c>
       <c r="E246" s="81" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F246" s="81" t="s">
         <v>184</v>
@@ -17817,19 +17838,19 @@
       <c r="I246" s="49"/>
       <c r="J246" s="66"/>
     </row>
-    <row r="247" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E247" s="81" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F247" s="81" t="s">
         <v>184</v>
@@ -17843,627 +17864,634 @@
       <c r="I247" s="49"/>
       <c r="J247" s="66"/>
     </row>
-    <row r="250" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A250" s="16"/>
-      <c r="B250" s="17" t="s">
+    <row r="248" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B248" s="6">
+        <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
+        <v>41</v>
+      </c>
+      <c r="C248" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E248" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="F248" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="G248" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H248" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I248" s="49"/>
+      <c r="J248" s="66"/>
+    </row>
+    <row r="251" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="17"/>
-      <c r="M250" s="17"/>
-      <c r="N250" s="17"/>
-      <c r="O250" s="17"/>
-      <c r="P250" s="17"/>
-      <c r="Q250" s="17"/>
-      <c r="R250" s="17"/>
-      <c r="S250" s="17"/>
-      <c r="T250" s="17"/>
-      <c r="U250" s="17"/>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B252" s="29" t="s">
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+      <c r="M251" s="17"/>
+      <c r="N251" s="17"/>
+      <c r="O251" s="17"/>
+      <c r="P251" s="17"/>
+      <c r="Q251" s="17"/>
+      <c r="R251" s="17"/>
+      <c r="S251" s="17"/>
+      <c r="T251" s="17"/>
+      <c r="U251" s="17"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B253" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C253" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D252" s="29" t="s">
+      <c r="D253" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E252" s="30" t="s">
+      <c r="E253" s="30" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B253" s="4">
-        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D253" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E253" s="46">
-        <v>2015</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B254" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="D254" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E254" s="46" t="s">
-        <v>38</v>
+        <v>194</v>
+      </c>
+      <c r="E254" s="46">
+        <v>2015</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B255" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D255" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E255" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A258" s="16"/>
-      <c r="B258" s="17" t="s">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B256" s="4">
+        <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E256" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C258" s="17"/>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="17"/>
-      <c r="O258" s="17"/>
-      <c r="P258" s="17"/>
-      <c r="Q258" s="17"/>
-      <c r="R258" s="17"/>
-      <c r="S258" s="17"/>
-      <c r="T258" s="17"/>
-      <c r="U258" s="17"/>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B260" s="29" t="s">
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="17"/>
+      <c r="Q259" s="17"/>
+      <c r="R259" s="17"/>
+      <c r="S259" s="17"/>
+      <c r="T259" s="17"/>
+      <c r="U259" s="17"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B261" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C260" s="29" t="s">
+      <c r="C261" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D260" s="29" t="s">
+      <c r="D261" s="29" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B261" s="4">
-        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D261" s="85">
-        <f xml:space="preserve"> 10^9</f>
-        <v>1000000000</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B262" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D262" s="85">
-        <f xml:space="preserve"> 10^6</f>
-        <v>1000000</v>
+        <f xml:space="preserve"> 10^9</f>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B263" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D263" s="85">
+        <f xml:space="preserve"> 10^6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B264" s="4">
+        <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C264" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D263" s="85">
+      <c r="D264" s="85">
         <v>1000</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A266" s="16"/>
-      <c r="B266" s="17" t="s">
+    <row r="267" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C266" s="17"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="17"/>
-      <c r="I266" s="17"/>
-      <c r="J266" s="17"/>
-      <c r="K266" s="17"/>
-      <c r="L266" s="17"/>
-      <c r="M266" s="17"/>
-      <c r="N266" s="17"/>
-      <c r="O266" s="17"/>
-      <c r="P266" s="17"/>
-      <c r="Q266" s="17"/>
-      <c r="R266" s="17"/>
-      <c r="S266" s="17"/>
-      <c r="T266" s="17"/>
-      <c r="U266" s="17"/>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B267" s="2" t="s">
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
+      <c r="P267" s="17"/>
+      <c r="Q267" s="17"/>
+      <c r="R267" s="17"/>
+      <c r="S267" s="17"/>
+      <c r="T267" s="17"/>
+      <c r="U267" s="17"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B268" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B269" s="44" t="s">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B270" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C269" s="29" t="s">
+      <c r="C270" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D269" s="29" t="s">
+      <c r="D270" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E269" s="29" t="s">
+      <c r="E270" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F269" s="29" t="s">
+      <c r="F270" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G269" s="29" t="s">
+      <c r="G270" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H269" s="29" t="s">
+      <c r="H270" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="I269" s="29" t="s">
+      <c r="I270" s="29" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B270" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C270" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D270" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E270" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F270" s="45">
-        <v>1</v>
-      </c>
-      <c r="G270" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="H270" s="45">
-        <v>0</v>
-      </c>
-      <c r="I270" s="45">
-        <v>2100</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B271" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271" s="45" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D271" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E271" s="45" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="F271" s="45">
-        <v>0.16250000000000001</v>
+        <v>1</v>
       </c>
       <c r="G271" s="45">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="H271" s="45">
-        <v>0.83750000000000002</v>
+        <v>0</v>
       </c>
       <c r="I271" s="45">
         <v>2100</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A274" s="16"/>
-      <c r="B274" s="17" t="s">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B272" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C272" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E272" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F272" s="45">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="G272" s="45">
+        <v>1</v>
+      </c>
+      <c r="H272" s="45">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="I272" s="45">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275" s="16"/>
+      <c r="B275" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C274" s="17"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="17"/>
-      <c r="I274" s="17"/>
-      <c r="J274" s="17"/>
-      <c r="K274" s="17"/>
-      <c r="L274" s="17"/>
-      <c r="M274" s="17"/>
-      <c r="N274" s="17"/>
-      <c r="O274" s="17"/>
-      <c r="P274" s="17"/>
-      <c r="Q274" s="17"/>
-      <c r="R274" s="17"/>
-      <c r="S274" s="17"/>
-      <c r="T274" s="17"/>
-      <c r="U274" s="17"/>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B276" s="38" t="s">
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="17"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+      <c r="M275" s="17"/>
+      <c r="N275" s="17"/>
+      <c r="O275" s="17"/>
+      <c r="P275" s="17"/>
+      <c r="Q275" s="17"/>
+      <c r="R275" s="17"/>
+      <c r="S275" s="17"/>
+      <c r="T275" s="17"/>
+      <c r="U275" s="17"/>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B277" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C276" s="38" t="s">
+      <c r="C277" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D276" s="38" t="s">
+      <c r="D277" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E276" s="40" t="s">
+      <c r="E277" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="F276" s="40" t="s">
+      <c r="F277" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="G276" s="39" t="s">
+      <c r="G277" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="H276" s="39" t="s">
+      <c r="H277" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="I276" s="37" t="s">
+      <c r="I277" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="J276" s="37" t="s">
+      <c r="J277" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K276" s="37" t="s">
+      <c r="K277" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="L276" s="37" t="s">
+      <c r="L277" s="37" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B277" s="4">
-        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D277" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E277" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="F277" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G277" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H277" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="I277" s="43">
-        <v>1</v>
-      </c>
-      <c r="J277" s="43">
-        <v>1995</v>
-      </c>
-      <c r="K277" s="43">
-        <v>6</v>
-      </c>
-      <c r="L277" s="43">
-        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B278" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E278" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F278" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G278" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H278" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I278" s="43">
+        <v>1</v>
+      </c>
+      <c r="J278" s="43">
+        <v>1995</v>
+      </c>
+      <c r="K278" s="43">
+        <v>6</v>
+      </c>
+      <c r="L278" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B279" s="4">
+        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C279" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D279" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E278" s="42" t="s">
+      <c r="E279" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F278" s="42" t="s">
+      <c r="F279" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="G278" s="41" t="s">
+      <c r="G279" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="H278" s="41" t="s">
+      <c r="H279" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="I278" s="43">
+      <c r="I279" s="43">
         <v>25</v>
       </c>
-      <c r="J278" s="43">
+      <c r="J279" s="43">
         <v>2000</v>
       </c>
-      <c r="K278" s="43">
+      <c r="K279" s="43">
         <v>250</v>
       </c>
-      <c r="L278" s="43">
+      <c r="L279" s="43">
         <v>1000</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A281" s="16"/>
-      <c r="B281" s="17" t="s">
+    <row r="282" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="16"/>
+      <c r="B282" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C281" s="17"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="17"/>
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="17"/>
-      <c r="I281" s="17"/>
-      <c r="J281" s="17"/>
-      <c r="K281" s="17"/>
-      <c r="L281" s="17"/>
-      <c r="M281" s="17"/>
-      <c r="N281" s="17"/>
-      <c r="O281" s="17"/>
-      <c r="P281" s="17"/>
-      <c r="Q281" s="17"/>
-      <c r="R281" s="17"/>
-      <c r="S281" s="17"/>
-      <c r="T281" s="17"/>
-      <c r="U281" s="17"/>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B283" s="44" t="s">
+      <c r="C282" s="17"/>
+      <c r="D282" s="17"/>
+      <c r="E282" s="17"/>
+      <c r="F282" s="17"/>
+      <c r="G282" s="17"/>
+      <c r="H282" s="17"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="17"/>
+      <c r="L282" s="17"/>
+      <c r="M282" s="17"/>
+      <c r="N282" s="17"/>
+      <c r="O282" s="17"/>
+      <c r="P282" s="17"/>
+      <c r="Q282" s="17"/>
+      <c r="R282" s="17"/>
+      <c r="S282" s="17"/>
+      <c r="T282" s="17"/>
+      <c r="U282" s="17"/>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B284" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C283" s="29" t="s">
+      <c r="C284" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D283" s="29" t="s">
+      <c r="D284" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E283" s="29" t="s">
+      <c r="E284" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F283" s="30" t="s">
+      <c r="F284" s="30" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B284" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C284" s="90" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CanESM2</v>
-      </c>
-      <c r="D284" s="45">
-        <v>6</v>
-      </c>
-      <c r="E284" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F284" s="87" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B285" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C285" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CCSM4</v>
+        <v>CanESM2</v>
       </c>
       <c r="D285" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E285" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F285" s="87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B286" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GISSE2R</v>
+        <v>CCSM4</v>
       </c>
       <c r="D286" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E286" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F286" s="87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B287" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>HadGEM2ES</v>
+        <v>GISSE2R</v>
       </c>
       <c r="D287" s="45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E287" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F287" s="87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B288" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MIROC5</v>
+        <v>HadGEM2ES</v>
       </c>
       <c r="D288" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E288" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F288" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GFDLCM3</v>
+        <v>MIROC5</v>
       </c>
       <c r="D289" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E289" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F289" s="87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MRICGCM3</v>
+        <v>GFDLCM3</v>
       </c>
       <c r="D290" s="45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E290" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F290" s="87" t="s">
-        <v>341</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C291" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GCMEnsemble</v>
+        <v>MRICGCM3</v>
       </c>
       <c r="D291" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E291" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F291" s="87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B292" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C292" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>30cm</v>
+        <v>GCMEnsemble</v>
       </c>
       <c r="D292" s="45">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F292" s="87" t="s">
-        <v>579</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B293" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C293" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>50cm</v>
+        <v>30cm</v>
       </c>
       <c r="D293" s="45">
         <v>250</v>
@@ -18472,17 +18500,17 @@
         <v>160</v>
       </c>
       <c r="F293" s="87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B294" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C294" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>100cm</v>
+        <v>50cm</v>
       </c>
       <c r="D294" s="45">
         <v>250</v>
@@ -18491,17 +18519,17 @@
         <v>160</v>
       </c>
       <c r="F294" s="87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B295" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C295" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>150cm</v>
+        <v>100cm</v>
       </c>
       <c r="D295" s="45">
         <v>250</v>
@@ -18510,17 +18538,17 @@
         <v>160</v>
       </c>
       <c r="F295" s="87" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B296" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C296" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>200cm</v>
+        <v>150cm</v>
       </c>
       <c r="D296" s="45">
         <v>250</v>
@@ -18529,17 +18557,17 @@
         <v>160</v>
       </c>
       <c r="F296" s="87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C297" s="90" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>250cm</v>
+        <v>200cm</v>
       </c>
       <c r="D297" s="45">
         <v>250</v>
@@ -18548,114 +18576,105 @@
         <v>160</v>
       </c>
       <c r="F297" s="87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B298" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>14</v>
+      </c>
+      <c r="C298" s="90" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>250cm</v>
+      </c>
+      <c r="D298" s="45">
+        <v>250</v>
+      </c>
+      <c r="E298" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F298" s="87" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A300" s="16"/>
-      <c r="B300" s="17" t="s">
+    <row r="301" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301" s="16"/>
+      <c r="B301" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C300" s="17"/>
-      <c r="D300" s="17"/>
-      <c r="E300" s="17"/>
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="17"/>
-      <c r="I300" s="17"/>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="17"/>
-      <c r="R300" s="17"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="17"/>
-      <c r="U300" s="17"/>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B302" s="29" t="s">
+      <c r="C301" s="17"/>
+      <c r="D301" s="17"/>
+      <c r="E301" s="17"/>
+      <c r="F301" s="17"/>
+      <c r="G301" s="17"/>
+      <c r="H301" s="17"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+      <c r="Q301" s="17"/>
+      <c r="R301" s="17"/>
+      <c r="S301" s="17"/>
+      <c r="T301" s="17"/>
+      <c r="U301" s="17"/>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B303" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C302" s="29" t="s">
+      <c r="C303" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D302" s="29" t="s">
+      <c r="D303" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E302" s="29" t="s">
+      <c r="E303" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F302" s="31" t="s">
+      <c r="F303" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G302" s="31" t="s">
+      <c r="G303" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="H302" s="31" t="s">
+      <c r="H303" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I302" s="31" t="s">
+      <c r="I303" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="J302" s="31" t="s">
+      <c r="J303" s="31" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B303" s="4">
-        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D303" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E303" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="F303" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="G303" s="27">
-        <v>0</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="J303" s="27">
-        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B304" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="D304" s="45" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F304" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G304" s="27">
         <v>0</v>
       </c>
       <c r="H304" s="27"/>
       <c r="I304" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J304" s="27">
         <v>0</v>
@@ -18664,29 +18683,26 @@
     <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B305" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="D305" s="45" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="E305" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F305" s="27" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="G305" s="27">
         <v>0</v>
       </c>
-      <c r="H305" s="27" t="str">
-        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
-        <v/>
-      </c>
+      <c r="H305" s="27"/>
       <c r="I305" s="27" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="J305" s="27">
         <v>0</v>
@@ -18695,19 +18711,19 @@
     <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B306" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D306" s="45" t="s">
-        <v>577</v>
+        <v>312</v>
       </c>
       <c r="E306" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F306" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G306" s="27">
         <v>0</v>
@@ -18717,1090 +18733,1121 @@
         <v/>
       </c>
       <c r="I306" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J306" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B307" s="4">
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C307" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J306" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A309" s="16"/>
-      <c r="B309" s="17" t="s">
+      <c r="D307" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="E307" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F307" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G307" s="27">
+        <v>0</v>
+      </c>
+      <c r="H307" s="27" t="str">
+        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
+        <v/>
+      </c>
+      <c r="I307" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="J307" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="16"/>
+      <c r="B310" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C309" s="17"/>
-      <c r="D309" s="17"/>
-      <c r="E309" s="17"/>
-      <c r="F309" s="17"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="17"/>
-      <c r="I309" s="17"/>
-      <c r="J309" s="17"/>
-      <c r="K309" s="17"/>
-      <c r="L309" s="17"/>
-      <c r="M309" s="17"/>
-      <c r="N309" s="17"/>
-      <c r="O309" s="17"/>
-      <c r="P309" s="17"/>
-      <c r="Q309" s="17"/>
-      <c r="R309" s="17"/>
-      <c r="S309" s="17"/>
-      <c r="T309" s="17"/>
-      <c r="U309" s="17"/>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B311" s="44" t="s">
+      <c r="C310" s="17"/>
+      <c r="D310" s="17"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
+      <c r="M310" s="17"/>
+      <c r="N310" s="17"/>
+      <c r="O310" s="17"/>
+      <c r="P310" s="17"/>
+      <c r="Q310" s="17"/>
+      <c r="R310" s="17"/>
+      <c r="S310" s="17"/>
+      <c r="T310" s="17"/>
+      <c r="U310" s="17"/>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B312" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C311" s="29" t="s">
+      <c r="C312" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D311" s="30" t="s">
+      <c r="D312" s="30" t="s">
         <v>598</v>
-      </c>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B312" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C312" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Midwest</v>
       </c>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313" s="45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D313" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northeast</v>
+        <v>Midwest</v>
       </c>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B314" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" s="45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D314" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>NorthernPlains</v>
+        <v>Northeast</v>
       </c>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B315" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D315" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northwest</v>
+        <v>NorthernPlains</v>
       </c>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B316" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316" s="45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D316" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southeast</v>
+        <v>Northwest</v>
       </c>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B317" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C317" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D317" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>SouthernPlains</v>
+        <v>Southeast</v>
       </c>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B318" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C318" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D318" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>SouthernPlains</v>
+      </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B319" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>7</v>
+      </c>
+      <c r="C319" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Southwest</v>
       </c>
-      <c r="E318" s="2"/>
-    </row>
-    <row r="321" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-      <c r="B321" s="17" t="s">
+      <c r="E319" s="2"/>
+    </row>
+    <row r="322" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="16"/>
+      <c r="B322" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C321" s="17"/>
-      <c r="D321" s="17"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="17"/>
-      <c r="I321" s="17"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="17"/>
-      <c r="L321" s="17"/>
-      <c r="M321" s="17"/>
-      <c r="N321" s="17"/>
-      <c r="O321" s="17"/>
-      <c r="P321" s="17"/>
-      <c r="Q321" s="17"/>
-      <c r="R321" s="17"/>
-      <c r="S321" s="17"/>
-      <c r="T321" s="17"/>
-      <c r="U321" s="17"/>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B323" s="2" t="s">
+      <c r="C322" s="17"/>
+      <c r="D322" s="17"/>
+      <c r="E322" s="17"/>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+      <c r="P322" s="17"/>
+      <c r="Q322" s="17"/>
+      <c r="R322" s="17"/>
+      <c r="S322" s="17"/>
+      <c r="T322" s="17"/>
+      <c r="U322" s="17"/>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B324" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D323" s="2" t="s">
+      <c r="D324" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E323" s="2" t="s">
+      <c r="E324" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F323" s="9" t="s">
+      <c r="F324" s="9" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B324" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C324" s="83" t="s">
-        <v>445</v>
-      </c>
-      <c r="D324" s="83" t="s">
-        <v>446</v>
-      </c>
-      <c r="E324" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F324" s="84">
-        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B325" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C325" s="83" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D325" s="83" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E325" s="83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F325" s="84">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B326" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" s="83" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D326" s="83" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E326" s="83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F326" s="84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B327" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" s="83" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D327" s="83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E327" s="83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F327" s="84">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B328" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D328" s="83" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E328" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F328" s="84">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B329" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D329" s="83" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E329" s="83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F329" s="84">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B330" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C330" s="83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D330" s="83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E330" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F330" s="84">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B331" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D331" s="83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E331" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F331" s="84">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B332" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D332" s="83" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E332" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F332" s="84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B333" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D333" s="83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E333" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F333" s="84">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B334" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C334" s="83" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D334" s="83" t="s">
-        <v>47</v>
+        <v>464</v>
       </c>
       <c r="E334" s="83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F334" s="84">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B335" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C335" s="83" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D335" s="83" t="s">
-        <v>467</v>
+        <v>47</v>
       </c>
       <c r="E335" s="83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F335" s="84">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B336" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C336" s="83" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D336" s="83" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E336" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F336" s="84">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B337" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C337" s="83" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D337" s="83" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E337" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F337" s="84">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B338" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C338" s="83" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D338" s="83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E338" s="83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F338" s="84">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B339" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C339" s="83" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D339" s="83" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E339" s="83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F339" s="84">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B340" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D340" s="83" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E340" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F340" s="84">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B341" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C341" s="83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D341" s="83" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E341" s="83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F341" s="84">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B342" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C342" s="83" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D342" s="83" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E342" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F342" s="84">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B343" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C343" s="83" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D343" s="83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E343" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F343" s="84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B344" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D344" s="83" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E344" s="83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F344" s="84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B345" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C345" s="83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D345" s="83" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E345" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F345" s="84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B346" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C346" s="83" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D346" s="83" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E346" s="83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F346" s="84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B347" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C347" s="83" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D347" s="83" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E347" s="83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F347" s="84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B348" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C348" s="83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D348" s="83" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E348" s="83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F348" s="84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C349" s="83" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D349" s="83" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E349" s="83" t="s">
         <v>8</v>
       </c>
       <c r="F349" s="84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B350" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C350" s="83" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D350" s="83" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E350" s="83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F350" s="84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B351" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C351" s="83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D351" s="83" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E351" s="83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F351" s="84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B352" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C352" s="83" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D352" s="83" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E352" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F352" s="84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C353" s="83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D353" s="83" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E353" s="83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F353" s="84">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C354" s="83" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D354" s="83" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E354" s="83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F354" s="84">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C355" s="83" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D355" s="83" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E355" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F355" s="84">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C356" s="83" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D356" s="83" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E356" s="83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F356" s="84">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C357" s="83" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D357" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E357" s="83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F357" s="84">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C358" s="83" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D358" s="83" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E358" s="83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F358" s="84">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C359" s="83" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D359" s="83" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E359" s="83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F359" s="84">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C360" s="83" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D360" s="83" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E360" s="83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F360" s="84">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C361" s="83" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D361" s="83" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E361" s="83" t="s">
         <v>7</v>
       </c>
       <c r="F361" s="84">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C362" s="83" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D362" s="83" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E362" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F362" s="84">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C363" s="83" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D363" s="83" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E363" s="83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F363" s="84">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C364" s="83" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D364" s="83" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E364" s="83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F364" s="84">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C365" s="83" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E365" s="83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F365" s="84">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C366" s="83" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D366" s="83" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E366" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F366" s="84">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C367" s="83" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D367" s="83" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E367" s="83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F367" s="84">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C368" s="83" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D368" s="83" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E368" s="83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F368" s="84">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C369" s="83" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D369" s="83" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E369" s="83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F369" s="84">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C370" s="83" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D370" s="83" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E370" s="83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F370" s="84">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C371" s="83" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D371" s="83" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E371" s="83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F371" s="84">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>48</v>
+      </c>
+      <c r="C372" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="D372" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="E372" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F372" s="84">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B373" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
-      <c r="C372" s="83" t="s">
+      <c r="C373" s="83" t="s">
         <v>540</v>
       </c>
-      <c r="D372" s="83" t="s">
+      <c r="D373" s="83" t="s">
         <v>541</v>
       </c>
-      <c r="E372" s="83" t="s">
+      <c r="E373" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F372" s="84">
+      <c r="F373" s="84">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B40 B41:F50">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula xml:space="preserve"> IF( $E40 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F39">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula xml:space="preserve"> IF( $E21 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula xml:space="preserve"> IF( $E40 = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I153:J153">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> IF( #REF! = 1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ABAA25-B085-4BE1-9CC5-5FA7D4F07854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49105110-3F68-4313-8FF0-662AC0713716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="-28920" windowWidth="16440" windowHeight="28320" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="-28920" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{3F9B2699-D2DB-4BEA-A3D8-EDA1A2F4B1B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -196,7 +197,7 @@
     This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</t>
       </text>
     </comment>
-    <comment ref="J277" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+    <comment ref="J281" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +205,7 @@
     Year when change and impacts are zero</t>
       </text>
     </comment>
-    <comment ref="L277" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+    <comment ref="L281" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +213,7 @@
     Maximum value to extrapolate to, for models that go up to the maximum output value.</t>
       </text>
     </comment>
-    <comment ref="D284" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+    <comment ref="D288" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +221,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J303" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J307" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="677">
   <si>
     <t>CanESM2</t>
   </si>
@@ -8006,7 +8007,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B303:J307" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B307:J311" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8027,8 +8028,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B324:F373" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="B324:F373" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B328:F377" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="B328:F377" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8043,12 +8044,14 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B270:I272" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B270:K277" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{2FAB7D52-165C-4E12-A43C-69094A200E03}" name="impactType_label"/>
+    <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType_id"/>
     <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
@@ -8228,7 +8231,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B277:L279" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B281:L283" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8249,7 +8252,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B312:D319" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B316:D323" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8264,7 +8267,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B284:F298" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B288:F302" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8699,16 +8702,16 @@
   <threadedComment ref="F207" dT="2021-04-02T15:36:58.50" personId="{00000000-0000-0000-0000-000000000000}" id="{EF83C059-A623-47AC-AFC4-40246F6AF9B2}">
     <text>This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</text>
   </threadedComment>
-  <threadedComment ref="J277" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+  <threadedComment ref="J281" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
     <text>Year when change and impacts are zero</text>
   </threadedComment>
-  <threadedComment ref="L277" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+  <threadedComment ref="L281" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
     <text>Maximum value to extrapolate to, for models that go up to the maximum output value.</text>
   </threadedComment>
-  <threadedComment ref="D284" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+  <threadedComment ref="D288" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J303" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J307" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -8724,14 +8727,15 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="56" t="s">
         <v>76</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>81</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
         <v>242</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B12" s="78" t="s">
         <v>169</v>
       </c>
@@ -8763,79 +8767,79 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B25" s="79" t="s">
         <v>174</v>
       </c>
@@ -8843,55 +8847,55 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78" t="s">
         <v>226</v>
       </c>
@@ -8899,88 +8903,88 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C42" s="59" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C44" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9005,21 +9009,24 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="60.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="60.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -9027,10 +9034,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9071,7 +9078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9121,7 +9128,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9173,7 +9180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9220,7 +9227,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9267,7 +9274,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9314,7 +9321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9334,7 +9341,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9342,7 +9349,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9361,7 +9368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9381,7 +9388,7 @@
       </c>
       <c r="G10" s="31" cm="1">
         <f t="array" aca="1" ref="G10" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9389,7 +9396,7 @@
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9408,7 +9415,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9458,7 +9465,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9478,7 +9485,7 @@
       </c>
       <c r="G12" s="31" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H12" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9486,7 +9493,7 @@
       </c>
       <c r="I12" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J12" s="31" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9505,7 +9512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
@@ -9525,7 +9532,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9533,7 +9540,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9552,7 +9559,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9599,7 +9606,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9646,7 +9653,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9666,7 +9673,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9674,7 +9681,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9693,7 +9700,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9717,11 +9724,11 @@
       </c>
       <c r="H17" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J17" s="31" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9729,11 +9736,11 @@
       </c>
       <c r="K17" s="31" cm="1">
         <f t="array" aca="1" ref="K17" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="47" t="s">
@@ -9756,28 +9763,31 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U373"/>
+  <dimension ref="A1:U377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K164" sqref="K164"/>
+      <selection pane="topRight" activeCell="B271" sqref="B271:B277"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="1">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
-    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="2" customWidth="1"/>
+    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>289</v>
@@ -9802,7 +9812,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -9811,7 +9821,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -9820,7 +9830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -9829,7 +9839,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -9838,7 +9848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -9847,7 +9857,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -9856,7 +9866,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -9865,7 +9875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -9874,7 +9884,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -9883,7 +9893,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -9892,7 +9902,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -9901,7 +9911,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -9910,7 +9920,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -9919,7 +9929,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>288</v>
       </c>
@@ -9933,7 +9943,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>74</v>
@@ -9958,7 +9968,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>123</v>
       </c>
@@ -10002,7 +10012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10063,7 +10073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10124,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10185,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10246,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10307,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10368,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10429,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10490,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10551,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10612,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10673,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10734,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10795,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -10856,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -10917,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -10978,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11039,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -11100,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -11161,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -11222,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B41" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11283,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11344,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B43" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11405,7 +11415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11466,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11527,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11588,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11649,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11710,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11771,7 +11781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -11832,7 +11842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
         <v>291</v>
@@ -11857,7 +11867,7 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B54" s="29" t="s">
         <v>123</v>
       </c>
@@ -11874,7 +11884,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -11892,7 +11902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -11910,7 +11920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -11928,7 +11938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -11946,7 +11956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -11964,7 +11974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -11982,7 +11992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12000,7 +12010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12018,7 +12028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12036,7 +12046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12054,7 +12064,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12068,7 +12078,7 @@
       <c r="E65" s="80"/>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12086,7 +12096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12104,7 +12114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12122,7 +12132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -12136,7 +12146,7 @@
       <c r="E69" s="80"/>
       <c r="F69" s="27"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -12154,7 +12164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12168,7 +12178,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12182,7 +12192,7 @@
       <c r="E72" s="80"/>
       <c r="F72" s="27"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -12196,7 +12206,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -12214,7 +12224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12232,7 +12242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12250,7 +12260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12268,7 +12278,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12286,7 +12296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12304,7 +12314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12322,7 +12332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12340,7 +12350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12358,7 +12368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12376,7 +12386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12394,7 +12404,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="16"/>
       <c r="B86" s="17" t="s">
         <v>380</v>
@@ -12419,7 +12429,7 @@
       <c r="T86" s="17"/>
       <c r="U86" s="17"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>381</v>
       </c>
@@ -12433,7 +12443,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>382</v>
       </c>
@@ -12447,7 +12457,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>383</v>
       </c>
@@ -12461,7 +12471,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B90" s="43" t="s">
         <v>123</v>
       </c>
@@ -12493,7 +12503,7 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B91" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12527,7 +12537,7 @@
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12561,7 +12571,7 @@
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:21" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12595,7 +12605,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12629,7 +12639,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12663,7 +12673,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12697,7 +12707,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12731,7 +12741,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12765,7 +12775,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12799,7 +12809,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12833,7 +12843,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12867,7 +12877,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12901,7 +12911,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12935,7 +12945,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12969,7 +12979,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13003,7 +13013,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13037,7 +13047,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13071,7 +13081,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13105,7 +13115,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13139,7 +13149,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13173,7 +13183,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13207,7 +13217,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -13241,7 +13251,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -13275,7 +13285,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13309,7 +13319,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13343,7 +13353,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13377,7 +13387,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13411,7 +13421,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13445,7 +13455,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -13479,7 +13489,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -13513,7 +13523,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -13547,7 +13557,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13581,7 +13591,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -13615,7 +13625,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -13649,7 +13659,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -13683,7 +13693,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -13717,7 +13727,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -13751,7 +13761,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -13785,7 +13795,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -13819,7 +13829,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -13853,7 +13863,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -13887,7 +13897,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -13921,7 +13931,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -13955,7 +13965,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -13989,7 +13999,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14023,7 +14033,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14057,7 +14067,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14091,7 +14101,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14125,7 +14135,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14159,7 +14169,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14193,7 +14203,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14227,7 +14237,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14261,7 +14271,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14295,7 +14305,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="16"/>
       <c r="B145" s="17" t="s">
         <v>37</v>
@@ -14320,12 +14330,12 @@
       <c r="T145" s="17"/>
       <c r="U145" s="17"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B147" s="29" t="s">
         <v>123</v>
       </c>
@@ -14372,7 +14382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B148" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14421,7 +14431,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B149" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14470,7 +14480,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14519,7 +14529,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14568,7 +14578,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14617,7 +14627,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14666,7 +14676,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14715,7 +14725,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -14764,7 +14774,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -14813,7 +14823,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -14862,7 +14872,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -14911,7 +14921,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -14960,7 +14970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15009,7 +15019,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="161" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15058,7 +15068,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15107,7 +15117,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15156,7 +15166,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15205,7 +15215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15254,7 +15264,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15303,7 +15313,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15352,7 +15362,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15401,7 +15411,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -15450,7 +15460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15499,7 +15509,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15548,7 +15558,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15597,7 +15607,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="173" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -15646,7 +15656,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -15695,7 +15705,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -15744,7 +15754,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -15793,7 +15803,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -15842,7 +15852,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -15891,7 +15901,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -15940,7 +15950,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -15989,7 +15999,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -16038,7 +16048,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -16087,7 +16097,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -16136,7 +16146,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -16185,7 +16195,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -16234,7 +16244,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -16283,7 +16293,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16332,7 +16342,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16382,7 +16392,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16431,7 +16441,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16480,7 +16490,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16529,7 +16539,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16578,7 +16588,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16627,7 +16637,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16676,7 +16686,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16725,7 +16735,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -16774,7 +16784,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -16823,7 +16833,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -16872,7 +16882,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -16921,7 +16931,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -16970,7 +16980,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17019,7 +17029,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17068,7 +17078,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" s="16"/>
       <c r="B205" s="17" t="s">
         <v>352</v>
@@ -17093,7 +17103,7 @@
       <c r="T205" s="17"/>
       <c r="U205" s="17"/>
     </row>
-    <row r="207" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B207" s="29" t="s">
         <v>123</v>
       </c>
@@ -17125,7 +17135,7 @@
       <c r="R207" s="5"/>
       <c r="S207" s="5"/>
     </row>
-    <row r="208" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B208" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -17156,7 +17166,7 @@
       <c r="R208"/>
       <c r="S208"/>
     </row>
-    <row r="209" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B209" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -17187,7 +17197,7 @@
       <c r="R209"/>
       <c r="S209"/>
     </row>
-    <row r="210" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B210" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -17218,7 +17228,7 @@
       <c r="R210"/>
       <c r="S210"/>
     </row>
-    <row r="211" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B211" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -17249,7 +17259,7 @@
       <c r="R211"/>
       <c r="S211"/>
     </row>
-    <row r="212" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B212" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -17282,7 +17292,7 @@
       <c r="R212"/>
       <c r="S212"/>
     </row>
-    <row r="213" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B213" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -17313,7 +17323,7 @@
       <c r="R213"/>
       <c r="S213"/>
     </row>
-    <row r="214" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B214" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -17346,7 +17356,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B215" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -17379,7 +17389,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B216" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -17412,7 +17422,7 @@
       <c r="R216"/>
       <c r="S216"/>
     </row>
-    <row r="217" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B217" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -17443,7 +17453,7 @@
       <c r="R217"/>
       <c r="S217"/>
     </row>
-    <row r="218" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B218" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -17474,7 +17484,7 @@
       <c r="R218"/>
       <c r="S218"/>
     </row>
-    <row r="219" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B219" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -17505,7 +17515,7 @@
       <c r="R219"/>
       <c r="S219"/>
     </row>
-    <row r="220" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B220" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -17536,7 +17546,7 @@
       <c r="R220"/>
       <c r="S220"/>
     </row>
-    <row r="221" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -17567,7 +17577,7 @@
       <c r="R221"/>
       <c r="S221"/>
     </row>
-    <row r="222" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -17595,7 +17605,7 @@
       </c>
       <c r="J222" s="65"/>
     </row>
-    <row r="223" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -17623,7 +17633,7 @@
       </c>
       <c r="J223" s="65"/>
     </row>
-    <row r="224" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -17651,7 +17661,7 @@
       </c>
       <c r="J224" s="65"/>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -17681,7 +17691,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -17707,7 +17717,7 @@
       <c r="I226" s="48"/>
       <c r="J226" s="65"/>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -17735,7 +17745,7 @@
       </c>
       <c r="J227" s="65"/>
     </row>
-    <row r="228" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -17763,7 +17773,7 @@
       </c>
       <c r="J228" s="65"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -17789,7 +17799,7 @@
       <c r="I229" s="48"/>
       <c r="J229" s="65"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -17817,7 +17827,7 @@
       </c>
       <c r="J230" s="65"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -17845,7 +17855,7 @@
       </c>
       <c r="J231" s="65"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -17873,7 +17883,7 @@
       </c>
       <c r="J232" s="65"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -17901,7 +17911,7 @@
       </c>
       <c r="J233" s="65"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -17931,7 +17941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -17959,7 +17969,7 @@
       </c>
       <c r="J235" s="65"/>
     </row>
-    <row r="236" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -17987,7 +17997,7 @@
       </c>
       <c r="J236" s="65"/>
     </row>
-    <row r="237" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -18015,7 +18025,7 @@
       </c>
       <c r="J237" s="65"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -18043,7 +18053,7 @@
       </c>
       <c r="J238" s="65"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -18071,7 +18081,7 @@
       </c>
       <c r="J239" s="65"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -18101,7 +18111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -18129,7 +18139,7 @@
       </c>
       <c r="J241" s="65"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -18157,7 +18167,7 @@
       </c>
       <c r="J242" s="65"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -18185,7 +18195,7 @@
       </c>
       <c r="J243" s="65"/>
     </row>
-    <row r="244" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -18213,7 +18223,7 @@
       </c>
       <c r="J244" s="65"/>
     </row>
-    <row r="245" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -18239,7 +18249,7 @@
       <c r="I245" s="48"/>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -18265,7 +18275,7 @@
       <c r="I246" s="48"/>
       <c r="J246" s="65"/>
     </row>
-    <row r="247" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -18291,7 +18301,7 @@
       <c r="I247" s="48"/>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -18317,7 +18327,7 @@
       <c r="I248" s="48"/>
       <c r="J248" s="65"/>
     </row>
-    <row r="251" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" s="16"/>
       <c r="B251" s="17" t="s">
         <v>292</v>
@@ -18342,7 +18352,7 @@
       <c r="T251" s="17"/>
       <c r="U251" s="17"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B253" s="29" t="s">
         <v>123</v>
       </c>
@@ -18356,7 +18366,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B254" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18371,7 +18381,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B255" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18386,7 +18396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B256" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -18401,7 +18411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" s="16"/>
       <c r="B259" s="17" t="s">
         <v>293</v>
@@ -18426,7 +18436,7 @@
       <c r="T259" s="17"/>
       <c r="U259" s="17"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B261" s="29" t="s">
         <v>123</v>
       </c>
@@ -18437,7 +18447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B262" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18450,7 +18460,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B263" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18463,7 +18473,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B264" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -18475,7 +18485,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A267" s="16"/>
       <c r="B267" s="17" t="s">
         <v>546</v>
@@ -18500,12 +18510,12 @@
       <c r="T267" s="17"/>
       <c r="U267" s="17"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B270" s="43" t="s">
         <v>123</v>
       </c>
@@ -18513,25 +18523,31 @@
         <v>200</v>
       </c>
       <c r="D270" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E270" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F270" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E270" s="29" t="s">
+      <c r="G270" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F270" s="29" t="s">
+      <c r="H270" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G270" s="29" t="s">
+      <c r="I270" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H270" s="29" t="s">
+      <c r="J270" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="I270" s="29" t="s">
+      <c r="K270" s="29" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B271" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18539,26 +18555,32 @@
       <c r="C271" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D271" s="44" t="s">
+      <c r="D271" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E271" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F271" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E271" s="44" t="s">
+      <c r="G271" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F271" s="44">
-        <v>1</v>
-      </c>
-      <c r="G271" s="44">
+      <c r="H271" s="44">
+        <v>1</v>
+      </c>
+      <c r="I271" s="44">
         <v>0.45</v>
       </c>
-      <c r="H271" s="44">
-        <v>0</v>
-      </c>
-      <c r="I271" s="44">
+      <c r="J271" s="44">
+        <v>0</v>
+      </c>
+      <c r="K271" s="44">
         <v>2100</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B272" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18566,1693 +18588,1864 @@
       <c r="C272" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D272" s="44" t="s">
+      <c r="D272" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E272" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F272" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E272" s="44" t="s">
+      <c r="G272" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="F272" s="44">
+      <c r="H272" s="44">
         <v>0.16250000000000001</v>
       </c>
-      <c r="G272" s="44">
-        <v>1</v>
-      </c>
-      <c r="H272" s="44">
+      <c r="I272" s="44">
+        <v>1</v>
+      </c>
+      <c r="J272" s="44">
         <v>0.83750000000000002</v>
       </c>
-      <c r="I272" s="44">
+      <c r="K272" s="44">
         <v>2100</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A275" s="16"/>
-      <c r="B275" s="17" t="s">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B273" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D273" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E273" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="F273" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G273" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H273" s="44">
+        <v>0</v>
+      </c>
+      <c r="I273" s="44">
+        <v>1</v>
+      </c>
+      <c r="J273" s="44">
+        <v>0</v>
+      </c>
+      <c r="K273" s="44">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B274" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D274" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="E274" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="F274" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G274" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H274" s="44">
+        <v>0</v>
+      </c>
+      <c r="I274" s="44">
+        <v>1</v>
+      </c>
+      <c r="J274" s="44">
+        <v>0</v>
+      </c>
+      <c r="K274" s="44">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B275" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D275" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="E275" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="F275" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G275" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H275" s="44">
+        <v>0</v>
+      </c>
+      <c r="I275" s="44">
+        <v>1</v>
+      </c>
+      <c r="J275" s="44">
+        <v>0</v>
+      </c>
+      <c r="K275" s="44">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B276" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>6</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D276" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="E276" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="F276" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G276" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H276" s="44">
+        <v>0</v>
+      </c>
+      <c r="I276" s="44">
+        <v>1</v>
+      </c>
+      <c r="J276" s="44">
+        <v>1</v>
+      </c>
+      <c r="K276" s="44">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B277" s="4">
+        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+        <v>7</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D277" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="E277" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="F277" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G277" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H277" s="44">
+        <v>0</v>
+      </c>
+      <c r="I277" s="44">
+        <v>1</v>
+      </c>
+      <c r="J277" s="44">
+        <v>1</v>
+      </c>
+      <c r="K277" s="44">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="16"/>
+      <c r="B279" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C275" s="17"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="17"/>
-      <c r="M275" s="17"/>
-      <c r="N275" s="17"/>
-      <c r="O275" s="17"/>
-      <c r="P275" s="17"/>
-      <c r="Q275" s="17"/>
-      <c r="R275" s="17"/>
-      <c r="S275" s="17"/>
-      <c r="T275" s="17"/>
-      <c r="U275" s="17"/>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B277" s="37" t="s">
+      <c r="C279" s="17"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="17"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="17"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+      <c r="M279" s="17"/>
+      <c r="N279" s="17"/>
+      <c r="O279" s="17"/>
+      <c r="P279" s="17"/>
+      <c r="Q279" s="17"/>
+      <c r="R279" s="17"/>
+      <c r="S279" s="17"/>
+      <c r="T279" s="17"/>
+      <c r="U279" s="17"/>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B281" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C281" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D277" s="37" t="s">
+      <c r="D281" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="E277" s="39" t="s">
+      <c r="E281" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="F277" s="39" t="s">
+      <c r="F281" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="G277" s="38" t="s">
+      <c r="G281" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="H277" s="38" t="s">
+      <c r="H281" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="I277" s="36" t="s">
+      <c r="I281" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="J277" s="36" t="s">
+      <c r="J281" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="K277" s="36" t="s">
+      <c r="K281" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="L277" s="36" t="s">
+      <c r="L281" s="36" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B278" s="4">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B282" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C282" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D282" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E278" s="41" t="s">
+      <c r="E282" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F278" s="41" t="s">
+      <c r="F282" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G278" s="40" t="s">
+      <c r="G282" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="H278" s="40" t="s">
+      <c r="H282" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="I278" s="42">
-        <v>1</v>
-      </c>
-      <c r="J278" s="42">
+      <c r="I282" s="42">
+        <v>1</v>
+      </c>
+      <c r="J282" s="42">
         <v>1995</v>
       </c>
-      <c r="K278" s="42">
+      <c r="K282" s="42">
         <v>6</v>
       </c>
-      <c r="L278" s="42">
+      <c r="L282" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B279" s="4">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B283" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C283" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D283" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E279" s="41" t="s">
+      <c r="E283" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F279" s="41" t="s">
+      <c r="F283" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="G279" s="40" t="s">
+      <c r="G283" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="H279" s="40" t="s">
+      <c r="H283" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="I279" s="42">
+      <c r="I283" s="42">
         <v>25</v>
       </c>
-      <c r="J279" s="42">
+      <c r="J283" s="42">
         <v>2000</v>
       </c>
-      <c r="K279" s="42">
+      <c r="K283" s="42">
         <v>250</v>
       </c>
-      <c r="L279" s="42">
+      <c r="L283" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A282" s="16"/>
-      <c r="B282" s="17" t="s">
+    <row r="286" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="16"/>
+      <c r="B286" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C282" s="17"/>
-      <c r="D282" s="17"/>
-      <c r="E282" s="17"/>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="17"/>
-      <c r="I282" s="17"/>
-      <c r="J282" s="17"/>
-      <c r="K282" s="17"/>
-      <c r="L282" s="17"/>
-      <c r="M282" s="17"/>
-      <c r="N282" s="17"/>
-      <c r="O282" s="17"/>
-      <c r="P282" s="17"/>
-      <c r="Q282" s="17"/>
-      <c r="R282" s="17"/>
-      <c r="S282" s="17"/>
-      <c r="T282" s="17"/>
-      <c r="U282" s="17"/>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B284" s="43" t="s">
+      <c r="C286" s="17"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+      <c r="M286" s="17"/>
+      <c r="N286" s="17"/>
+      <c r="O286" s="17"/>
+      <c r="P286" s="17"/>
+      <c r="Q286" s="17"/>
+      <c r="R286" s="17"/>
+      <c r="S286" s="17"/>
+      <c r="T286" s="17"/>
+      <c r="U286" s="17"/>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B288" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="C288" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D284" s="29" t="s">
+      <c r="D288" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E284" s="29" t="s">
+      <c r="E288" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F284" s="30" t="s">
+      <c r="F288" s="30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B285" s="4">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C285" s="89" t="str">
+      <c r="C289" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>CanESM2</v>
       </c>
-      <c r="D285" s="44">
+      <c r="D289" s="44">
         <v>6</v>
       </c>
-      <c r="E285" s="44" t="s">
+      <c r="E289" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F285" s="86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B286" s="4">
+      <c r="F289" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C286" s="89" t="str">
+      <c r="C290" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>CCSM4</v>
       </c>
-      <c r="D286" s="44">
+      <c r="D290" s="44">
         <v>5</v>
       </c>
-      <c r="E286" s="44" t="s">
+      <c r="E290" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F286" s="86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B287" s="4">
+      <c r="F290" s="86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C287" s="89" t="str">
+      <c r="C291" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>GISSE2R</v>
       </c>
-      <c r="D287" s="44">
+      <c r="D291" s="44">
         <v>3</v>
       </c>
-      <c r="E287" s="44" t="s">
+      <c r="E291" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F287" s="86" t="s">
+      <c r="F291" s="86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B288" s="4">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B292" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C288" s="89" t="str">
+      <c r="C292" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>HadGEM2ES</v>
       </c>
-      <c r="D288" s="44">
+      <c r="D292" s="44">
         <v>6</v>
       </c>
-      <c r="E288" s="44" t="s">
+      <c r="E292" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F288" s="86" t="s">
+      <c r="F292" s="86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B289" s="4">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B293" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
-      <c r="C289" s="89" t="str">
+      <c r="C293" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>MIROC5</v>
       </c>
-      <c r="D289" s="44">
+      <c r="D293" s="44">
         <v>5</v>
       </c>
-      <c r="E289" s="44" t="s">
+      <c r="E293" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F289" s="86" t="s">
+      <c r="F293" s="86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B290" s="4">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B294" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
-      <c r="C290" s="89" t="str">
+      <c r="C294" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>GFDLCM3</v>
       </c>
-      <c r="D290" s="44">
+      <c r="D294" s="44">
         <v>6</v>
       </c>
-      <c r="E290" s="44" t="s">
+      <c r="E294" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F290" s="86" t="s">
+      <c r="F294" s="86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B291" s="4">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B295" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
-      <c r="C291" s="89" t="str">
+      <c r="C295" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>MRICGCM3</v>
       </c>
-      <c r="D291" s="44">
+      <c r="D295" s="44">
         <v>3</v>
       </c>
-      <c r="E291" s="44" t="s">
+      <c r="E295" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F291" s="86" t="s">
+      <c r="F295" s="86" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B292" s="4">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B296" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
-      <c r="C292" s="89" t="str">
+      <c r="C296" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>GCMEnsemble</v>
       </c>
-      <c r="D292" s="44">
+      <c r="D296" s="44">
         <v>5</v>
       </c>
-      <c r="E292" s="44" t="s">
+      <c r="E296" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F292" s="86" t="s">
+      <c r="F296" s="86" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B293" s="4">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
-      <c r="C293" s="89" t="str">
+      <c r="C297" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>30cm</v>
       </c>
-      <c r="D293" s="44">
+      <c r="D297" s="44">
         <v>250</v>
       </c>
-      <c r="E293" s="44" t="s">
+      <c r="E297" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F293" s="86" t="s">
+      <c r="F297" s="86" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B294" s="4">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
       </c>
-      <c r="C294" s="89" t="str">
+      <c r="C298" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>50cm</v>
       </c>
-      <c r="D294" s="44">
+      <c r="D298" s="44">
         <v>250</v>
       </c>
-      <c r="E294" s="44" t="s">
+      <c r="E298" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F294" s="86" t="s">
+      <c r="F298" s="86" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B295" s="4">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
-      <c r="C295" s="89" t="str">
+      <c r="C299" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>100cm</v>
       </c>
-      <c r="D295" s="44">
+      <c r="D299" s="44">
         <v>250</v>
       </c>
-      <c r="E295" s="44" t="s">
+      <c r="E299" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F295" s="86" t="s">
+      <c r="F299" s="86" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B296" s="4">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B300" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
-      <c r="C296" s="89" t="str">
+      <c r="C300" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>150cm</v>
       </c>
-      <c r="D296" s="44">
+      <c r="D300" s="44">
         <v>250</v>
       </c>
-      <c r="E296" s="44" t="s">
+      <c r="E300" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F296" s="86" t="s">
+      <c r="F300" s="86" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B297" s="4">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B301" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
-      <c r="C297" s="89" t="str">
+      <c r="C301" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>200cm</v>
       </c>
-      <c r="D297" s="44">
+      <c r="D301" s="44">
         <v>250</v>
       </c>
-      <c r="E297" s="44" t="s">
+      <c r="E301" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F297" s="86" t="s">
+      <c r="F301" s="86" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B298" s="4">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B302" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
-      <c r="C298" s="89" t="str">
+      <c r="C302" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
         <v>250cm</v>
       </c>
-      <c r="D298" s="44">
+      <c r="D302" s="44">
         <v>250</v>
       </c>
-      <c r="E298" s="44" t="s">
+      <c r="E302" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F298" s="86" t="s">
+      <c r="F302" s="86" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A301" s="16"/>
-      <c r="B301" s="17" t="s">
+    <row r="305" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A305" s="16"/>
+      <c r="B305" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C301" s="17"/>
-      <c r="D301" s="17"/>
-      <c r="E301" s="17"/>
-      <c r="F301" s="17"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="17"/>
-      <c r="I301" s="17"/>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="17"/>
-      <c r="R301" s="17"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="17"/>
-      <c r="U301" s="17"/>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B303" s="29" t="s">
+      <c r="C305" s="17"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="17"/>
+      <c r="I305" s="17"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="17"/>
+      <c r="L305" s="17"/>
+      <c r="M305" s="17"/>
+      <c r="N305" s="17"/>
+      <c r="O305" s="17"/>
+      <c r="P305" s="17"/>
+      <c r="Q305" s="17"/>
+      <c r="R305" s="17"/>
+      <c r="S305" s="17"/>
+      <c r="T305" s="17"/>
+      <c r="U305" s="17"/>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B307" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C303" s="29" t="s">
+      <c r="C307" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D303" s="29" t="s">
+      <c r="D307" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E303" s="29" t="s">
+      <c r="E307" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F303" s="31" t="s">
+      <c r="F307" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G303" s="31" t="s">
+      <c r="G307" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="H303" s="31" t="s">
+      <c r="H307" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I303" s="31" t="s">
+      <c r="I307" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="J303" s="31" t="s">
+      <c r="J307" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B304" s="4">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B308" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C308" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D304" s="44" t="s">
+      <c r="D308" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E304" s="44" t="s">
+      <c r="E308" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="F304" s="27" t="s">
+      <c r="F308" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G304" s="27">
-        <v>0</v>
-      </c>
-      <c r="H304" s="27"/>
-      <c r="I304" s="27" t="s">
+      <c r="G308" s="27">
+        <v>0</v>
+      </c>
+      <c r="H308" s="27"/>
+      <c r="I308" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="J304" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B305" s="4">
+      <c r="J308" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B309" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C309" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D305" s="44" t="s">
+      <c r="D309" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="E305" s="44" t="s">
+      <c r="E309" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="F305" s="27" t="s">
+      <c r="F309" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G305" s="27">
-        <v>0</v>
-      </c>
-      <c r="H305" s="27"/>
-      <c r="I305" s="27" t="s">
+      <c r="G309" s="27">
+        <v>0</v>
+      </c>
+      <c r="H309" s="27"/>
+      <c r="I309" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="J305" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B306" s="4">
+      <c r="J309" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B310" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C310" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D306" s="44" t="s">
+      <c r="D310" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="E306" s="44" t="s">
+      <c r="E310" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F306" s="27" t="s">
+      <c r="F310" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="G306" s="27">
-        <v>0</v>
-      </c>
-      <c r="H306" s="27" t="str">
+      <c r="G310" s="27">
+        <v>0</v>
+      </c>
+      <c r="H310" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I306" s="27" t="s">
+      <c r="I310" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="J306" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B307" s="4">
+      <c r="J310" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B311" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D307" s="44" t="s">
+      <c r="D311" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="E307" s="44" t="s">
+      <c r="E311" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="F307" s="27" t="s">
+      <c r="F311" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="G307" s="27">
-        <v>0</v>
-      </c>
-      <c r="H307" s="27" t="str">
+      <c r="G311" s="27">
+        <v>0</v>
+      </c>
+      <c r="H311" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I307" s="27" t="s">
+      <c r="I311" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="J307" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A310" s="16"/>
-      <c r="B310" s="17" t="s">
+      <c r="J311" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A314" s="16"/>
+      <c r="B314" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C310" s="17"/>
-      <c r="D310" s="17"/>
-      <c r="E310" s="17"/>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="17"/>
-      <c r="I310" s="17"/>
-      <c r="J310" s="17"/>
-      <c r="K310" s="17"/>
-      <c r="L310" s="17"/>
-      <c r="M310" s="17"/>
-      <c r="N310" s="17"/>
-      <c r="O310" s="17"/>
-      <c r="P310" s="17"/>
-      <c r="Q310" s="17"/>
-      <c r="R310" s="17"/>
-      <c r="S310" s="17"/>
-      <c r="T310" s="17"/>
-      <c r="U310" s="17"/>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B312" s="43" t="s">
+      <c r="C314" s="17"/>
+      <c r="D314" s="17"/>
+      <c r="E314" s="17"/>
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+      <c r="M314" s="17"/>
+      <c r="N314" s="17"/>
+      <c r="O314" s="17"/>
+      <c r="P314" s="17"/>
+      <c r="Q314" s="17"/>
+      <c r="R314" s="17"/>
+      <c r="S314" s="17"/>
+      <c r="T314" s="17"/>
+      <c r="U314" s="17"/>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B316" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C312" s="29" t="s">
+      <c r="C316" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D312" s="30" t="s">
+      <c r="D316" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B313" s="4">
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B317" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C313" s="44" t="s">
+      <c r="C317" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D313" s="30" t="str">
+      <c r="D317" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Midwest</v>
       </c>
-      <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B314" s="4">
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B318" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C314" s="44" t="s">
+      <c r="C318" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D314" s="30" t="str">
+      <c r="D318" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Northeast</v>
       </c>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B315" s="4">
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B319" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C315" s="44" t="s">
+      <c r="C319" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D315" s="30" t="str">
+      <c r="D319" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>NorthernPlains</v>
       </c>
-      <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B316" s="4">
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B320" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C316" s="44" t="s">
+      <c r="C320" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D316" s="30" t="str">
+      <c r="D320" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Northwest</v>
       </c>
-      <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B317" s="4">
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B321" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
-      <c r="C317" s="44" t="s">
+      <c r="C321" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D317" s="30" t="str">
+      <c r="D321" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Southeast</v>
       </c>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B318" s="4">
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B322" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
-      <c r="C318" s="44" t="s">
+      <c r="C322" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D318" s="30" t="str">
+      <c r="D322" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>SouthernPlains</v>
       </c>
-      <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B319" s="4">
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B323" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
-      <c r="C319" s="44" t="s">
+      <c r="C323" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D319" s="30" t="str">
+      <c r="D323" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
         <v>Southwest</v>
       </c>
-      <c r="E319" s="2"/>
-    </row>
-    <row r="322" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A322" s="16"/>
-      <c r="B322" s="17" t="s">
+      <c r="E323" s="2"/>
+    </row>
+    <row r="326" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="16"/>
+      <c r="B326" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C322" s="17"/>
-      <c r="D322" s="17"/>
-      <c r="E322" s="17"/>
-      <c r="F322" s="17"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="17"/>
-      <c r="I322" s="17"/>
-      <c r="J322" s="17"/>
-      <c r="K322" s="17"/>
-      <c r="L322" s="17"/>
-      <c r="M322" s="17"/>
-      <c r="N322" s="17"/>
-      <c r="O322" s="17"/>
-      <c r="P322" s="17"/>
-      <c r="Q322" s="17"/>
-      <c r="R322" s="17"/>
-      <c r="S322" s="17"/>
-      <c r="T322" s="17"/>
-      <c r="U322" s="17"/>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B324" s="2" t="s">
+      <c r="C326" s="17"/>
+      <c r="D326" s="17"/>
+      <c r="E326" s="17"/>
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+      <c r="L326" s="17"/>
+      <c r="M326" s="17"/>
+      <c r="N326" s="17"/>
+      <c r="O326" s="17"/>
+      <c r="P326" s="17"/>
+      <c r="Q326" s="17"/>
+      <c r="R326" s="17"/>
+      <c r="S326" s="17"/>
+      <c r="T326" s="17"/>
+      <c r="U326" s="17"/>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B328" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C328" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D328" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E324" s="2" t="s">
+      <c r="E328" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F324" s="9" t="s">
+      <c r="F328" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B325" s="2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B329" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C325" s="82" t="s">
+      <c r="C329" s="82" t="s">
         <v>445</v>
       </c>
-      <c r="D325" s="82" t="s">
+      <c r="D329" s="82" t="s">
         <v>446</v>
       </c>
-      <c r="E325" s="82" t="s">
+      <c r="E329" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F325" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B326" s="2">
+      <c r="F329" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B330" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C326" s="82" t="s">
+      <c r="C330" s="82" t="s">
         <v>447</v>
       </c>
-      <c r="D326" s="82" t="s">
+      <c r="D330" s="82" t="s">
         <v>448</v>
       </c>
-      <c r="E326" s="82" t="s">
+      <c r="E330" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F326" s="83">
+      <c r="F330" s="83">
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B327" s="2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B331" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C327" s="82" t="s">
+      <c r="C331" s="82" t="s">
         <v>449</v>
       </c>
-      <c r="D327" s="82" t="s">
+      <c r="D331" s="82" t="s">
         <v>450</v>
       </c>
-      <c r="E327" s="82" t="s">
+      <c r="E331" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F327" s="83">
+      <c r="F331" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B328" s="2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B332" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C328" s="82" t="s">
+      <c r="C332" s="82" t="s">
         <v>451</v>
       </c>
-      <c r="D328" s="82" t="s">
+      <c r="D332" s="82" t="s">
         <v>452</v>
       </c>
-      <c r="E328" s="82" t="s">
+      <c r="E332" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F328" s="83">
+      <c r="F332" s="83">
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B329" s="2">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B333" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
-      <c r="C329" s="82" t="s">
+      <c r="C333" s="82" t="s">
         <v>453</v>
       </c>
-      <c r="D329" s="82" t="s">
+      <c r="D333" s="82" t="s">
         <v>454</v>
       </c>
-      <c r="E329" s="82" t="s">
+      <c r="E333" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F329" s="83">
+      <c r="F333" s="83">
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B330" s="2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B334" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
-      <c r="C330" s="82" t="s">
+      <c r="C334" s="82" t="s">
         <v>455</v>
       </c>
-      <c r="D330" s="82" t="s">
+      <c r="D334" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="E330" s="82" t="s">
+      <c r="E334" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F330" s="83">
+      <c r="F334" s="83">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B331" s="2">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B335" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
-      <c r="C331" s="82" t="s">
+      <c r="C335" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="D331" s="82" t="s">
+      <c r="D335" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="E331" s="82" t="s">
+      <c r="E335" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F331" s="83">
+      <c r="F335" s="83">
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B332" s="2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B336" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
-      <c r="C332" s="82" t="s">
+      <c r="C336" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="D332" s="82" t="s">
+      <c r="D336" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="E332" s="82" t="s">
+      <c r="E336" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F332" s="83">
+      <c r="F336" s="83">
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B333" s="2">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B337" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
-      <c r="C333" s="82" t="s">
+      <c r="C337" s="82" t="s">
         <v>461</v>
       </c>
-      <c r="D333" s="82" t="s">
+      <c r="D337" s="82" t="s">
         <v>462</v>
       </c>
-      <c r="E333" s="82" t="s">
+      <c r="E337" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F333" s="83">
+      <c r="F337" s="83">
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B334" s="2">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B338" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>10</v>
       </c>
-      <c r="C334" s="82" t="s">
+      <c r="C338" s="82" t="s">
         <v>463</v>
       </c>
-      <c r="D334" s="82" t="s">
+      <c r="D338" s="82" t="s">
         <v>464</v>
       </c>
-      <c r="E334" s="82" t="s">
+      <c r="E338" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F334" s="83">
+      <c r="F338" s="83">
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B335" s="2">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B339" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
-      <c r="C335" s="82" t="s">
+      <c r="C339" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="D335" s="82" t="s">
+      <c r="D339" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E335" s="82" t="s">
+      <c r="E339" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F335" s="83">
+      <c r="F339" s="83">
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B336" s="2">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B340" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
-      <c r="C336" s="82" t="s">
+      <c r="C340" s="82" t="s">
         <v>466</v>
       </c>
-      <c r="D336" s="82" t="s">
+      <c r="D340" s="82" t="s">
         <v>467</v>
       </c>
-      <c r="E336" s="82" t="s">
+      <c r="E340" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F336" s="83">
+      <c r="F340" s="83">
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B337" s="2">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B341" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
-      <c r="C337" s="82" t="s">
+      <c r="C341" s="82" t="s">
         <v>468</v>
       </c>
-      <c r="D337" s="82" t="s">
+      <c r="D341" s="82" t="s">
         <v>469</v>
       </c>
-      <c r="E337" s="82" t="s">
+      <c r="E341" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F337" s="83">
+      <c r="F341" s="83">
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B338" s="2">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B342" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
-      <c r="C338" s="82" t="s">
+      <c r="C342" s="82" t="s">
         <v>470</v>
       </c>
-      <c r="D338" s="82" t="s">
+      <c r="D342" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="E338" s="82" t="s">
+      <c r="E342" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F338" s="83">
+      <c r="F342" s="83">
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B339" s="2">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B343" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
-      <c r="C339" s="82" t="s">
+      <c r="C343" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="D339" s="82" t="s">
+      <c r="D343" s="82" t="s">
         <v>473</v>
       </c>
-      <c r="E339" s="82" t="s">
+      <c r="E343" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F339" s="83">
+      <c r="F343" s="83">
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B340" s="2">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B344" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
-      <c r="C340" s="82" t="s">
+      <c r="C344" s="82" t="s">
         <v>474</v>
       </c>
-      <c r="D340" s="82" t="s">
+      <c r="D344" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="E340" s="82" t="s">
+      <c r="E344" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F340" s="83">
+      <c r="F344" s="83">
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B341" s="2">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B345" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
-      <c r="C341" s="82" t="s">
+      <c r="C345" s="82" t="s">
         <v>476</v>
       </c>
-      <c r="D341" s="82" t="s">
+      <c r="D345" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="E341" s="82" t="s">
+      <c r="E345" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F341" s="83">
+      <c r="F345" s="83">
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B342" s="2">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B346" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
-      <c r="C342" s="82" t="s">
+      <c r="C346" s="82" t="s">
         <v>478</v>
       </c>
-      <c r="D342" s="82" t="s">
+      <c r="D346" s="82" t="s">
         <v>479</v>
       </c>
-      <c r="E342" s="82" t="s">
+      <c r="E346" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F342" s="83">
+      <c r="F346" s="83">
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B343" s="2">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B347" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
-      <c r="C343" s="82" t="s">
+      <c r="C347" s="82" t="s">
         <v>480</v>
       </c>
-      <c r="D343" s="82" t="s">
+      <c r="D347" s="82" t="s">
         <v>481</v>
       </c>
-      <c r="E343" s="82" t="s">
+      <c r="E347" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F343" s="83">
+      <c r="F347" s="83">
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B344" s="2">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B348" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
-      <c r="C344" s="82" t="s">
+      <c r="C348" s="82" t="s">
         <v>482</v>
       </c>
-      <c r="D344" s="82" t="s">
+      <c r="D348" s="82" t="s">
         <v>483</v>
       </c>
-      <c r="E344" s="82" t="s">
+      <c r="E348" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F344" s="83">
+      <c r="F348" s="83">
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B345" s="2">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B349" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
-      <c r="C345" s="82" t="s">
+      <c r="C349" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="D345" s="82" t="s">
+      <c r="D349" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="E345" s="82" t="s">
+      <c r="E349" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F345" s="83">
+      <c r="F349" s="83">
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B346" s="2">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B350" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C346" s="82" t="s">
+      <c r="C350" s="82" t="s">
         <v>486</v>
       </c>
-      <c r="D346" s="82" t="s">
+      <c r="D350" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="E346" s="82" t="s">
+      <c r="E350" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F346" s="83">
+      <c r="F350" s="83">
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B347" s="2">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B351" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
-      <c r="C347" s="82" t="s">
+      <c r="C351" s="82" t="s">
         <v>488</v>
       </c>
-      <c r="D347" s="82" t="s">
+      <c r="D351" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="E347" s="82" t="s">
+      <c r="E351" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F347" s="83">
+      <c r="F351" s="83">
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B348" s="2">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B352" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>24</v>
       </c>
-      <c r="C348" s="82" t="s">
+      <c r="C352" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="D348" s="82" t="s">
+      <c r="D352" s="82" t="s">
         <v>491</v>
       </c>
-      <c r="E348" s="82" t="s">
+      <c r="E352" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F348" s="83">
+      <c r="F352" s="83">
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B349" s="2">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>25</v>
       </c>
-      <c r="C349" s="82" t="s">
+      <c r="C353" s="82" t="s">
         <v>492</v>
       </c>
-      <c r="D349" s="82" t="s">
+      <c r="D353" s="82" t="s">
         <v>493</v>
       </c>
-      <c r="E349" s="82" t="s">
+      <c r="E353" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F349" s="83">
+      <c r="F353" s="83">
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B350" s="2">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>26</v>
       </c>
-      <c r="C350" s="82" t="s">
+      <c r="C354" s="82" t="s">
         <v>494</v>
       </c>
-      <c r="D350" s="82" t="s">
+      <c r="D354" s="82" t="s">
         <v>495</v>
       </c>
-      <c r="E350" s="82" t="s">
+      <c r="E354" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F350" s="83">
+      <c r="F354" s="83">
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B351" s="2">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
-      <c r="C351" s="82" t="s">
+      <c r="C355" s="82" t="s">
         <v>496</v>
       </c>
-      <c r="D351" s="82" t="s">
+      <c r="D355" s="82" t="s">
         <v>497</v>
       </c>
-      <c r="E351" s="82" t="s">
+      <c r="E355" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F351" s="83">
+      <c r="F355" s="83">
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B352" s="2">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
-      <c r="C352" s="82" t="s">
+      <c r="C356" s="82" t="s">
         <v>498</v>
       </c>
-      <c r="D352" s="82" t="s">
+      <c r="D356" s="82" t="s">
         <v>499</v>
       </c>
-      <c r="E352" s="82" t="s">
+      <c r="E356" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F352" s="83">
+      <c r="F356" s="83">
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B353" s="2">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
-      <c r="C353" s="82" t="s">
+      <c r="C357" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="D353" s="82" t="s">
+      <c r="D357" s="82" t="s">
         <v>501</v>
       </c>
-      <c r="E353" s="82" t="s">
+      <c r="E357" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F353" s="83">
+      <c r="F357" s="83">
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B354" s="2">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
-      <c r="C354" s="82" t="s">
+      <c r="C358" s="82" t="s">
         <v>502</v>
       </c>
-      <c r="D354" s="82" t="s">
+      <c r="D358" s="82" t="s">
         <v>503</v>
       </c>
-      <c r="E354" s="82" t="s">
+      <c r="E358" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F354" s="83">
+      <c r="F358" s="83">
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B355" s="2">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
-      <c r="C355" s="82" t="s">
+      <c r="C359" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D355" s="82" t="s">
+      <c r="D359" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="E355" s="82" t="s">
+      <c r="E359" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F355" s="83">
+      <c r="F359" s="83">
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B356" s="2">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>32</v>
       </c>
-      <c r="C356" s="82" t="s">
+      <c r="C360" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="D356" s="82" t="s">
+      <c r="D360" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="E356" s="82" t="s">
+      <c r="E360" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F356" s="83">
+      <c r="F360" s="83">
         <v>37</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B357" s="2">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
-      <c r="C357" s="82" t="s">
+      <c r="C361" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="D357" s="82" t="s">
+      <c r="D361" s="82" t="s">
         <v>509</v>
       </c>
-      <c r="E357" s="82" t="s">
+      <c r="E361" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F357" s="83">
+      <c r="F361" s="83">
         <v>38</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B358" s="2">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
-      <c r="C358" s="82" t="s">
+      <c r="C362" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="D358" s="82" t="s">
+      <c r="D362" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="E358" s="82" t="s">
+      <c r="E362" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F358" s="83">
+      <c r="F362" s="83">
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B359" s="2">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
-      <c r="C359" s="82" t="s">
+      <c r="C363" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="D359" s="82" t="s">
+      <c r="D363" s="82" t="s">
         <v>513</v>
       </c>
-      <c r="E359" s="82" t="s">
+      <c r="E363" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F359" s="83">
+      <c r="F363" s="83">
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B360" s="2">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
-      <c r="C360" s="82" t="s">
+      <c r="C364" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="D360" s="82" t="s">
+      <c r="D364" s="82" t="s">
         <v>515</v>
       </c>
-      <c r="E360" s="82" t="s">
+      <c r="E364" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F360" s="83">
+      <c r="F364" s="83">
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B361" s="2">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
-      <c r="C361" s="82" t="s">
+      <c r="C365" s="82" t="s">
         <v>516</v>
       </c>
-      <c r="D361" s="82" t="s">
+      <c r="D365" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="E361" s="82" t="s">
+      <c r="E365" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F361" s="83">
+      <c r="F365" s="83">
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B362" s="2">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
-      <c r="C362" s="82" t="s">
+      <c r="C366" s="82" t="s">
         <v>518</v>
       </c>
-      <c r="D362" s="82" t="s">
+      <c r="D366" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="E362" s="82" t="s">
+      <c r="E366" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F362" s="83">
+      <c r="F366" s="83">
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B363" s="2">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
-      <c r="C363" s="82" t="s">
+      <c r="C367" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="D363" s="82" t="s">
+      <c r="D367" s="82" t="s">
         <v>521</v>
       </c>
-      <c r="E363" s="82" t="s">
+      <c r="E367" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F363" s="83">
+      <c r="F367" s="83">
         <v>45</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B364" s="2">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
-      <c r="C364" s="82" t="s">
+      <c r="C368" s="82" t="s">
         <v>522</v>
       </c>
-      <c r="D364" s="82" t="s">
+      <c r="D368" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="E364" s="82" t="s">
+      <c r="E368" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F364" s="83">
+      <c r="F368" s="83">
         <v>46</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B365" s="2">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>41</v>
       </c>
-      <c r="C365" s="82" t="s">
+      <c r="C369" s="82" t="s">
         <v>524</v>
       </c>
-      <c r="D365" s="82" t="s">
+      <c r="D369" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="E365" s="82" t="s">
+      <c r="E369" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F365" s="83">
+      <c r="F369" s="83">
         <v>47</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B366" s="2">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>42</v>
       </c>
-      <c r="C366" s="82" t="s">
+      <c r="C370" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="D366" s="82" t="s">
+      <c r="D370" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="E366" s="82" t="s">
+      <c r="E370" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F366" s="83">
+      <c r="F370" s="83">
         <v>48</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B367" s="2">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>43</v>
       </c>
-      <c r="C367" s="82" t="s">
+      <c r="C371" s="82" t="s">
         <v>528</v>
       </c>
-      <c r="D367" s="82" t="s">
+      <c r="D371" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="E367" s="82" t="s">
+      <c r="E371" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F367" s="83">
+      <c r="F371" s="83">
         <v>49</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B368" s="2">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>44</v>
       </c>
-      <c r="C368" s="82" t="s">
+      <c r="C372" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="D368" s="82" t="s">
+      <c r="D372" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="E368" s="82" t="s">
+      <c r="E372" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F368" s="83">
+      <c r="F372" s="83">
         <v>50</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B369" s="2">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>45</v>
       </c>
-      <c r="C369" s="82" t="s">
+      <c r="C373" s="82" t="s">
         <v>532</v>
       </c>
-      <c r="D369" s="82" t="s">
+      <c r="D373" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="E369" s="82" t="s">
+      <c r="E373" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F369" s="83">
+      <c r="F373" s="83">
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B370" s="2">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>46</v>
       </c>
-      <c r="C370" s="82" t="s">
+      <c r="C374" s="82" t="s">
         <v>534</v>
       </c>
-      <c r="D370" s="82" t="s">
+      <c r="D374" s="82" t="s">
         <v>535</v>
       </c>
-      <c r="E370" s="82" t="s">
+      <c r="E374" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F370" s="83">
+      <c r="F374" s="83">
         <v>53</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B371" s="2">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>47</v>
       </c>
-      <c r="C371" s="82" t="s">
+      <c r="C375" s="82" t="s">
         <v>536</v>
       </c>
-      <c r="D371" s="82" t="s">
+      <c r="D375" s="82" t="s">
         <v>537</v>
       </c>
-      <c r="E371" s="82" t="s">
+      <c r="E375" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F371" s="83">
+      <c r="F375" s="83">
         <v>54</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B372" s="2">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>48</v>
       </c>
-      <c r="C372" s="82" t="s">
+      <c r="C376" s="82" t="s">
         <v>538</v>
       </c>
-      <c r="D372" s="82" t="s">
+      <c r="D376" s="82" t="s">
         <v>539</v>
       </c>
-      <c r="E372" s="82" t="s">
+      <c r="E376" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F372" s="83">
+      <c r="F376" s="83">
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B373" s="2">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
-      <c r="C373" s="82" t="s">
+      <c r="C377" s="82" t="s">
         <v>540</v>
       </c>
-      <c r="D373" s="82" t="s">
+      <c r="D377" s="82" t="s">
         <v>541</v>
       </c>
-      <c r="E373" s="82" t="s">
+      <c r="E377" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F373" s="83">
+      <c r="F377" s="83">
         <v>56</v>
       </c>
     </row>
@@ -20323,20 +20516,21 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="61" t="s">
         <v>123</v>
       </c>
@@ -20353,7 +20547,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20371,7 +20565,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20389,12 +20583,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>123</v>
       </c>
@@ -20408,7 +20602,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20423,7 +20617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20438,7 +20632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20453,7 +20647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20468,7 +20662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20483,7 +20677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20517,16 +20711,17 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -20534,10 +20729,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
@@ -20551,7 +20746,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20566,7 +20761,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20581,7 +20776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20596,7 +20791,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20611,7 +20806,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20626,7 +20821,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20641,7 +20836,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20656,7 +20851,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20671,7 +20866,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20686,7 +20881,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20701,7 +20896,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20716,7 +20911,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20731,7 +20926,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20746,7 +20941,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20761,7 +20956,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -20776,7 +20971,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -20791,7 +20986,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -20806,7 +21001,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -20821,7 +21016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -20836,7 +21031,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -20851,7 +21046,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -20866,7 +21061,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -20881,7 +21076,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -20896,7 +21091,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -20911,7 +21106,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -20945,10 +21140,11 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -20977,7 +21173,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21007,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21037,7 +21233,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21067,7 +21263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21097,7 +21293,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21127,7 +21323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21157,7 +21353,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21187,7 +21383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21217,7 +21413,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21247,7 +21443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21277,7 +21473,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21307,7 +21503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21337,7 +21533,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -21367,7 +21563,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -21397,7 +21593,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -21427,7 +21623,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -21457,7 +21653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -21487,7 +21683,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -21517,7 +21713,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -21547,7 +21743,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -21577,7 +21773,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -21607,7 +21803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -21637,7 +21833,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -21667,7 +21863,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -21697,7 +21893,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -21727,7 +21923,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -21757,7 +21953,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -21787,7 +21983,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -21817,7 +22013,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -21847,7 +22043,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -21877,7 +22073,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -21907,7 +22103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -21937,7 +22133,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -21967,7 +22163,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -21997,7 +22193,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -22027,7 +22223,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -22057,7 +22253,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -22087,7 +22283,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -22117,7 +22313,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -22147,7 +22343,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -22177,7 +22373,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -22207,7 +22403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -22237,7 +22433,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -22267,7 +22463,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -22297,7 +22493,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -22327,7 +22523,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -22357,7 +22553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -22387,7 +22583,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -22417,7 +22613,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -22447,7 +22643,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -22477,7 +22673,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -22507,7 +22703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -22537,7 +22733,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -22567,7 +22763,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -22597,7 +22793,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -22627,7 +22823,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -22657,7 +22853,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -22687,7 +22883,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -22717,7 +22913,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -22747,7 +22943,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -22777,7 +22973,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -22807,7 +23003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -22837,7 +23033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -22867,7 +23063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -22897,7 +23093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -22927,7 +23123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -22957,7 +23153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -22987,7 +23183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -23017,7 +23213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -23047,7 +23243,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -23077,7 +23273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -23107,7 +23303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -23137,7 +23333,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -23167,7 +23363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -23197,7 +23393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -23227,7 +23423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -23257,7 +23453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -23287,7 +23483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -23317,7 +23513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -23347,7 +23543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -23377,7 +23573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -23407,7 +23603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -23437,7 +23633,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -23467,7 +23663,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -23497,7 +23693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -23527,7 +23723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -23557,7 +23753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -23587,7 +23783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -23617,7 +23813,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -23647,7 +23843,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -23677,7 +23873,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -23707,7 +23903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -23737,7 +23933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -23767,7 +23963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -23797,7 +23993,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -23827,7 +24023,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -23857,7 +24053,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -23887,7 +24083,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -23917,7 +24113,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -23947,7 +24143,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -23977,7 +24173,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49105110-3F68-4313-8FF0-662AC0713716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A8252-0CE0-4B4B-BEAB-968269F5FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15960" yWindow="-28920" windowWidth="16440" windowHeight="28320" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="15960" yWindow="-28920" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{3F9B2699-D2DB-4BEA-A3D8-EDA1A2F4B1B3}"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="677">
   <si>
     <t>CanESM2</t>
   </si>
@@ -8044,14 +8044,13 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B270:K277" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B270:J277" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{2FAB7D52-165C-4E12-A43C-69094A200E03}" name="impactType_label"/>
-    <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType_id"/>
+    <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType"/>
     <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
@@ -9736,11 +9735,11 @@
       </c>
       <c r="K17" s="31" cm="1">
         <f t="array" aca="1" ref="K17" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="47" t="s">
@@ -9770,7 +9769,7 @@
       <selection pane="topRight" activeCell="B271" sqref="B271:B277"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="1">
-      <selection activeCell="C271" sqref="C271"/>
+      <selection activeCell="D271" sqref="D270:D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -18522,28 +18521,25 @@
       <c r="C270" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D270" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E270" s="30" t="s">
-        <v>212</v>
+      <c r="D270" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E270" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F270" s="29" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G270" s="29" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="H270" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I270" s="29" t="s">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="J270" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="K270" s="29" t="s">
         <v>549</v>
       </c>
     </row>
@@ -18555,28 +18551,25 @@
       <c r="C271" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D271" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E271" s="47" t="s">
+      <c r="D271" s="47" t="s">
         <v>207</v>
       </c>
+      <c r="E271" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="F271" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G271" s="44" t="s">
         <v>92</v>
       </c>
+      <c r="G271" s="44">
+        <v>1</v>
+      </c>
       <c r="H271" s="44">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I271" s="44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J271" s="44">
-        <v>0</v>
-      </c>
-      <c r="K271" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18588,28 +18581,25 @@
       <c r="C272" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D272" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E272" s="47" t="s">
+      <c r="D272" s="47" t="s">
         <v>207</v>
       </c>
+      <c r="E272" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="F272" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G272" s="44" t="s">
         <v>187</v>
       </c>
+      <c r="G272" s="44">
+        <v>0.16250000000000001</v>
+      </c>
       <c r="H272" s="44">
-        <v>0.16250000000000001</v>
+        <v>1</v>
       </c>
       <c r="I272" s="44">
-        <v>1</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="J272" s="44">
-        <v>0.83750000000000002</v>
-      </c>
-      <c r="K272" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18621,28 +18611,25 @@
       <c r="C273" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="D273" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="E273" s="47" t="s">
+      <c r="D273" s="47" t="s">
         <v>603</v>
+      </c>
+      <c r="E273" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F273" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G273" s="44" t="s">
-        <v>91</v>
+      <c r="G273" s="44">
+        <v>0</v>
       </c>
       <c r="H273" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" s="44">
-        <v>0</v>
-      </c>
-      <c r="K273" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18654,28 +18641,25 @@
       <c r="C274" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="D274" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="E274" s="47" t="s">
+      <c r="D274" s="47" t="s">
         <v>604</v>
+      </c>
+      <c r="E274" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F274" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G274" s="44" t="s">
-        <v>91</v>
+      <c r="G274" s="44">
+        <v>0</v>
       </c>
       <c r="H274" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" s="44">
-        <v>0</v>
-      </c>
-      <c r="K274" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18687,28 +18671,25 @@
       <c r="C275" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="D275" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="E275" s="47" t="s">
+      <c r="D275" s="47" t="s">
         <v>605</v>
+      </c>
+      <c r="E275" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F275" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G275" s="44" t="s">
-        <v>91</v>
+      <c r="G275" s="44">
+        <v>0</v>
       </c>
       <c r="H275" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" s="44">
-        <v>0</v>
-      </c>
-      <c r="K275" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18720,28 +18701,25 @@
       <c r="C276" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="D276" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="E276" s="47" t="s">
+      <c r="D276" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="F276" s="44" t="s">
+      <c r="E276" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G276" s="86" t="s">
+      <c r="F276" s="86" t="s">
         <v>91</v>
       </c>
+      <c r="G276" s="44">
+        <v>0</v>
+      </c>
       <c r="H276" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" s="44">
         <v>1</v>
       </c>
       <c r="J276" s="44">
-        <v>1</v>
-      </c>
-      <c r="K276" s="44">
         <v>2100</v>
       </c>
     </row>
@@ -18753,28 +18731,25 @@
       <c r="C277" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="D277" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="E277" s="47" t="s">
+      <c r="D277" s="47" t="s">
         <v>607</v>
+      </c>
+      <c r="E277" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F277" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G277" s="44" t="s">
-        <v>91</v>
+      <c r="G277" s="44">
+        <v>0</v>
       </c>
       <c r="H277" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" s="44">
         <v>1</v>
       </c>
       <c r="J277" s="44">
-        <v>1</v>
-      </c>
-      <c r="K277" s="44">
         <v>2100</v>
       </c>
     </row>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEFA8E-9F55-4DA8-91B3-AEBFC26C4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555867D-D457-4C3A-928A-2B1834CCDC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="689">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2372,6 +2372,9 @@
   </si>
   <si>
     <t>A.C. purchase and O&amp;M costs to school system</t>
+  </si>
+  <si>
+    <t>gdp_percap_val</t>
   </si>
 </sst>
 </file>
@@ -3206,7 +3209,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3450,63 +3453,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9823,9 +9769,9 @@
   </sheetPr>
   <dimension ref="A1:U384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10922,62 +10868,62 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="91">
+      <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="75" t="s">
         <v>677</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="E35" s="94">
-        <v>1</v>
-      </c>
-      <c r="F35" s="95" t="s">
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="96" t="str" cm="1">
+      <c r="G35" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</f>
         <v>No Adaptation, Proactive Adaptation</v>
       </c>
-      <c r="H35" s="96" t="str">
+      <c r="H35" s="88" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
         <v>NA</v>
       </c>
-      <c r="I35" s="96" t="str" cm="1">
+      <c r="I35" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
         <v>Lost Future Earnings, Adaptation Costs</v>
       </c>
-      <c r="J35" s="97">
+      <c r="J35" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="98" t="b" cm="1">
+      <c r="K35" s="90" t="b" cm="1">
         <f t="array" ref="K35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[physicalmeasure] = "N/A", 0, 1) ) &gt;= 1</f>
         <v>0</v>
       </c>
-      <c r="L35" s="98" t="b" cm="1">
+      <c r="L35" s="90" t="b" cm="1">
         <f t="array" ref="L35" xml:space="preserve"> OR( SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c0] &lt;&gt; 0, 1, 0) ) &gt;= 1,
       SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c1] &lt;&gt; 0, 1, 0) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
-      <c r="M35" s="96" cm="1">
+      <c r="M35" s="88" cm="1">
         <f t="array" ref="M35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
         <v>2</v>
       </c>
-      <c r="N35" s="96" cm="1">
+      <c r="N35" s="88" cm="1">
         <f t="array" ref="N35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
         <v>2</v>
       </c>
-      <c r="O35" s="96" cm="1">
+      <c r="O35" s="88" cm="1">
         <f t="array" ref="O35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>1</v>
       </c>
@@ -12249,18 +12195,18 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="99">
+      <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D70" s="100" t="s">
+      <c r="D70" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="100"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
@@ -13586,7 +13532,7 @@
       <c r="M120"/>
     </row>
     <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B121" s="99">
+      <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
@@ -13599,18 +13545,18 @@
       <c r="E121" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F121" s="102">
-        <v>1</v>
-      </c>
-      <c r="G121" s="102">
-        <v>1</v>
-      </c>
-      <c r="H121" s="103" t="str">
+      <c r="F121" s="60">
+        <v>1</v>
+      </c>
+      <c r="G121" s="60">
+        <v>1</v>
+      </c>
+      <c r="H121" s="46" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I121" s="104" cm="1">
+      <c r="I121" s="34" cm="1">
         <f t="array" ref="I121" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -13620,7 +13566,7 @@
       <c r="M121"/>
     </row>
     <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B122" s="99">
+      <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
@@ -13633,18 +13579,18 @@
       <c r="E122" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="F122" s="102">
-        <v>0</v>
-      </c>
-      <c r="G122" s="102">
-        <v>0</v>
-      </c>
-      <c r="H122" s="103" t="str">
+      <c r="F122" s="60">
+        <v>0</v>
+      </c>
+      <c r="G122" s="60">
+        <v>0</v>
+      </c>
+      <c r="H122" s="46" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I122" s="104" cm="1">
+      <c r="I122" s="34" cm="1">
         <f t="array" ref="I122" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -15394,7 +15340,7 @@
         <v>668</v>
       </c>
       <c r="K168" s="28" t="s">
-        <v>92</v>
+        <v>688</v>
       </c>
       <c r="L168" s="28" t="s">
         <v>91</v>
@@ -15561,11 +15507,11 @@
       </c>
     </row>
     <row r="172" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="99">
+      <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
-      <c r="C172" s="105" t="s">
+      <c r="C172" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D172" s="28" t="s">
@@ -15592,7 +15538,7 @@
       <c r="K172" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L172" s="106" t="s">
+      <c r="L172" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M172" s="27">
@@ -15604,17 +15550,17 @@
       <c r="O172" s="27">
         <v>1</v>
       </c>
-      <c r="P172" s="107" t="str">
+      <c r="P172" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="173" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="99">
+      <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C173" s="105" t="s">
+      <c r="C173" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D173" s="28" t="s">
@@ -15641,7 +15587,7 @@
       <c r="K173" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L173" s="106" t="s">
+      <c r="L173" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M173" s="27">
@@ -15653,7 +15599,7 @@
       <c r="O173" s="27">
         <v>1</v>
       </c>
-      <c r="P173" s="107" t="str">
+      <c r="P173" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
@@ -17786,7 +17732,7 @@
         <v>12</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>92</v>
+        <v>688</v>
       </c>
       <c r="D225" s="26" t="s">
         <v>674</v>
@@ -18492,7 +18438,7 @@
       <c r="J249" s="65"/>
     </row>
     <row r="250" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B250" s="108">
+      <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
@@ -18514,7 +18460,7 @@
       <c r="H250" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="I250" s="109" t="s">
+      <c r="I250" s="48" t="s">
         <v>191</v>
       </c>
       <c r="J250" s="65"/>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEFA8E-9F55-4DA8-91B3-AEBFC26C4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009DFE7-AA34-48FF-9CBB-4B33C5E08086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3206,7 +3206,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3452,61 +3452,7 @@
     <xf numFmtId="0" fontId="17" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9823,9 +9769,9 @@
   </sheetPr>
   <dimension ref="A1:U384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="K280" sqref="K280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10922,62 +10868,62 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="91">
+      <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="75" t="s">
         <v>677</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="E35" s="94">
-        <v>1</v>
-      </c>
-      <c r="F35" s="95" t="s">
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="96" t="str" cm="1">
+      <c r="G35" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</f>
         <v>No Adaptation, Proactive Adaptation</v>
       </c>
-      <c r="H35" s="96" t="str">
+      <c r="H35" s="88" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
         <v>NA</v>
       </c>
-      <c r="I35" s="96" t="str" cm="1">
+      <c r="I35" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
         <v>Lost Future Earnings, Adaptation Costs</v>
       </c>
-      <c r="J35" s="97">
+      <c r="J35" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="98" t="b" cm="1">
+      <c r="K35" s="90" t="b" cm="1">
         <f t="array" ref="K35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[physicalmeasure] = "N/A", 0, 1) ) &gt;= 1</f>
         <v>0</v>
       </c>
-      <c r="L35" s="98" t="b" cm="1">
+      <c r="L35" s="90" t="b" cm="1">
         <f t="array" ref="L35" xml:space="preserve"> OR( SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c0] &lt;&gt; 0, 1, 0) ) &gt;= 1,
       SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c1] &lt;&gt; 0, 1, 0) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
-      <c r="M35" s="96" cm="1">
+      <c r="M35" s="91" cm="1">
         <f t="array" ref="M35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</f>
         <v>2</v>
       </c>
-      <c r="N35" s="96" cm="1">
+      <c r="N35" s="91" cm="1">
         <f t="array" ref="N35" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</f>
         <v>2</v>
       </c>
-      <c r="O35" s="96" cm="1">
+      <c r="O35" s="91" cm="1">
         <f t="array" ref="O35" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
         <v>1</v>
       </c>
@@ -12249,18 +12195,18 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="99">
+      <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D70" s="100" t="s">
+      <c r="D70" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="100"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
@@ -13586,7 +13532,7 @@
       <c r="M120"/>
     </row>
     <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B121" s="99">
+      <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
@@ -13599,18 +13545,18 @@
       <c r="E121" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F121" s="102">
-        <v>1</v>
-      </c>
-      <c r="G121" s="102">
-        <v>1</v>
-      </c>
-      <c r="H121" s="103" t="str">
+      <c r="F121" s="60">
+        <v>1</v>
+      </c>
+      <c r="G121" s="60">
+        <v>1</v>
+      </c>
+      <c r="H121" s="46" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I121" s="104" cm="1">
+      <c r="I121" s="34" cm="1">
         <f t="array" ref="I121" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -13620,7 +13566,7 @@
       <c r="M121"/>
     </row>
     <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B122" s="99">
+      <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
@@ -13633,18 +13579,18 @@
       <c r="E122" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="F122" s="102">
-        <v>0</v>
-      </c>
-      <c r="G122" s="102">
-        <v>0</v>
-      </c>
-      <c r="H122" s="103" t="str">
+      <c r="F122" s="60">
+        <v>0</v>
+      </c>
+      <c r="G122" s="60">
+        <v>0</v>
+      </c>
+      <c r="H122" s="46" t="str">
         <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
         <v>none</v>
       </c>
-      <c r="I122" s="104" cm="1">
+      <c r="I122" s="34" cm="1">
         <f t="array" ref="I122" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
       </c>
@@ -15561,11 +15507,11 @@
       </c>
     </row>
     <row r="172" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="99">
+      <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
-      <c r="C172" s="105" t="s">
+      <c r="C172" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D172" s="28" t="s">
@@ -15592,7 +15538,7 @@
       <c r="K172" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L172" s="106" t="s">
+      <c r="L172" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M172" s="27">
@@ -15604,17 +15550,17 @@
       <c r="O172" s="27">
         <v>1</v>
       </c>
-      <c r="P172" s="107" t="str">
+      <c r="P172" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="173" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="99">
+      <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
-      <c r="C173" s="105" t="s">
+      <c r="C173" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D173" s="28" t="s">
@@ -15641,7 +15587,7 @@
       <c r="K173" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L173" s="106" t="s">
+      <c r="L173" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M173" s="27">
@@ -15653,7 +15599,7 @@
       <c r="O173" s="27">
         <v>1</v>
       </c>
-      <c r="P173" s="107" t="str">
+      <c r="P173" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
@@ -18492,7 +18438,7 @@
       <c r="J249" s="65"/>
     </row>
     <row r="250" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B250" s="108">
+      <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
@@ -18514,7 +18460,7 @@
       <c r="H250" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="I250" s="109" t="s">
+      <c r="I250" s="48" t="s">
         <v>191</v>
       </c>
       <c r="J250" s="65"/>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009DFE7-AA34-48FF-9CBB-4B33C5E08086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50955301-5CD5-4926-8F36-D160D5904EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="0" windowWidth="23475" windowHeight="15480" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -9769,9 +9769,9 @@
   </sheetPr>
   <dimension ref="A1:U384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K280" sqref="K280"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18982,7 +18982,7 @@
         <v>91</v>
       </c>
       <c r="G283" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" s="44">
         <v>1</v>
@@ -19012,7 +19012,7 @@
         <v>91</v>
       </c>
       <c r="G284" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284" s="44">
         <v>1</v>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50955301-5CD5-4926-8F36-D160D5904EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DECCA-37CF-4409-B701-24AE85A2336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="0" windowWidth="23475" windowHeight="15480" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</t>
       </text>
     </comment>
-    <comment ref="J288" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+    <comment ref="J283" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +204,7 @@
     Year when change and impacts are zero</t>
       </text>
     </comment>
-    <comment ref="L288" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+    <comment ref="L283" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +212,7 @@
     Maximum value to extrapolate to, for models that go up to the maximum output value.</t>
       </text>
     </comment>
-    <comment ref="D295" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+    <comment ref="D290" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +220,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J314" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J309" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="688">
   <si>
     <t>CanESM2</t>
   </si>
@@ -8016,7 +8016,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B314:J318" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B309:J313" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8037,8 +8037,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B335:F384" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="B335:F384" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B330:F379" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="B330:F379" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8053,7 +8053,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B277:J284" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B277:J279" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8239,7 +8239,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B288:L290" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B283:L285" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8260,7 +8260,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B323:D330" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B318:D325" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8275,7 +8275,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B295:F309" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B290:F304" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8710,16 +8710,16 @@
   <threadedComment ref="F213" dT="2021-04-02T15:36:58.50" personId="{00000000-0000-0000-0000-000000000000}" id="{EF83C059-A623-47AC-AFC4-40246F6AF9B2}">
     <text>This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</text>
   </threadedComment>
-  <threadedComment ref="J288" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+  <threadedComment ref="J283" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
     <text>Year when change and impacts are zero</text>
   </threadedComment>
-  <threadedComment ref="L288" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+  <threadedComment ref="L283" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
     <text>Maximum value to extrapolate to, for models that go up to the maximum output value.</text>
   </threadedComment>
-  <threadedComment ref="D295" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+  <threadedComment ref="D290" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J314" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J309" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="G10" s="31" cm="1">
         <f t="array" aca="1" ref="G10" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="G12" s="31" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H12" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="I12" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J12" s="31" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9728,11 +9728,11 @@
       </c>
       <c r="H17" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J17" s="31" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9767,11 +9767,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U384"/>
+  <dimension ref="A1:U379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G285" sqref="G285"/>
+      <selection pane="topRight" activeCell="A280" sqref="A280:XFD284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18874,338 +18874,283 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B280" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D280" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="E280" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F280" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G280" s="44">
-        <v>0</v>
-      </c>
-      <c r="H280" s="44">
-        <v>1</v>
-      </c>
-      <c r="I280" s="44">
-        <v>0</v>
-      </c>
-      <c r="J280" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B281" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D281" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="E281" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F281" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G281" s="44">
-        <v>0</v>
-      </c>
-      <c r="H281" s="44">
-        <v>1</v>
-      </c>
-      <c r="I281" s="44">
-        <v>0</v>
-      </c>
-      <c r="J281" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B282" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>5</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D282" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="E282" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F282" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G282" s="44">
-        <v>0</v>
-      </c>
-      <c r="H282" s="44">
-        <v>1</v>
-      </c>
-      <c r="I282" s="44">
-        <v>0</v>
-      </c>
-      <c r="J282" s="44">
-        <v>2100</v>
-      </c>
+    <row r="281" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281" s="16"/>
+      <c r="B281" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C281" s="17"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="17"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+      <c r="M281" s="17"/>
+      <c r="N281" s="17"/>
+      <c r="O281" s="17"/>
+      <c r="P281" s="17"/>
+      <c r="Q281" s="17"/>
+      <c r="R281" s="17"/>
+      <c r="S281" s="17"/>
+      <c r="T281" s="17"/>
+      <c r="U281" s="17"/>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B283" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>6</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D283" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E283" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F283" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G283" s="44">
-        <v>1</v>
-      </c>
-      <c r="H283" s="44">
-        <v>1</v>
-      </c>
-      <c r="I283" s="44">
-        <v>1</v>
-      </c>
-      <c r="J283" s="44">
-        <v>2100</v>
+      <c r="B283" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C283" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D283" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E283" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F283" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G283" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H283" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J283" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K283" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="L283" s="36" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B284" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
+        <v>1</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D284" s="47" t="s">
-        <v>607</v>
-      </c>
-      <c r="E284" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F284" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G284" s="44">
-        <v>1</v>
-      </c>
-      <c r="H284" s="44">
-        <v>1</v>
-      </c>
-      <c r="I284" s="44">
-        <v>1</v>
-      </c>
-      <c r="J284" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="286" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A286" s="16"/>
-      <c r="B286" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="17"/>
-      <c r="I286" s="17"/>
-      <c r="J286" s="17"/>
-      <c r="K286" s="17"/>
-      <c r="L286" s="17"/>
-      <c r="M286" s="17"/>
-      <c r="N286" s="17"/>
-      <c r="O286" s="17"/>
-      <c r="P286" s="17"/>
-      <c r="Q286" s="17"/>
-      <c r="R286" s="17"/>
-      <c r="S286" s="17"/>
-      <c r="T286" s="17"/>
-      <c r="U286" s="17"/>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B288" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C288" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D288" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E288" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F288" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G288" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="H288" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="I288" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="J288" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="K288" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="L288" s="36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B289" s="4">
-        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C289" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D284" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E289" s="41" t="s">
+      <c r="E284" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F289" s="41" t="s">
+      <c r="F284" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G289" s="40" t="s">
+      <c r="G284" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="H289" s="40" t="s">
+      <c r="H284" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="I289" s="42">
-        <v>1</v>
-      </c>
-      <c r="J289" s="42">
+      <c r="I284" s="42">
+        <v>1</v>
+      </c>
+      <c r="J284" s="42">
         <v>1995</v>
       </c>
-      <c r="K289" s="42">
+      <c r="K284" s="42">
         <v>6</v>
       </c>
-      <c r="L289" s="42">
+      <c r="L284" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B290" s="4">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B285" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C285" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D285" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E290" s="41" t="s">
+      <c r="E285" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F290" s="41" t="s">
+      <c r="F285" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="G290" s="40" t="s">
+      <c r="G285" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="H290" s="40" t="s">
+      <c r="H285" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="I290" s="42">
+      <c r="I285" s="42">
         <v>25</v>
       </c>
-      <c r="J290" s="42">
+      <c r="J285" s="42">
         <v>2000</v>
       </c>
-      <c r="K290" s="42">
+      <c r="K285" s="42">
         <v>250</v>
       </c>
-      <c r="L290" s="42">
+      <c r="L285" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="16"/>
-      <c r="B293" s="17" t="s">
+    <row r="288" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288" s="16"/>
+      <c r="B288" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C293" s="17"/>
-      <c r="D293" s="17"/>
-      <c r="E293" s="17"/>
-      <c r="F293" s="17"/>
-      <c r="G293" s="17"/>
-      <c r="H293" s="17"/>
-      <c r="I293" s="17"/>
-      <c r="J293" s="17"/>
-      <c r="K293" s="17"/>
-      <c r="L293" s="17"/>
-      <c r="M293" s="17"/>
-      <c r="N293" s="17"/>
-      <c r="O293" s="17"/>
-      <c r="P293" s="17"/>
-      <c r="Q293" s="17"/>
-      <c r="R293" s="17"/>
-      <c r="S293" s="17"/>
-      <c r="T293" s="17"/>
-      <c r="U293" s="17"/>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B295" s="43" t="s">
+      <c r="C288" s="17"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="17"/>
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="17"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+      <c r="M288" s="17"/>
+      <c r="N288" s="17"/>
+      <c r="O288" s="17"/>
+      <c r="P288" s="17"/>
+      <c r="Q288" s="17"/>
+      <c r="R288" s="17"/>
+      <c r="S288" s="17"/>
+      <c r="T288" s="17"/>
+      <c r="U288" s="17"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B290" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C295" s="29" t="s">
+      <c r="C290" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D295" s="29" t="s">
+      <c r="D290" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E295" s="29" t="s">
+      <c r="E290" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F295" s="30" t="s">
+      <c r="F290" s="30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B291" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C291" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CanESM2</v>
+      </c>
+      <c r="D291" s="44">
+        <v>6</v>
+      </c>
+      <c r="E291" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F291" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B292" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C292" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CCSM4</v>
+      </c>
+      <c r="D292" s="44">
+        <v>5</v>
+      </c>
+      <c r="E292" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F292" s="86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B293" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C293" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>GISSE2R</v>
+      </c>
+      <c r="D293" s="44">
+        <v>3</v>
+      </c>
+      <c r="E293" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F293" s="86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B294" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C294" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>HadGEM2ES</v>
+      </c>
+      <c r="D294" s="44">
+        <v>6</v>
+      </c>
+      <c r="E294" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F294" s="86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B295" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C295" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>MIROC5</v>
+      </c>
+      <c r="D295" s="44">
+        <v>5</v>
+      </c>
+      <c r="E295" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F295" s="86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B296" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C296" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CanESM2</v>
+        <v>GFDLCM3</v>
       </c>
       <c r="D296" s="44">
         <v>6</v>
@@ -19214,150 +19159,150 @@
         <v>161</v>
       </c>
       <c r="F296" s="86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C297" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CCSM4</v>
+        <v>MRICGCM3</v>
       </c>
       <c r="D297" s="44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E297" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F297" s="86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C298" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GISSE2R</v>
+        <v>GCMEnsemble</v>
       </c>
       <c r="D298" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E298" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F298" s="86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C299" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>HadGEM2ES</v>
+        <v>30cm</v>
       </c>
       <c r="D299" s="44">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E299" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F299" s="86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B300" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C300" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MIROC5</v>
+        <v>50cm</v>
       </c>
       <c r="D300" s="44">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E300" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F300" s="86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B301" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C301" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GFDLCM3</v>
+        <v>100cm</v>
       </c>
       <c r="D301" s="44">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E301" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F301" s="86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B302" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C302" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MRICGCM3</v>
+        <v>150cm</v>
       </c>
       <c r="D302" s="44">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="E302" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F302" s="86" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B303" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C303" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GCMEnsemble</v>
+        <v>200cm</v>
       </c>
       <c r="D303" s="44">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E303" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F303" s="86" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B304" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C304" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>30cm</v>
+        <v>250cm</v>
       </c>
       <c r="D304" s="44">
         <v>250</v>
@@ -19366,1332 +19311,1237 @@
         <v>160</v>
       </c>
       <c r="F304" s="86" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B305" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>10</v>
-      </c>
-      <c r="C305" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>50cm</v>
-      </c>
-      <c r="D305" s="44">
-        <v>250</v>
-      </c>
-      <c r="E305" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F305" s="86" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B306" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>11</v>
-      </c>
-      <c r="C306" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>100cm</v>
-      </c>
-      <c r="D306" s="44">
-        <v>250</v>
-      </c>
-      <c r="E306" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F306" s="86" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B307" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>12</v>
-      </c>
-      <c r="C307" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>150cm</v>
-      </c>
-      <c r="D307" s="44">
-        <v>250</v>
-      </c>
-      <c r="E307" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F307" s="86" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B308" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>13</v>
-      </c>
-      <c r="C308" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>200cm</v>
-      </c>
-      <c r="D308" s="44">
-        <v>250</v>
-      </c>
-      <c r="E308" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F308" s="86" t="s">
-        <v>583</v>
-      </c>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="16"/>
+      <c r="B307" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C307" s="17"/>
+      <c r="D307" s="17"/>
+      <c r="E307" s="17"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="17"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
+      <c r="M307" s="17"/>
+      <c r="N307" s="17"/>
+      <c r="O307" s="17"/>
+      <c r="P307" s="17"/>
+      <c r="Q307" s="17"/>
+      <c r="R307" s="17"/>
+      <c r="S307" s="17"/>
+      <c r="T307" s="17"/>
+      <c r="U307" s="17"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B309" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>14</v>
-      </c>
-      <c r="C309" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>250cm</v>
-      </c>
-      <c r="D309" s="44">
-        <v>250</v>
-      </c>
-      <c r="E309" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F309" s="86" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="312" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C312" s="17"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="17"/>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="17"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="17"/>
-      <c r="K312" s="17"/>
-      <c r="L312" s="17"/>
-      <c r="M312" s="17"/>
-      <c r="N312" s="17"/>
-      <c r="O312" s="17"/>
-      <c r="P312" s="17"/>
-      <c r="Q312" s="17"/>
-      <c r="R312" s="17"/>
-      <c r="S312" s="17"/>
-      <c r="T312" s="17"/>
-      <c r="U312" s="17"/>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B314" s="29" t="s">
+      <c r="B309" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C314" s="29" t="s">
+      <c r="C309" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D314" s="29" t="s">
+      <c r="D309" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E314" s="29" t="s">
+      <c r="E309" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F314" s="31" t="s">
+      <c r="F309" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G314" s="31" t="s">
+      <c r="G309" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="H314" s="31" t="s">
+      <c r="H309" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I314" s="31" t="s">
+      <c r="I309" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="J314" s="31" t="s">
+      <c r="J309" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B315" s="4">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B310" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C310" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D315" s="44" t="s">
+      <c r="D310" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E315" s="44" t="s">
+      <c r="E310" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="F315" s="27" t="s">
+      <c r="F310" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G315" s="27">
-        <v>0</v>
-      </c>
-      <c r="H315" s="27"/>
-      <c r="I315" s="27" t="s">
+      <c r="G310" s="27">
+        <v>0</v>
+      </c>
+      <c r="H310" s="27"/>
+      <c r="I310" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="J315" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B316" s="4">
+      <c r="J310" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B311" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D316" s="44" t="s">
+      <c r="D311" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="E316" s="44" t="s">
+      <c r="E311" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="F316" s="27" t="s">
+      <c r="F311" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G316" s="27">
-        <v>0</v>
-      </c>
-      <c r="H316" s="27"/>
-      <c r="I316" s="27" t="s">
+      <c r="G311" s="27">
+        <v>0</v>
+      </c>
+      <c r="H311" s="27"/>
+      <c r="I311" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="J316" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B317" s="4">
+      <c r="J311" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B312" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D317" s="44" t="s">
+      <c r="D312" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="E317" s="44" t="s">
+      <c r="E312" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F317" s="27" t="s">
+      <c r="F312" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="G317" s="27">
-        <v>0</v>
-      </c>
-      <c r="H317" s="27" t="str">
+      <c r="G312" s="27">
+        <v>0</v>
+      </c>
+      <c r="H312" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I317" s="27" t="s">
+      <c r="I312" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="J317" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B318" s="4">
+      <c r="J312" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C313" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D318" s="44" t="s">
+      <c r="D313" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="E318" s="44" t="s">
+      <c r="E313" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="F318" s="27" t="s">
+      <c r="F313" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="G318" s="27">
-        <v>0</v>
-      </c>
-      <c r="H318" s="27" t="str">
+      <c r="G313" s="27">
+        <v>0</v>
+      </c>
+      <c r="H313" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I318" s="27" t="s">
+      <c r="I313" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="J318" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-      <c r="B321" s="17" t="s">
+      <c r="J313" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="16"/>
+      <c r="B316" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C321" s="17"/>
-      <c r="D321" s="17"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="17"/>
-      <c r="I321" s="17"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="17"/>
-      <c r="L321" s="17"/>
-      <c r="M321" s="17"/>
-      <c r="N321" s="17"/>
-      <c r="O321" s="17"/>
-      <c r="P321" s="17"/>
-      <c r="Q321" s="17"/>
-      <c r="R321" s="17"/>
-      <c r="S321" s="17"/>
-      <c r="T321" s="17"/>
-      <c r="U321" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+      <c r="M316" s="17"/>
+      <c r="N316" s="17"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="17"/>
+      <c r="Q316" s="17"/>
+      <c r="R316" s="17"/>
+      <c r="S316" s="17"/>
+      <c r="T316" s="17"/>
+      <c r="U316" s="17"/>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B318" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D318" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B319" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Midwest</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B320" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Northeast</v>
+      </c>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B321" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C321" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>NorthernPlains</v>
+      </c>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B322" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C322" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Northwest</v>
+      </c>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B323" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C323" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D323" s="30" t="s">
-        <v>598</v>
+      <c r="B323" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C323" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Southeast</v>
       </c>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D324" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Midwest</v>
+        <v>SouthernPlains</v>
       </c>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D325" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northeast</v>
+        <v>Southwest</v>
       </c>
       <c r="E325" s="2"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B326" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+    <row r="328" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328" s="16"/>
+      <c r="B328" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C328" s="17"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17"/>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+      <c r="L328" s="17"/>
+      <c r="M328" s="17"/>
+      <c r="N328" s="17"/>
+      <c r="O328" s="17"/>
+      <c r="P328" s="17"/>
+      <c r="Q328" s="17"/>
+      <c r="R328" s="17"/>
+      <c r="S328" s="17"/>
+      <c r="T328" s="17"/>
+      <c r="U328" s="17"/>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B330" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B331" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C331" s="82" t="s">
+        <v>445</v>
+      </c>
+      <c r="D331" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="E331" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B332" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C332" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="D332" s="82" t="s">
+        <v>448</v>
+      </c>
+      <c r="E332" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B333" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C326" s="44" t="s">
+      <c r="C333" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="D333" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="E333" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B334" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C334" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="D334" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="E334" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F334" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B335" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C335" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="D335" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="E335" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="83">
         <v>8</v>
-      </c>
-      <c r="D326" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>NorthernPlains</v>
-      </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B327" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C327" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D327" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northwest</v>
-      </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B328" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
-      </c>
-      <c r="C328" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D328" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southeast</v>
-      </c>
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B329" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
-      </c>
-      <c r="C329" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D329" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>SouthernPlains</v>
-      </c>
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B330" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
-      </c>
-      <c r="C330" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D330" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southwest</v>
-      </c>
-      <c r="E330" s="2"/>
-    </row>
-    <row r="333" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A333" s="16"/>
-      <c r="B333" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="17"/>
-      <c r="I333" s="17"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="17"/>
-      <c r="L333" s="17"/>
-      <c r="M333" s="17"/>
-      <c r="N333" s="17"/>
-      <c r="O333" s="17"/>
-      <c r="P333" s="17"/>
-      <c r="Q333" s="17"/>
-      <c r="R333" s="17"/>
-      <c r="S333" s="17"/>
-      <c r="T333" s="17"/>
-      <c r="U333" s="17"/>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B335" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F335" s="9" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B336" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C336" s="82" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D336" s="82" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E336" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F336" s="83">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B337" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C337" s="82" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D337" s="82" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E337" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F337" s="83">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B338" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C338" s="82" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D338" s="82" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E338" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F338" s="83">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B339" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C339" s="82" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D339" s="82" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E339" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="83">
         <v>12</v>
-      </c>
-      <c r="F339" s="83">
-        <v>6</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B340" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C340" s="82" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D340" s="82" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E340" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F340" s="83">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B341" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C341" s="82" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D341" s="82" t="s">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="E341" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F341" s="83">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B342" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C342" s="82" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D342" s="82" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E342" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F342" s="83">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B343" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C343" s="82" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D343" s="82" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E343" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F343" s="83">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B344" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C344" s="82" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D344" s="82" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E344" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F344" s="83">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B345" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C345" s="82" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D345" s="82" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E345" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F345" s="83">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B346" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C346" s="82" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D346" s="82" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="E346" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F346" s="83">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B347" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C347" s="82" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D347" s="82" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E347" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F347" s="83">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B348" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C348" s="82" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D348" s="82" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E348" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F348" s="83">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C349" s="82" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D349" s="82" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E349" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F349" s="83">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B350" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C350" s="82" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D350" s="82" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E350" s="82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F350" s="83">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B351" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C351" s="82" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D351" s="82" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E351" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F351" s="83">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B352" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C352" s="82" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D352" s="82" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E352" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F352" s="83">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C353" s="82" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D353" s="82" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E353" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F353" s="83">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C354" s="82" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D354" s="82" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E354" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F354" s="83">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C355" s="82" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D355" s="82" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E355" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F355" s="83">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C356" s="82" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D356" s="82" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E356" s="82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F356" s="83">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C357" s="82" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D357" s="82" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E357" s="82" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F357" s="83">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C358" s="82" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D358" s="82" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E358" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F358" s="83">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C359" s="82" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D359" s="82" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E359" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F359" s="83">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C360" s="82" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D360" s="82" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E360" s="82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F360" s="83">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C361" s="82" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D361" s="82" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E361" s="82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F361" s="83">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C362" s="82" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D362" s="82" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E362" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F362" s="83">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C363" s="82" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D363" s="82" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E363" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F363" s="83">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C364" s="82" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D364" s="82" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E364" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F364" s="83">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C365" s="82" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D365" s="82" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E365" s="82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F365" s="83">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C366" s="82" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D366" s="82" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E366" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F366" s="83">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C367" s="82" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D367" s="82" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E367" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F367" s="83">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C368" s="82" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D368" s="82" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E368" s="82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F368" s="83">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C369" s="82" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D369" s="82" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="E369" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F369" s="83">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C370" s="82" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D370" s="82" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E370" s="82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F370" s="83">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C371" s="82" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D371" s="82" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E371" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F371" s="83">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C372" s="82" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D372" s="82" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E372" s="82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F372" s="83">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C373" s="82" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D373" s="82" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E373" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F373" s="83">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C374" s="82" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D374" s="82" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E374" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F374" s="83">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C375" s="82" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D375" s="82" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E375" s="82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F375" s="83">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C376" s="82" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D376" s="82" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="E376" s="82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F376" s="83">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C377" s="82" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D377" s="82" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E377" s="82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F377" s="83">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C378" s="82" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D378" s="82" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E378" s="82" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F378" s="83">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C379" s="82" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D379" s="82" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E379" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F379" s="83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B380" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
-      </c>
-      <c r="C380" s="82" t="s">
-        <v>532</v>
-      </c>
-      <c r="D380" s="82" t="s">
-        <v>533</v>
-      </c>
-      <c r="E380" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F380" s="83">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B381" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
-      </c>
-      <c r="C381" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="D381" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E381" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F381" s="83">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B382" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
-      </c>
-      <c r="C382" s="82" t="s">
-        <v>536</v>
-      </c>
-      <c r="D382" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="E382" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F382" s="83">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B383" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
-      </c>
-      <c r="C383" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="D383" s="82" t="s">
-        <v>539</v>
-      </c>
-      <c r="E383" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F383" s="83">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B384" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>49</v>
-      </c>
-      <c r="C384" s="82" t="s">
-        <v>540</v>
-      </c>
-      <c r="D384" s="82" t="s">
-        <v>541</v>
-      </c>
-      <c r="E384" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F384" s="83">
         <v>56</v>
       </c>
     </row>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50955301-5CD5-4926-8F36-D160D5904EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579D6C81-7F91-4F8E-A732-E2BC380EDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="23475" windowHeight="15480" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -196,7 +196,7 @@
     This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</t>
       </text>
     </comment>
-    <comment ref="J288" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+    <comment ref="J283" authorId="8" shapeId="0" xr:uid="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +204,7 @@
     Year when change and impacts are zero</t>
       </text>
     </comment>
-    <comment ref="L288" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+    <comment ref="L283" authorId="9" shapeId="0" xr:uid="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +212,7 @@
     Maximum value to extrapolate to, for models that go up to the maximum output value.</t>
       </text>
     </comment>
-    <comment ref="D295" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+    <comment ref="D290" authorId="10" shapeId="0" xr:uid="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +220,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J314" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J309" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="688">
   <si>
     <t>CanESM2</t>
   </si>
@@ -8016,7 +8016,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B314:J318" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B309:J313" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8037,8 +8037,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B335:F384" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="B335:F384" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B330:F379" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="B330:F379" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8053,7 +8053,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B277:J284" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B277:J279" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8239,7 +8239,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B288:L290" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B283:L285" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8260,7 +8260,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B323:D330" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B318:D325" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8275,7 +8275,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B295:F309" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B290:F304" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8710,16 +8710,16 @@
   <threadedComment ref="F213" dT="2021-04-02T15:36:58.50" personId="{00000000-0000-0000-0000-000000000000}" id="{EF83C059-A623-47AC-AFC4-40246F6AF9B2}">
     <text>This field tracks whether the input scalar is a time series of scalars, or a single input used to calculate a trajectory of the scalar in R. "Dynamic" scalars are a full series; "constant" are a single value from which a series is calculated in the R script.</text>
   </threadedComment>
-  <threadedComment ref="J288" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
+  <threadedComment ref="J283" dT="2021-02-11T17:01:11.40" personId="{00000000-0000-0000-0000-000000000000}" id="{74E8C379-DF77-4FAE-8C13-4D0000C68271}">
     <text>Year when change and impacts are zero</text>
   </threadedComment>
-  <threadedComment ref="L288" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
+  <threadedComment ref="L283" dT="2021-02-15T18:58:52.31" personId="{00000000-0000-0000-0000-000000000000}" id="{984021BA-DD3F-4758-AAFF-698CBFB1E97F}">
     <text>Maximum value to extrapolate to, for models that go up to the maximum output value.</text>
   </threadedComment>
-  <threadedComment ref="D295" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
+  <threadedComment ref="D290" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J314" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J309" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -8736,13 +8736,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="56" t="s">
         <v>76</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>81</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
         <v>242</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B12" s="78" t="s">
         <v>169</v>
       </c>
@@ -8774,79 +8774,79 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B25" s="79" t="s">
         <v>174</v>
       </c>
@@ -8854,55 +8854,55 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78" t="s">
         <v>226</v>
       </c>
@@ -8910,88 +8910,88 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C42" s="59" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C44" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9019,18 +9019,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="60.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="60.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -9038,10 +9038,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9184,7 +9184,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9231,7 +9231,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9278,7 +9278,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9325,7 +9325,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9372,7 +9372,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="G10" s="31" cm="1">
         <f t="array" aca="1" ref="G10" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9419,7 +9419,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9469,7 +9469,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="G12" s="31" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H12" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="I12" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J12" s="31" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9516,7 +9516,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9563,7 +9563,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9610,7 +9610,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9657,7 +9657,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9704,7 +9704,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9728,11 +9728,11 @@
       </c>
       <c r="H17" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J17" s="31" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9767,28 +9767,28 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U384"/>
+  <dimension ref="A1:U379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G285" sqref="G285"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
-    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="2" customWidth="1"/>
+    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>289</v>
@@ -9813,7 +9813,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -9822,7 +9822,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -9831,7 +9831,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -9840,7 +9840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -9849,7 +9849,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -9858,7 +9858,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -9867,7 +9867,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -9876,7 +9876,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -9885,7 +9885,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -9894,7 +9894,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -9903,7 +9903,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -9912,7 +9912,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -9921,7 +9921,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -9930,7 +9930,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>288</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>74</v>
@@ -9969,7 +9969,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>123</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10196,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10257,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10440,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10623,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10806,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -10867,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -11172,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11477,7 +11477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11538,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11660,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11782,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>291</v>
@@ -11929,7 +11929,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
         <v>123</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -11964,7 +11964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -11982,7 +11982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12000,7 +12000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12018,7 +12018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12036,7 +12036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12054,7 +12054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12072,7 +12072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12090,7 +12090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12108,7 +12108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12126,7 +12126,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12140,7 +12140,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12158,7 +12158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12176,7 +12176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12194,7 +12194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -12208,7 +12208,7 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -12222,7 +12222,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12240,7 +12240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12254,7 +12254,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -12268,7 +12268,7 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -12282,7 +12282,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12300,7 +12300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12318,7 +12318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12336,7 +12336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12354,7 +12354,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12372,7 +12372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12390,7 +12390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12408,7 +12408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12426,7 +12426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12444,7 +12444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12462,7 +12462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12480,7 +12480,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>380</v>
@@ -12505,7 +12505,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>381</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>382</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>383</v>
       </c>
@@ -12547,7 +12547,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="43" t="s">
         <v>123</v>
       </c>
@@ -12579,7 +12579,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12613,7 +12613,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12647,7 +12647,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12681,7 +12681,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12715,7 +12715,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12749,7 +12749,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12783,7 +12783,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12817,7 +12817,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12851,7 +12851,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12885,7 +12885,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12919,7 +12919,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12953,7 +12953,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12987,7 +12987,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13021,7 +13021,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13055,7 +13055,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13089,7 +13089,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13123,7 +13123,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13157,7 +13157,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13191,7 +13191,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13225,7 +13225,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13259,7 +13259,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13293,7 +13293,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -13327,7 +13327,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -13361,7 +13361,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13395,7 +13395,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13429,7 +13429,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13463,7 +13463,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13497,7 +13497,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13531,7 +13531,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -13565,7 +13565,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -13599,7 +13599,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -13633,7 +13633,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13667,7 +13667,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -13701,7 +13701,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -13735,7 +13735,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -13769,7 +13769,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -13803,7 +13803,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -13837,7 +13837,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -13871,7 +13871,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -13905,7 +13905,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -13939,7 +13939,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -13973,7 +13973,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14007,7 +14007,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14041,7 +14041,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14075,7 +14075,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14109,7 +14109,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14143,7 +14143,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14177,7 +14177,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14211,7 +14211,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14245,7 +14245,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14279,7 +14279,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14313,7 +14313,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14347,7 +14347,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14381,7 +14381,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14415,7 +14415,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14449,7 +14449,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14474,12 +14474,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B151" s="29" t="s">
         <v>123</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14575,7 +14575,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14624,7 +14624,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14673,7 +14673,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14722,7 +14722,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14771,7 +14771,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14820,7 +14820,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14869,7 +14869,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -14918,7 +14918,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -14967,7 +14967,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -15016,7 +15016,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15065,7 +15065,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15114,7 +15114,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15163,7 +15163,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15212,7 +15212,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15261,7 +15261,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15310,7 +15310,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15359,7 +15359,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15408,7 +15408,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15457,7 +15457,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15506,7 +15506,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15555,7 +15555,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="173" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -15604,7 +15604,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15653,7 +15653,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15702,7 +15702,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15751,7 +15751,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -15800,7 +15800,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -15849,7 +15849,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -15898,7 +15898,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -15947,7 +15947,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -15996,7 +15996,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -16045,7 +16045,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -16094,7 +16094,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -16143,7 +16143,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -16192,7 +16192,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -16241,7 +16241,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -16290,7 +16290,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -16339,7 +16339,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -16388,7 +16388,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -16437,7 +16437,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16486,7 +16486,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16535,7 +16535,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16584,7 +16584,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16634,7 +16634,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16683,7 +16683,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16732,7 +16732,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16781,7 +16781,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16830,7 +16830,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16879,7 +16879,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -16928,7 +16928,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -16977,7 +16977,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -17026,7 +17026,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -17075,7 +17075,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -17124,7 +17124,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17173,7 +17173,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="206" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B206" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17222,7 +17222,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="207" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -17271,7 +17271,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B208" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -17320,7 +17320,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" s="16"/>
       <c r="B211" s="17" t="s">
         <v>352</v>
@@ -17345,7 +17345,7 @@
       <c r="T211" s="17"/>
       <c r="U211" s="17"/>
     </row>
-    <row r="213" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B213" s="29" t="s">
         <v>123</v>
       </c>
@@ -17377,7 +17377,7 @@
       <c r="R213" s="5"/>
       <c r="S213" s="5"/>
     </row>
-    <row r="214" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B214" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -17408,7 +17408,7 @@
       <c r="R214"/>
       <c r="S214"/>
     </row>
-    <row r="215" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B215" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -17439,7 +17439,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B216" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -17470,7 +17470,7 @@
       <c r="R216"/>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B217" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -17501,7 +17501,7 @@
       <c r="R217"/>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B218" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -17534,7 +17534,7 @@
       <c r="R218"/>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B219" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -17565,7 +17565,7 @@
       <c r="R219"/>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B220" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -17598,7 +17598,7 @@
       <c r="R220"/>
       <c r="S220"/>
     </row>
-    <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -17631,7 +17631,7 @@
       <c r="R221"/>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -17664,7 +17664,7 @@
       <c r="R222"/>
       <c r="S222"/>
     </row>
-    <row r="223" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -17695,7 +17695,7 @@
       <c r="R223"/>
       <c r="S223"/>
     </row>
-    <row r="224" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -17726,7 +17726,7 @@
       <c r="R224"/>
       <c r="S224"/>
     </row>
-    <row r="225" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -17757,7 +17757,7 @@
       <c r="R225"/>
       <c r="S225"/>
     </row>
-    <row r="226" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -17788,7 +17788,7 @@
       <c r="R226"/>
       <c r="S226"/>
     </row>
-    <row r="227" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -17819,7 +17819,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="J228" s="65"/>
     </row>
-    <row r="229" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="J229" s="65"/>
     </row>
-    <row r="230" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="J230" s="65"/>
     </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -17933,7 +17933,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -17959,7 +17959,7 @@
       <c r="I232" s="48"/>
       <c r="J232" s="65"/>
     </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -17987,7 +17987,7 @@
       </c>
       <c r="J233" s="65"/>
     </row>
-    <row r="234" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J234" s="65"/>
     </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -18041,7 +18041,7 @@
       <c r="I235" s="48"/>
       <c r="J235" s="65"/>
     </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="J236" s="65"/>
     </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="J237" s="65"/>
     </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="J238" s="65"/>
     </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="J239" s="65"/>
     </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -18183,7 +18183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="241" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="J241" s="65"/>
     </row>
-    <row r="242" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="J242" s="65"/>
     </row>
-    <row r="243" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="J243" s="65"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J244" s="65"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -18353,7 +18353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="J248" s="65"/>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="J249" s="65"/>
     </row>
-    <row r="250" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="J250" s="65"/>
     </row>
-    <row r="251" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="J251" s="65"/>
     </row>
-    <row r="252" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B252" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -18519,7 +18519,7 @@
       <c r="I252" s="48"/>
       <c r="J252" s="65"/>
     </row>
-    <row r="253" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B253" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -18545,7 +18545,7 @@
       <c r="I253" s="48"/>
       <c r="J253" s="65"/>
     </row>
-    <row r="254" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -18571,7 +18571,7 @@
       <c r="I254" s="48"/>
       <c r="J254" s="65"/>
     </row>
-    <row r="255" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B255" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -18597,7 +18597,7 @@
       <c r="I255" s="48"/>
       <c r="J255" s="65"/>
     </row>
-    <row r="258" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" s="16"/>
       <c r="B258" s="17" t="s">
         <v>292</v>
@@ -18622,7 +18622,7 @@
       <c r="T258" s="17"/>
       <c r="U258" s="17"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B260" s="29" t="s">
         <v>123</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B261" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18651,7 +18651,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B262" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18666,7 +18666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B263" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -18681,7 +18681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A266" s="16"/>
       <c r="B266" s="17" t="s">
         <v>293</v>
@@ -18706,7 +18706,7 @@
       <c r="T266" s="17"/>
       <c r="U266" s="17"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B268" s="29" t="s">
         <v>123</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B269" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18730,7 +18730,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B270" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18743,7 +18743,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B271" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -18755,7 +18755,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A274" s="16"/>
       <c r="B274" s="17" t="s">
         <v>546</v>
@@ -18780,12 +18780,12 @@
       <c r="T274" s="17"/>
       <c r="U274" s="17"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B277" s="43" t="s">
         <v>123</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B278" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -18844,7 +18844,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B279" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -18874,338 +18874,283 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B280" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D280" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="E280" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F280" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G280" s="44">
-        <v>0</v>
-      </c>
-      <c r="H280" s="44">
-        <v>1</v>
-      </c>
-      <c r="I280" s="44">
-        <v>0</v>
-      </c>
-      <c r="J280" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B281" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D281" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="E281" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F281" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G281" s="44">
-        <v>0</v>
-      </c>
-      <c r="H281" s="44">
-        <v>1</v>
-      </c>
-      <c r="I281" s="44">
-        <v>0</v>
-      </c>
-      <c r="J281" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B282" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>5</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D282" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="E282" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F282" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G282" s="44">
-        <v>0</v>
-      </c>
-      <c r="H282" s="44">
-        <v>1</v>
-      </c>
-      <c r="I282" s="44">
-        <v>0</v>
-      </c>
-      <c r="J282" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B283" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
+    <row r="281" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="16"/>
+      <c r="B281" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C281" s="17"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="17"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+      <c r="M281" s="17"/>
+      <c r="N281" s="17"/>
+      <c r="O281" s="17"/>
+      <c r="P281" s="17"/>
+      <c r="Q281" s="17"/>
+      <c r="R281" s="17"/>
+      <c r="S281" s="17"/>
+      <c r="T281" s="17"/>
+      <c r="U281" s="17"/>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B283" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C283" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D283" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E283" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F283" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G283" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H283" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J283" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K283" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="L283" s="36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B284" s="4">
+        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E284" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F284" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G284" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H284" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I284" s="42">
+        <v>1</v>
+      </c>
+      <c r="J284" s="42">
+        <v>1995</v>
+      </c>
+      <c r="K284" s="42">
         <v>6</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D283" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E283" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F283" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G283" s="44">
-        <v>1</v>
-      </c>
-      <c r="H283" s="44">
-        <v>1</v>
-      </c>
-      <c r="I283" s="44">
-        <v>1</v>
-      </c>
-      <c r="J283" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B284" s="4">
-        <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
-        <v>7</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D284" s="47" t="s">
-        <v>607</v>
-      </c>
-      <c r="E284" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F284" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G284" s="44">
-        <v>1</v>
-      </c>
-      <c r="H284" s="44">
-        <v>1</v>
-      </c>
-      <c r="I284" s="44">
-        <v>1</v>
-      </c>
-      <c r="J284" s="44">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="286" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A286" s="16"/>
-      <c r="B286" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="17"/>
-      <c r="I286" s="17"/>
-      <c r="J286" s="17"/>
-      <c r="K286" s="17"/>
-      <c r="L286" s="17"/>
-      <c r="M286" s="17"/>
-      <c r="N286" s="17"/>
-      <c r="O286" s="17"/>
-      <c r="P286" s="17"/>
-      <c r="Q286" s="17"/>
-      <c r="R286" s="17"/>
-      <c r="S286" s="17"/>
-      <c r="T286" s="17"/>
-      <c r="U286" s="17"/>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B288" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C288" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D288" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E288" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F288" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G288" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="H288" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="I288" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="J288" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="K288" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="L288" s="36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B289" s="4">
-        <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D289" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E289" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="F289" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="G289" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="H289" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I289" s="42">
-        <v>1</v>
-      </c>
-      <c r="J289" s="42">
-        <v>1995</v>
-      </c>
-      <c r="K289" s="42">
-        <v>6</v>
-      </c>
-      <c r="L289" s="42">
+      <c r="L284" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B290" s="4">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B285" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C285" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D285" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E290" s="41" t="s">
+      <c r="E285" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F290" s="41" t="s">
+      <c r="F285" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="G290" s="40" t="s">
+      <c r="G285" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="H290" s="40" t="s">
+      <c r="H285" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="I290" s="42">
+      <c r="I285" s="42">
         <v>25</v>
       </c>
-      <c r="J290" s="42">
+      <c r="J285" s="42">
         <v>2000</v>
       </c>
-      <c r="K290" s="42">
+      <c r="K285" s="42">
         <v>250</v>
       </c>
-      <c r="L290" s="42">
+      <c r="L285" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="16"/>
-      <c r="B293" s="17" t="s">
+    <row r="288" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="16"/>
+      <c r="B288" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C293" s="17"/>
-      <c r="D293" s="17"/>
-      <c r="E293" s="17"/>
-      <c r="F293" s="17"/>
-      <c r="G293" s="17"/>
-      <c r="H293" s="17"/>
-      <c r="I293" s="17"/>
-      <c r="J293" s="17"/>
-      <c r="K293" s="17"/>
-      <c r="L293" s="17"/>
-      <c r="M293" s="17"/>
-      <c r="N293" s="17"/>
-      <c r="O293" s="17"/>
-      <c r="P293" s="17"/>
-      <c r="Q293" s="17"/>
-      <c r="R293" s="17"/>
-      <c r="S293" s="17"/>
-      <c r="T293" s="17"/>
-      <c r="U293" s="17"/>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B295" s="43" t="s">
+      <c r="C288" s="17"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="17"/>
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="17"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+      <c r="M288" s="17"/>
+      <c r="N288" s="17"/>
+      <c r="O288" s="17"/>
+      <c r="P288" s="17"/>
+      <c r="Q288" s="17"/>
+      <c r="R288" s="17"/>
+      <c r="S288" s="17"/>
+      <c r="T288" s="17"/>
+      <c r="U288" s="17"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B290" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C295" s="29" t="s">
+      <c r="C290" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D295" s="29" t="s">
+      <c r="D290" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E295" s="29" t="s">
+      <c r="E290" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F295" s="30" t="s">
+      <c r="F290" s="30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C291" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CanESM2</v>
+      </c>
+      <c r="D291" s="44">
+        <v>6</v>
+      </c>
+      <c r="E291" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F291" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B292" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C292" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>CCSM4</v>
+      </c>
+      <c r="D292" s="44">
+        <v>5</v>
+      </c>
+      <c r="E292" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F292" s="86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B293" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C293" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>GISSE2R</v>
+      </c>
+      <c r="D293" s="44">
+        <v>3</v>
+      </c>
+      <c r="E293" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F293" s="86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B294" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C294" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>HadGEM2ES</v>
+      </c>
+      <c r="D294" s="44">
+        <v>6</v>
+      </c>
+      <c r="E294" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F294" s="86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B295" s="4">
+        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C295" s="89" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
+        <v>MIROC5</v>
+      </c>
+      <c r="D295" s="44">
+        <v>5</v>
+      </c>
+      <c r="E295" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F295" s="86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C296" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CanESM2</v>
+        <v>GFDLCM3</v>
       </c>
       <c r="D296" s="44">
         <v>6</v>
@@ -19214,150 +19159,150 @@
         <v>161</v>
       </c>
       <c r="F296" s="86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C297" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>CCSM4</v>
+        <v>MRICGCM3</v>
       </c>
       <c r="D297" s="44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E297" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F297" s="86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C298" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GISSE2R</v>
+        <v>GCMEnsemble</v>
       </c>
       <c r="D298" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E298" s="44" t="s">
         <v>161</v>
       </c>
       <c r="F298" s="86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C299" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>HadGEM2ES</v>
+        <v>30cm</v>
       </c>
       <c r="D299" s="44">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E299" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F299" s="86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C300" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MIROC5</v>
+        <v>50cm</v>
       </c>
       <c r="D300" s="44">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E300" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F300" s="86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C301" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GFDLCM3</v>
+        <v>100cm</v>
       </c>
       <c r="D301" s="44">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E301" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F301" s="86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C302" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>MRICGCM3</v>
+        <v>150cm</v>
       </c>
       <c r="D302" s="44">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="E302" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F302" s="86" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C303" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>GCMEnsemble</v>
+        <v>200cm</v>
       </c>
       <c r="D303" s="44">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E303" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F303" s="86" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C304" s="89" t="str">
         <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>30cm</v>
+        <v>250cm</v>
       </c>
       <c r="D304" s="44">
         <v>250</v>
@@ -19366,1332 +19311,1237 @@
         <v>160</v>
       </c>
       <c r="F304" s="86" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B305" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>10</v>
-      </c>
-      <c r="C305" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>50cm</v>
-      </c>
-      <c r="D305" s="44">
-        <v>250</v>
-      </c>
-      <c r="E305" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F305" s="86" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B306" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>11</v>
-      </c>
-      <c r="C306" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>100cm</v>
-      </c>
-      <c r="D306" s="44">
-        <v>250</v>
-      </c>
-      <c r="E306" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F306" s="86" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B307" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>12</v>
-      </c>
-      <c r="C307" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>150cm</v>
-      </c>
-      <c r="D307" s="44">
-        <v>250</v>
-      </c>
-      <c r="E307" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F307" s="86" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B308" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>13</v>
-      </c>
-      <c r="C308" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>200cm</v>
-      </c>
-      <c r="D308" s="44">
-        <v>250</v>
-      </c>
-      <c r="E308" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F308" s="86" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B309" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>14</v>
-      </c>
-      <c r="C309" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>250cm</v>
-      </c>
-      <c r="D309" s="44">
-        <v>250</v>
-      </c>
-      <c r="E309" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F309" s="86" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="17" t="s">
+    <row r="307" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="16"/>
+      <c r="B307" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C312" s="17"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="17"/>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="17"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="17"/>
-      <c r="K312" s="17"/>
-      <c r="L312" s="17"/>
-      <c r="M312" s="17"/>
-      <c r="N312" s="17"/>
-      <c r="O312" s="17"/>
-      <c r="P312" s="17"/>
-      <c r="Q312" s="17"/>
-      <c r="R312" s="17"/>
-      <c r="S312" s="17"/>
-      <c r="T312" s="17"/>
-      <c r="U312" s="17"/>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B314" s="29" t="s">
+      <c r="C307" s="17"/>
+      <c r="D307" s="17"/>
+      <c r="E307" s="17"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="17"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
+      <c r="M307" s="17"/>
+      <c r="N307" s="17"/>
+      <c r="O307" s="17"/>
+      <c r="P307" s="17"/>
+      <c r="Q307" s="17"/>
+      <c r="R307" s="17"/>
+      <c r="S307" s="17"/>
+      <c r="T307" s="17"/>
+      <c r="U307" s="17"/>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B309" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C314" s="29" t="s">
+      <c r="C309" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D314" s="29" t="s">
+      <c r="D309" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E314" s="29" t="s">
+      <c r="E309" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F314" s="31" t="s">
+      <c r="F309" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G314" s="31" t="s">
+      <c r="G309" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="H314" s="31" t="s">
+      <c r="H309" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I314" s="31" t="s">
+      <c r="I309" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="J314" s="31" t="s">
+      <c r="J309" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B315" s="4">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B310" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C310" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D315" s="44" t="s">
+      <c r="D310" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E315" s="44" t="s">
+      <c r="E310" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="F315" s="27" t="s">
+      <c r="F310" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G315" s="27">
-        <v>0</v>
-      </c>
-      <c r="H315" s="27"/>
-      <c r="I315" s="27" t="s">
+      <c r="G310" s="27">
+        <v>0</v>
+      </c>
+      <c r="H310" s="27"/>
+      <c r="I310" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="J315" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B316" s="4">
+      <c r="J310" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B311" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D316" s="44" t="s">
+      <c r="D311" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="E316" s="44" t="s">
+      <c r="E311" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="F316" s="27" t="s">
+      <c r="F311" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G316" s="27">
-        <v>0</v>
-      </c>
-      <c r="H316" s="27"/>
-      <c r="I316" s="27" t="s">
+      <c r="G311" s="27">
+        <v>0</v>
+      </c>
+      <c r="H311" s="27"/>
+      <c r="I311" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="J316" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B317" s="4">
+      <c r="J311" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B312" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D317" s="44" t="s">
+      <c r="D312" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="E317" s="44" t="s">
+      <c r="E312" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F317" s="27" t="s">
+      <c r="F312" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="G317" s="27">
-        <v>0</v>
-      </c>
-      <c r="H317" s="27" t="str">
+      <c r="G312" s="27">
+        <v>0</v>
+      </c>
+      <c r="H312" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I317" s="27" t="s">
+      <c r="I312" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="J317" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B318" s="4">
+      <c r="J312" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C313" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D318" s="44" t="s">
+      <c r="D313" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="E318" s="44" t="s">
+      <c r="E313" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="F318" s="27" t="s">
+      <c r="F313" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="G318" s="27">
-        <v>0</v>
-      </c>
-      <c r="H318" s="27" t="str">
+      <c r="G313" s="27">
+        <v>0</v>
+      </c>
+      <c r="H313" s="27" t="str">
         <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
         <v/>
       </c>
-      <c r="I318" s="27" t="s">
+      <c r="I313" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="J318" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-      <c r="B321" s="17" t="s">
+      <c r="J313" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="16"/>
+      <c r="B316" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C321" s="17"/>
-      <c r="D321" s="17"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="17"/>
-      <c r="I321" s="17"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="17"/>
-      <c r="L321" s="17"/>
-      <c r="M321" s="17"/>
-      <c r="N321" s="17"/>
-      <c r="O321" s="17"/>
-      <c r="P321" s="17"/>
-      <c r="Q321" s="17"/>
-      <c r="R321" s="17"/>
-      <c r="S321" s="17"/>
-      <c r="T321" s="17"/>
-      <c r="U321" s="17"/>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B323" s="43" t="s">
+      <c r="C316" s="17"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+      <c r="M316" s="17"/>
+      <c r="N316" s="17"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="17"/>
+      <c r="Q316" s="17"/>
+      <c r="R316" s="17"/>
+      <c r="S316" s="17"/>
+      <c r="T316" s="17"/>
+      <c r="U316" s="17"/>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B318" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C323" s="29" t="s">
+      <c r="C318" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D323" s="30" t="s">
+      <c r="D318" s="30" t="s">
         <v>598</v>
       </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B319" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Midwest</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B320" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Northeast</v>
+      </c>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B321" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C321" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>NorthernPlains</v>
+      </c>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B322" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C322" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Northwest</v>
+      </c>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B323" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C323" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Southeast</v>
+      </c>
       <c r="E323" s="2"/>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D324" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Midwest</v>
+        <v>SouthernPlains</v>
       </c>
       <c r="E324" s="2"/>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D325" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northeast</v>
+        <v>Southwest</v>
       </c>
       <c r="E325" s="2"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B326" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+    <row r="328" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A328" s="16"/>
+      <c r="B328" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C328" s="17"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17"/>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+      <c r="L328" s="17"/>
+      <c r="M328" s="17"/>
+      <c r="N328" s="17"/>
+      <c r="O328" s="17"/>
+      <c r="P328" s="17"/>
+      <c r="Q328" s="17"/>
+      <c r="R328" s="17"/>
+      <c r="S328" s="17"/>
+      <c r="T328" s="17"/>
+      <c r="U328" s="17"/>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B330" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B331" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C331" s="82" t="s">
+        <v>445</v>
+      </c>
+      <c r="D331" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="E331" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B332" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>2</v>
+      </c>
+      <c r="C332" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="D332" s="82" t="s">
+        <v>448</v>
+      </c>
+      <c r="E332" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B333" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C326" s="44" t="s">
+      <c r="C333" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="D333" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="E333" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B334" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C334" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="D334" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="E334" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F334" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B335" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>5</v>
+      </c>
+      <c r="C335" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="D335" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="E335" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="83">
         <v>8</v>
       </c>
-      <c r="D326" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>NorthernPlains</v>
-      </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B327" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C327" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D327" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northwest</v>
-      </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B328" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
-      </c>
-      <c r="C328" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D328" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southeast</v>
-      </c>
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B329" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
-      </c>
-      <c r="C329" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D329" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>SouthernPlains</v>
-      </c>
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B330" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
-      </c>
-      <c r="C330" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D330" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southwest</v>
-      </c>
-      <c r="E330" s="2"/>
-    </row>
-    <row r="333" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A333" s="16"/>
-      <c r="B333" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="17"/>
-      <c r="I333" s="17"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="17"/>
-      <c r="L333" s="17"/>
-      <c r="M333" s="17"/>
-      <c r="N333" s="17"/>
-      <c r="O333" s="17"/>
-      <c r="P333" s="17"/>
-      <c r="Q333" s="17"/>
-      <c r="R333" s="17"/>
-      <c r="S333" s="17"/>
-      <c r="T333" s="17"/>
-      <c r="U333" s="17"/>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B335" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F335" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B336" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C336" s="82" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D336" s="82" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E336" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F336" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C337" s="82" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D337" s="82" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E337" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F337" s="83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C338" s="82" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D338" s="82" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E338" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F338" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C339" s="82" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D339" s="82" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E339" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="83">
         <v>12</v>
       </c>
-      <c r="F339" s="83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C340" s="82" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D340" s="82" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E340" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F340" s="83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C341" s="82" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D341" s="82" t="s">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="E341" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F341" s="83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C342" s="82" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D342" s="82" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E342" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F342" s="83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C343" s="82" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D343" s="82" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E343" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F343" s="83">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C344" s="82" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D344" s="82" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E344" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F344" s="83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C345" s="82" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D345" s="82" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E345" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F345" s="83">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C346" s="82" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D346" s="82" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="E346" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F346" s="83">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C347" s="82" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D347" s="82" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E347" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F347" s="83">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C348" s="82" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D348" s="82" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E348" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F348" s="83">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C349" s="82" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D349" s="82" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E349" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F349" s="83">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C350" s="82" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D350" s="82" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E350" s="82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F350" s="83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C351" s="82" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D351" s="82" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E351" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F351" s="83">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C352" s="82" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D352" s="82" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E352" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F352" s="83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C353" s="82" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D353" s="82" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E353" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F353" s="83">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C354" s="82" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D354" s="82" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E354" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F354" s="83">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C355" s="82" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D355" s="82" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E355" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F355" s="83">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C356" s="82" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D356" s="82" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E356" s="82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F356" s="83">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C357" s="82" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D357" s="82" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E357" s="82" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F357" s="83">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C358" s="82" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D358" s="82" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E358" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F358" s="83">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C359" s="82" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D359" s="82" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E359" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F359" s="83">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C360" s="82" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D360" s="82" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E360" s="82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F360" s="83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C361" s="82" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D361" s="82" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E361" s="82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F361" s="83">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C362" s="82" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D362" s="82" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E362" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F362" s="83">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C363" s="82" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D363" s="82" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E363" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F363" s="83">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C364" s="82" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D364" s="82" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E364" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F364" s="83">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C365" s="82" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D365" s="82" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E365" s="82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F365" s="83">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C366" s="82" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D366" s="82" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E366" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F366" s="83">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C367" s="82" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D367" s="82" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E367" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F367" s="83">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C368" s="82" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D368" s="82" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E368" s="82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F368" s="83">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C369" s="82" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D369" s="82" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="E369" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F369" s="83">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C370" s="82" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D370" s="82" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E370" s="82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F370" s="83">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C371" s="82" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D371" s="82" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E371" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F371" s="83">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C372" s="82" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D372" s="82" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E372" s="82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F372" s="83">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C373" s="82" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D373" s="82" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E373" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F373" s="83">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C374" s="82" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D374" s="82" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E374" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F374" s="83">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C375" s="82" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D375" s="82" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E375" s="82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F375" s="83">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C376" s="82" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D376" s="82" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="E376" s="82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F376" s="83">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C377" s="82" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D377" s="82" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E377" s="82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F377" s="83">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C378" s="82" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D378" s="82" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E378" s="82" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F378" s="83">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C379" s="82" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D379" s="82" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E379" s="82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F379" s="83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B380" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
-      </c>
-      <c r="C380" s="82" t="s">
-        <v>532</v>
-      </c>
-      <c r="D380" s="82" t="s">
-        <v>533</v>
-      </c>
-      <c r="E380" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F380" s="83">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B381" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
-      </c>
-      <c r="C381" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="D381" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="E381" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F381" s="83">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B382" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
-      </c>
-      <c r="C382" s="82" t="s">
-        <v>536</v>
-      </c>
-      <c r="D382" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="E382" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F382" s="83">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B383" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
-      </c>
-      <c r="C383" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="D383" s="82" t="s">
-        <v>539</v>
-      </c>
-      <c r="E383" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F383" s="83">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B384" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>49</v>
-      </c>
-      <c r="C384" s="82" t="s">
-        <v>540</v>
-      </c>
-      <c r="D384" s="82" t="s">
-        <v>541</v>
-      </c>
-      <c r="E384" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F384" s="83">
         <v>56</v>
       </c>
     </row>
@@ -20763,19 +20613,19 @@
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="61" t="s">
         <v>123</v>
       </c>
@@ -20792,7 +20642,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20810,7 +20660,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20828,12 +20678,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>123</v>
       </c>
@@ -20847,7 +20697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20862,7 +20712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20877,7 +20727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20892,7 +20742,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20907,7 +20757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20922,7 +20772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20957,15 +20807,15 @@
       <selection activeCell="E4" sqref="E4:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -20973,10 +20823,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
@@ -20990,7 +20840,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21005,7 +20855,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21020,7 +20870,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21035,7 +20885,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21050,7 +20900,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21065,7 +20915,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21080,7 +20930,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21095,7 +20945,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21110,7 +20960,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21125,7 +20975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21140,7 +20990,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21155,7 +21005,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21170,7 +21020,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -21185,7 +21035,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -21200,7 +21050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -21215,7 +21065,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -21230,7 +21080,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -21245,7 +21095,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -21260,7 +21110,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -21275,7 +21125,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -21290,7 +21140,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -21305,7 +21155,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -21320,7 +21170,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -21335,7 +21185,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -21350,7 +21200,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -21385,9 +21235,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -21416,7 +21266,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21446,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21476,7 +21326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21506,7 +21356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21536,7 +21386,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21566,7 +21416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21596,7 +21446,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21626,7 +21476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21656,7 +21506,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21686,7 +21536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21716,7 +21566,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21746,7 +21596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21776,7 +21626,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -21806,7 +21656,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -21836,7 +21686,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -21866,7 +21716,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -21896,7 +21746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -21926,7 +21776,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -21956,7 +21806,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -21986,7 +21836,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22016,7 +21866,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22046,7 +21896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22076,7 +21926,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22106,7 +21956,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22136,7 +21986,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22166,7 +22016,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -22196,7 +22046,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -22226,7 +22076,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -22256,7 +22106,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -22286,7 +22136,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -22316,7 +22166,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -22346,7 +22196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -22376,7 +22226,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -22406,7 +22256,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -22436,7 +22286,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -22466,7 +22316,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -22496,7 +22346,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -22526,7 +22376,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -22556,7 +22406,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -22586,7 +22436,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -22616,7 +22466,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -22646,7 +22496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -22676,7 +22526,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -22706,7 +22556,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -22736,7 +22586,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -22766,7 +22616,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -22796,7 +22646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -22826,7 +22676,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -22856,7 +22706,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -22886,7 +22736,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -22916,7 +22766,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -22946,7 +22796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -22976,7 +22826,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -23006,7 +22856,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -23036,7 +22886,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -23066,7 +22916,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -23096,7 +22946,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -23126,7 +22976,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -23156,7 +23006,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -23186,7 +23036,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -23216,7 +23066,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -23246,7 +23096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -23276,7 +23126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -23306,7 +23156,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -23336,7 +23186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -23366,7 +23216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -23396,7 +23246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -23426,7 +23276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -23456,7 +23306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -23486,7 +23336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -23516,7 +23366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -23546,7 +23396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -23576,7 +23426,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -23606,7 +23456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -23636,7 +23486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -23666,7 +23516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -23696,7 +23546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -23726,7 +23576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -23756,7 +23606,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -23786,7 +23636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -23816,7 +23666,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -23846,7 +23696,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -23876,7 +23726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -23906,7 +23756,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -23936,7 +23786,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -23966,7 +23816,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -23996,7 +23846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -24026,7 +23876,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -24056,7 +23906,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -24086,7 +23936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -24116,7 +23966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -24146,7 +23996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -24176,7 +24026,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -24206,7 +24056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -24236,7 +24086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -24266,7 +24116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -24296,7 +24146,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -24326,7 +24176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -24356,7 +24206,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -24386,7 +24236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -24416,7 +24266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C96B0-6103-47AA-845A-F7651427D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C48D72-239D-4125-BA7B-544C02C3AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3359,7 +3359,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3606,21 +3606,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9937,9 +9922,9 @@
   </sheetPr>
   <dimension ref="A1:U401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H49" sqref="H49"/>
+      <selection pane="topRight" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14793,7 +14778,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B154" s="92">
+      <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
@@ -14824,7 +14809,7 @@
       <c r="K154" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="L154" s="93" t="s">
+      <c r="L154" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M154" s="27">
@@ -14836,13 +14821,13 @@
       <c r="O154" s="27">
         <v>1</v>
       </c>
-      <c r="P154" s="94" t="str">
+      <c r="P154" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B155" s="92">
+      <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
@@ -14885,13 +14870,13 @@
       <c r="O155" s="27">
         <v>0.06</v>
       </c>
-      <c r="P155" s="94">
+      <c r="P155" s="33">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>2010</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B156" s="92">
+      <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
@@ -14934,13 +14919,13 @@
       <c r="O156" s="27">
         <v>1</v>
       </c>
-      <c r="P156" s="94">
+      <c r="P156" s="33">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>2010</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B157" s="92">
+      <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
@@ -14971,7 +14956,7 @@
       <c r="K157" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="L157" s="93" t="s">
+      <c r="L157" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M157" s="27">
@@ -14983,13 +14968,13 @@
       <c r="O157" s="27">
         <v>1</v>
       </c>
-      <c r="P157" s="94" t="str">
+      <c r="P157" s="33" t="str">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B158" s="92">
+      <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
@@ -15032,7 +15017,7 @@
       <c r="O158" s="27">
         <v>0.06</v>
       </c>
-      <c r="P158" s="94">
+      <c r="P158" s="33">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>2010</v>
       </c>
@@ -16998,7 +16983,7 @@
       </c>
     </row>
     <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B199" s="92">
+      <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
       </c>
@@ -17041,7 +17026,7 @@
       <c r="O199" s="27">
         <v>0.06</v>
       </c>
-      <c r="P199" s="94">
+      <c r="P199" s="33">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>2010</v>
       </c>
@@ -17587,7 +17572,7 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B211" s="92">
+      <c r="B211" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>60</v>
       </c>
@@ -17630,7 +17615,7 @@
       <c r="O211" s="27">
         <v>0.06</v>
       </c>
-      <c r="P211" s="94">
+      <c r="P211" s="33">
         <f xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</f>
         <v>2010</v>
       </c>
@@ -17889,7 +17874,7 @@
       <c r="S220" s="5"/>
     </row>
     <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B221" s="95">
+      <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
@@ -17922,7 +17907,7 @@
       <c r="S221" s="5"/>
     </row>
     <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B222" s="95">
+      <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
@@ -17955,7 +17940,7 @@
       <c r="S222" s="5"/>
     </row>
     <row r="223" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="95">
+      <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
@@ -17988,7 +17973,7 @@
       <c r="S223" s="5"/>
     </row>
     <row r="224" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B224" s="95">
+      <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
@@ -18021,7 +18006,7 @@
       <c r="S224" s="5"/>
     </row>
     <row r="225" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B225" s="95">
+      <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
@@ -18343,7 +18328,7 @@
       <c r="S234"/>
     </row>
     <row r="235" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B235" s="95">
+      <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
@@ -18376,7 +18361,7 @@
       <c r="S235"/>
     </row>
     <row r="236" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="95">
+      <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
@@ -18409,7 +18394,7 @@
       <c r="S236"/>
     </row>
     <row r="237" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B237" s="95">
+      <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
@@ -18428,7 +18413,7 @@
       <c r="G237" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="H237" s="96">
+      <c r="H237" s="81">
         <v>2015</v>
       </c>
       <c r="I237" s="48" t="s">
@@ -18440,7 +18425,7 @@
       <c r="S237"/>
     </row>
     <row r="238" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B238" s="95">
+      <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
@@ -18459,7 +18444,7 @@
       <c r="G238" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="H238" s="96">
+      <c r="H238" s="81">
         <v>2015</v>
       </c>
       <c r="I238" s="48" t="s">
@@ -18471,7 +18456,7 @@
       <c r="S238"/>
     </row>
     <row r="239" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B239" s="95">
+      <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
@@ -18490,7 +18475,7 @@
       <c r="G239" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="H239" s="96">
+      <c r="H239" s="81">
         <v>2015</v>
       </c>
       <c r="I239" s="48" t="s">
@@ -18825,7 +18810,7 @@
       <c r="J250" s="65"/>
     </row>
     <row r="251" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B251" s="95">
+      <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
@@ -18963,7 +18948,7 @@
       <c r="J255" s="65"/>
     </row>
     <row r="256" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B256" s="95">
+      <c r="B256" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
@@ -18982,7 +18967,7 @@
       <c r="G256" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="H256" s="96">
+      <c r="H256" s="81">
         <v>2015</v>
       </c>
       <c r="I256" s="48" t="s">
@@ -19331,7 +19316,7 @@
       <c r="J268" s="65"/>
     </row>
     <row r="269" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B269" s="95">
+      <c r="B269" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
@@ -19359,7 +19344,7 @@
       <c r="J269" s="65"/>
     </row>
     <row r="270" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B270" s="95">
+      <c r="B270" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>50</v>
       </c>
@@ -19387,7 +19372,7 @@
       <c r="J270" s="65"/>
     </row>
     <row r="271" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B271" s="95">
+      <c r="B271" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>51</v>
       </c>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C48D72-239D-4125-BA7B-544C02C3AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AF8AE-4012-4F4E-B409-84FD957B6139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-5760" windowWidth="14610" windowHeight="15585" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="740">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2383,9 +2383,6 @@
     <t>PM_NewChildAsthma</t>
   </si>
   <si>
-    <t>Ozone Child Asthma Incidence</t>
-  </si>
-  <si>
     <t>Ozone School Loss Days</t>
   </si>
   <si>
@@ -2395,24 +2392,6 @@
     <t>PM_EDVisits_Asthma</t>
   </si>
   <si>
-    <t>Ozone ED Vists Asthma</t>
-  </si>
-  <si>
-    <t>PM2.5 Child Asthma Incidence</t>
-  </si>
-  <si>
-    <t>PM2.5 ED Vists Asthma</t>
-  </si>
-  <si>
-    <t>Ozone ED Vists from Asthma</t>
-  </si>
-  <si>
-    <t>Ozone 0-17 Asthma Incidence</t>
-  </si>
-  <si>
-    <t>PM2.5 ED Vists from Asthma</t>
-  </si>
-  <si>
     <t>ED Vists from Asthma</t>
   </si>
   <si>
@@ -2503,9 +2482,6 @@
     <t>Population-Driven Demographic Composition SW Dust Asthma Incidence</t>
   </si>
   <si>
-    <t>PM2.5 0-17 Asthma Incidence</t>
-  </si>
-  <si>
     <t>Asthma Incidence</t>
   </si>
   <si>
@@ -2525,6 +2501,33 @@
   </si>
   <si>
     <t>Unit Cost Asthma ED Visit SW Dust</t>
+  </si>
+  <si>
+    <t>Ozone New Childhood Asthma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5 Childhood Asthma ED Vists </t>
+  </si>
+  <si>
+    <t>PM2.5 New Childhood Asthma</t>
+  </si>
+  <si>
+    <t>PM2.5 New Childhood Asthma Incidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone Childhood Asthma ED Vists </t>
+  </si>
+  <si>
+    <t>Ozone  New Childhood Asthma Incidence</t>
+  </si>
+  <si>
+    <t>New Childhood Asthma Incidence</t>
+  </si>
+  <si>
+    <t>Other Morbidity</t>
+  </si>
+  <si>
+    <t>Morbidity (other than new childhood asthma)</t>
   </si>
 </sst>
 </file>
@@ -8889,13 +8892,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="56" t="s">
         <v>76</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>81</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
         <v>238</v>
       </c>
@@ -8919,7 +8922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B12" s="78" t="s">
         <v>165</v>
       </c>
@@ -8927,79 +8930,79 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B25" s="79" t="s">
         <v>170</v>
       </c>
@@ -9007,55 +9010,55 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78" t="s">
         <v>222</v>
       </c>
@@ -9063,88 +9066,88 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C42" s="59" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C44" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9172,18 +9175,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="60.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="60.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -9191,10 +9194,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9285,7 +9288,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9337,7 +9340,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9384,7 +9387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9431,7 +9434,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9478,7 +9481,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9525,7 +9528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9572,7 +9575,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9622,7 +9625,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9669,7 +9672,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
@@ -9716,7 +9719,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9763,7 +9766,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9810,7 +9813,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9857,7 +9860,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9922,26 +9925,26 @@
   </sheetPr>
   <dimension ref="A1:U401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H223" sqref="H223"/>
+      <selection pane="topRight" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
-    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="2" customWidth="1"/>
+    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>285</v>
@@ -9966,7 +9969,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -9975,7 +9978,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -9984,7 +9987,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -9993,7 +9996,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -10002,7 +10005,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -10011,7 +10014,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -10020,7 +10023,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -10029,7 +10032,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -10038,7 +10041,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -10047,7 +10050,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -10056,7 +10059,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -10065,7 +10068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -10074,7 +10077,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -10083,7 +10086,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>284</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>74</v>
@@ -10122,7 +10125,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>121</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10199,7 +10202,7 @@
         <f t="array" aca="1" ref="I21" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
-        <v>Ozone Mortality, PM2.5 Mortality, Ozone ED Vists Asthma, Ozone Child Asthma Incidence, Ozone School Loss Days, PM2.5 ED Vists Asthma, PM2.5 Child Asthma Incidence</v>
+        <v>Ozone Mortality, PM2.5 Mortality, Ozone Childhood Asthma ED Vists , Ozone New Childhood Asthma, Ozone School Loss Days, PM2.5 Childhood Asthma ED Vists , PM2.5 New Childhood Asthma</v>
       </c>
       <c r="J21" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
@@ -10227,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10349,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10410,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10471,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10532,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10593,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10654,7 +10657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10715,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10776,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10837,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10898,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10959,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -11020,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -11081,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -11142,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11203,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -11264,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -11325,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -11386,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11447,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11508,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11569,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11602,7 +11605,7 @@
         <f t="array" aca="1" ref="I44" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
-        <v>Acute Myocardial Infarction, All Cardiovascular, All Mortality, All Respiratory, Asthma ER, PM2.5 Child Asthma Incidence</v>
+        <v>Acute Myocardial Infarction, All Cardiovascular, All Mortality, All Respiratory, Asthma ER, PM2.5 New Childhood Asthma</v>
       </c>
       <c r="J44" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
@@ -11630,7 +11633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11691,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11752,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11813,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11874,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11907,7 +11910,7 @@
         <f t="array" aca="1" ref="I49" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</f>
-        <v>Morbidity, Mortality, Response Costs, PM2.5 Child Asthma Incidence</v>
+        <v>Other Morbidity, Mortality, Response Costs, PM2.5 New Childhood Asthma</v>
       </c>
       <c r="J49" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
@@ -11935,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -11996,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12057,7 +12060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>287</v>
@@ -12082,7 +12085,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
         <v>121</v>
       </c>
@@ -12099,7 +12102,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12117,7 +12120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12135,7 +12138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12153,7 +12156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12171,7 +12174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12189,7 +12192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12207,7 +12210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12225,7 +12228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12243,7 +12246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12261,7 +12264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12279,7 +12282,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12293,7 +12296,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12311,7 +12314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12329,7 +12332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12347,7 +12350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -12361,7 +12364,7 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -12375,7 +12378,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12393,7 +12396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12407,7 +12410,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -12421,7 +12424,7 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -12435,7 +12438,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12453,7 +12456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12471,7 +12474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12489,7 +12492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12507,7 +12510,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12525,7 +12528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12543,7 +12546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12561,7 +12564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12579,7 +12582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12597,7 +12600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12615,7 +12618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12633,7 +12636,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>376</v>
@@ -12658,7 +12661,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>377</v>
       </c>
@@ -12672,7 +12675,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>378</v>
       </c>
@@ -12686,7 +12689,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>379</v>
       </c>
@@ -12700,7 +12703,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="43" t="s">
         <v>121</v>
       </c>
@@ -12732,7 +12735,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12766,7 +12769,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12800,7 +12803,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12834,7 +12837,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12868,7 +12871,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12902,7 +12905,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12936,7 +12939,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12970,7 +12973,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -13004,7 +13007,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -13038,7 +13041,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -13072,7 +13075,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -13106,7 +13109,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -13140,7 +13143,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13174,7 +13177,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13208,7 +13211,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13242,7 +13245,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13276,7 +13279,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13310,7 +13313,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13344,7 +13347,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13378,7 +13381,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13412,7 +13415,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13446,7 +13449,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -13480,7 +13483,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -13514,7 +13517,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13548,7 +13551,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13582,7 +13585,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13616,7 +13619,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13650,7 +13653,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13684,7 +13687,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -13718,7 +13721,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -13752,7 +13755,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -13786,7 +13789,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13820,7 +13823,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -13854,7 +13857,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -13888,7 +13891,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -13922,7 +13925,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -13956,7 +13959,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -13990,7 +13993,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -14024,7 +14027,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -14058,7 +14061,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -14092,7 +14095,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -14126,7 +14129,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14160,7 +14163,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14194,7 +14197,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14228,7 +14231,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14262,7 +14265,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14296,7 +14299,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14330,7 +14333,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14364,7 +14367,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14398,7 +14401,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14432,7 +14435,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14466,7 +14469,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14500,7 +14503,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14534,7 +14537,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14568,7 +14571,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14602,7 +14605,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14627,12 +14630,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B151" s="29" t="s">
         <v>121</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14728,7 +14731,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14777,7 +14780,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14786,28 +14789,28 @@
         <v>99</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="E154" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I154" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J154" s="32" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="K154" s="28" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L154" s="28" t="s">
         <v>91</v>
@@ -14826,7 +14829,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14835,28 +14838,28 @@
         <v>99</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="E155" s="47" t="s">
         <v>688</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H155" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I155" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J155" s="32" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="K155" s="28" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L155" s="28" t="s">
         <v>92</v>
@@ -14875,7 +14878,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14884,28 +14887,28 @@
         <v>99</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E156" s="47" t="s">
         <v>689</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>92</v>
@@ -14924,7 +14927,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14933,28 +14936,28 @@
         <v>99</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="E157" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="G157" s="28" t="s">
         <v>694</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="G157" s="28" t="s">
-        <v>701</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="J157" s="32" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>91</v>
@@ -14973,7 +14976,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14982,28 +14985,28 @@
         <v>99</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="E158" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I158" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J158" s="32" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="K158" s="28" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L158" s="28" t="s">
         <v>92</v>
@@ -15022,7 +15025,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -15071,7 +15074,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -15120,7 +15123,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -15169,7 +15172,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15218,7 +15221,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15267,7 +15270,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15316,7 +15319,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15365,7 +15368,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15414,7 +15417,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15463,7 +15466,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15512,7 +15515,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15561,7 +15564,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15610,7 +15613,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15659,7 +15662,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15708,7 +15711,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -15757,7 +15760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15806,7 +15809,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15855,7 +15858,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15904,7 +15907,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -15953,7 +15956,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -16002,7 +16005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -16051,7 +16054,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -16100,7 +16103,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -16149,7 +16152,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -16198,7 +16201,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -16247,7 +16250,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -16296,7 +16299,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -16345,7 +16348,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -16394,7 +16397,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -16443,7 +16446,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -16492,7 +16495,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -16541,7 +16544,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -16590,7 +16593,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16639,7 +16642,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16688,7 +16691,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16737,7 +16740,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16786,7 +16789,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16835,7 +16838,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16884,7 +16887,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16933,7 +16936,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16982,7 +16985,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16991,28 +16994,28 @@
         <v>20</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="E199" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H199" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J199" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="K199" s="32" t="s">
         <v>729</v>
-      </c>
-      <c r="K199" s="32" t="s">
-        <v>737</v>
       </c>
       <c r="L199" s="28" t="s">
         <v>92</v>
@@ -17031,7 +17034,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="200" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -17081,7 +17084,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -17130,7 +17133,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -17179,7 +17182,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -17228,7 +17231,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -17277,7 +17280,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17326,7 +17329,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17375,7 +17378,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -17424,7 +17427,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B208" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -17433,13 +17436,13 @@
         <v>103</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>110</v>
+        <v>738</v>
       </c>
       <c r="E208" s="47" t="s">
         <v>110</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>110</v>
+        <v>739</v>
       </c>
       <c r="G208" s="28" t="s">
         <v>562</v>
@@ -17473,7 +17476,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B209" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -17522,7 +17525,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B210" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -17571,7 +17574,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B211" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -17580,28 +17583,28 @@
         <v>103</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="E211" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F211" s="32" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I211" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J211" s="32" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="K211" s="28" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="L211" s="28" t="s">
         <v>92</v>
@@ -17620,7 +17623,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B212" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -17669,7 +17672,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B213" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -17718,7 +17721,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B214" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -17767,7 +17770,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B215" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -17816,7 +17819,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" s="16"/>
       <c r="B218" s="17" t="s">
         <v>348</v>
@@ -17841,7 +17844,7 @@
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
     </row>
-    <row r="220" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B220" s="29" t="s">
         <v>121</v>
       </c>
@@ -17873,16 +17876,16 @@
       <c r="R220" s="5"/>
       <c r="S220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
       <c r="C221" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="D221" s="26" t="s">
         <v>705</v>
-      </c>
-      <c r="D221" s="26" t="s">
-        <v>712</v>
       </c>
       <c r="E221" s="80" t="s">
         <v>153</v>
@@ -17900,22 +17903,22 @@
         <v>187</v>
       </c>
       <c r="J221" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
       <c r="S221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E222" s="80" t="s">
         <v>153</v>
@@ -17933,22 +17936,22 @@
         <v>187</v>
       </c>
       <c r="J222" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
       <c r="S222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E223" s="80" t="s">
         <v>153</v>
@@ -17966,22 +17969,22 @@
         <v>187</v>
       </c>
       <c r="J223" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
       <c r="S223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E224" s="80" t="s">
         <v>153</v>
@@ -17999,22 +18002,22 @@
         <v>187</v>
       </c>
       <c r="J224" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
       <c r="S224" s="5"/>
     </row>
-    <row r="225" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E225" s="80" t="s">
         <v>153</v>
@@ -18032,13 +18035,13 @@
         <v>187</v>
       </c>
       <c r="J225" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
       <c r="S225" s="5"/>
     </row>
-    <row r="226" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -18065,13 +18068,13 @@
         <v>187</v>
       </c>
       <c r="J226" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q226"/>
       <c r="R226"/>
       <c r="S226"/>
     </row>
-    <row r="227" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -18102,7 +18105,7 @@
       <c r="R227"/>
       <c r="S227"/>
     </row>
-    <row r="228" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -18133,7 +18136,7 @@
       <c r="R228"/>
       <c r="S228"/>
     </row>
-    <row r="229" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -18164,7 +18167,7 @@
       <c r="R229"/>
       <c r="S229"/>
     </row>
-    <row r="230" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -18197,7 +18200,7 @@
       <c r="R230"/>
       <c r="S230"/>
     </row>
-    <row r="231" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -18228,7 +18231,7 @@
       <c r="R231"/>
       <c r="S231"/>
     </row>
-    <row r="232" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -18261,7 +18264,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -18294,7 +18297,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -18327,16 +18330,16 @@
       <c r="R234"/>
       <c r="S234"/>
     </row>
-    <row r="235" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E235" s="80" t="s">
         <v>153</v>
@@ -18354,22 +18357,22 @@
         <v>187</v>
       </c>
       <c r="J235" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q235"/>
       <c r="R235"/>
       <c r="S235"/>
     </row>
-    <row r="236" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:19" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E236" s="80" t="s">
         <v>153</v>
@@ -18387,22 +18390,22 @@
         <v>187</v>
       </c>
       <c r="J236" s="65" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q236"/>
       <c r="R236"/>
       <c r="S236"/>
     </row>
-    <row r="237" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E237" s="80" t="s">
         <v>152</v>
@@ -18424,16 +18427,16 @@
       <c r="R237"/>
       <c r="S237"/>
     </row>
-    <row r="238" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E238" s="80" t="s">
         <v>152</v>
@@ -18455,16 +18458,16 @@
       <c r="R238"/>
       <c r="S238"/>
     </row>
-    <row r="239" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E239" s="80" t="s">
         <v>152</v>
@@ -18486,7 +18489,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -18517,7 +18520,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -18548,7 +18551,7 @@
       <c r="R241"/>
       <c r="S241"/>
     </row>
-    <row r="242" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -18579,7 +18582,7 @@
       <c r="R242"/>
       <c r="S242"/>
     </row>
-    <row r="243" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -18610,7 +18613,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -18641,7 +18644,7 @@
       <c r="R244"/>
       <c r="S244"/>
     </row>
-    <row r="245" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -18669,7 +18672,7 @@
       </c>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -18697,7 +18700,7 @@
       </c>
       <c r="J246" s="65"/>
     </row>
-    <row r="247" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -18725,7 +18728,7 @@
       </c>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -18755,7 +18758,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="249" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -18781,7 +18784,7 @@
       <c r="I249" s="48"/>
       <c r="J249" s="65"/>
     </row>
-    <row r="250" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -18809,16 +18812,16 @@
       </c>
       <c r="J250" s="65"/>
     </row>
-    <row r="251" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E251" s="80" t="s">
         <v>152</v>
@@ -18837,7 +18840,7 @@
       </c>
       <c r="J251" s="65"/>
     </row>
-    <row r="252" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B252" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -18865,7 +18868,7 @@
       </c>
       <c r="J252" s="65"/>
     </row>
-    <row r="253" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B253" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -18891,7 +18894,7 @@
       <c r="I253" s="48"/>
       <c r="J253" s="65"/>
     </row>
-    <row r="254" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -18919,7 +18922,7 @@
       </c>
       <c r="J254" s="65"/>
     </row>
-    <row r="255" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B255" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -18947,16 +18950,16 @@
       </c>
       <c r="J255" s="65"/>
     </row>
-    <row r="256" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B256" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E256" s="80" t="s">
         <v>152</v>
@@ -18975,7 +18978,7 @@
       </c>
       <c r="J256" s="65"/>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B257" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -19003,7 +19006,7 @@
       </c>
       <c r="J257" s="65"/>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B258" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -19031,7 +19034,7 @@
       </c>
       <c r="J258" s="65"/>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B259" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -19061,7 +19064,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="260" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B260" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -19089,7 +19092,7 @@
       </c>
       <c r="J260" s="65"/>
     </row>
-    <row r="261" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B261" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -19117,7 +19120,7 @@
       </c>
       <c r="J261" s="65"/>
     </row>
-    <row r="262" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B262" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -19145,7 +19148,7 @@
       </c>
       <c r="J262" s="65"/>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B263" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -19173,7 +19176,7 @@
       </c>
       <c r="J263" s="65"/>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B264" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -19201,7 +19204,7 @@
       </c>
       <c r="J264" s="65"/>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B265" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -19231,7 +19234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B266" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -19259,7 +19262,7 @@
       </c>
       <c r="J266" s="65"/>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B267" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -19287,7 +19290,7 @@
       </c>
       <c r="J267" s="65"/>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B268" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -19315,16 +19318,16 @@
       </c>
       <c r="J268" s="65"/>
     </row>
-    <row r="269" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B269" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
       <c r="C269" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D269" s="26" t="s">
         <v>726</v>
-      </c>
-      <c r="D269" s="26" t="s">
-        <v>734</v>
       </c>
       <c r="E269" s="80" t="s">
         <v>169</v>
@@ -19343,16 +19346,16 @@
       </c>
       <c r="J269" s="65"/>
     </row>
-    <row r="270" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B270" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>50</v>
       </c>
       <c r="C270" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="D270" s="26" t="s">
         <v>727</v>
-      </c>
-      <c r="D270" s="26" t="s">
-        <v>735</v>
       </c>
       <c r="E270" s="80" t="s">
         <v>169</v>
@@ -19371,16 +19374,16 @@
       </c>
       <c r="J270" s="65"/>
     </row>
-    <row r="271" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B271" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>51</v>
       </c>
       <c r="C271" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="D271" s="26" t="s">
         <v>728</v>
-      </c>
-      <c r="D271" s="26" t="s">
-        <v>736</v>
       </c>
       <c r="E271" s="80" t="s">
         <v>169</v>
@@ -19399,7 +19402,7 @@
       </c>
       <c r="J271" s="65"/>
     </row>
-    <row r="272" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B272" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -19427,7 +19430,7 @@
       </c>
       <c r="J272" s="65"/>
     </row>
-    <row r="273" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B273" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -19455,7 +19458,7 @@
       </c>
       <c r="J273" s="65"/>
     </row>
-    <row r="274" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B274" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -19481,7 +19484,7 @@
       <c r="I274" s="48"/>
       <c r="J274" s="65"/>
     </row>
-    <row r="275" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B275" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -19507,7 +19510,7 @@
       <c r="I275" s="48"/>
       <c r="J275" s="65"/>
     </row>
-    <row r="276" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B276" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -19533,7 +19536,7 @@
       <c r="I276" s="48"/>
       <c r="J276" s="65"/>
     </row>
-    <row r="277" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B277" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -19559,7 +19562,7 @@
       <c r="I277" s="48"/>
       <c r="J277" s="65"/>
     </row>
-    <row r="280" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A280" s="16"/>
       <c r="B280" s="17" t="s">
         <v>288</v>
@@ -19584,7 +19587,7 @@
       <c r="T280" s="17"/>
       <c r="U280" s="17"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B282" s="29" t="s">
         <v>121</v>
       </c>
@@ -19598,7 +19601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B283" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19613,7 +19616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B284" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19628,7 +19631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B285" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19643,7 +19646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A288" s="16"/>
       <c r="B288" s="17" t="s">
         <v>289</v>
@@ -19668,7 +19671,7 @@
       <c r="T288" s="17"/>
       <c r="U288" s="17"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B290" s="29" t="s">
         <v>121</v>
       </c>
@@ -19679,7 +19682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19692,7 +19695,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B292" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19705,7 +19708,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B293" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19717,7 +19720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A296" s="16"/>
       <c r="B296" s="17" t="s">
         <v>542</v>
@@ -19742,12 +19745,12 @@
       <c r="T296" s="17"/>
       <c r="U296" s="17"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B299" s="43" t="s">
         <v>121</v>
       </c>
@@ -19776,7 +19779,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B300" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19806,7 +19809,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B301" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19836,7 +19839,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="303" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A303" s="16"/>
       <c r="B303" s="17" t="s">
         <v>286</v>
@@ -19861,7 +19864,7 @@
       <c r="T303" s="17"/>
       <c r="U303" s="17"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B305" s="37" t="s">
         <v>121</v>
       </c>
@@ -19896,7 +19899,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B306" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19932,7 +19935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B307" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19968,7 +19971,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="310" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A310" s="16"/>
       <c r="B310" s="17" t="s">
         <v>574</v>
@@ -19993,7 +19996,7 @@
       <c r="T310" s="17"/>
       <c r="U310" s="17"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B312" s="43" t="s">
         <v>121</v>
       </c>
@@ -20010,7 +20013,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20029,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B314" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20048,7 +20051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B315" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20067,7 +20070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B316" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20086,7 +20089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B317" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20105,7 +20108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B318" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20124,7 +20127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B319" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20143,7 +20146,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B320" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20162,7 +20165,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B321" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20181,7 +20184,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B322" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20200,7 +20203,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B323" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20219,7 +20222,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20238,7 +20241,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20257,7 +20260,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B326" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20276,7 +20279,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="329" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A329" s="16"/>
       <c r="B329" s="17" t="s">
         <v>302</v>
@@ -20301,7 +20304,7 @@
       <c r="T329" s="17"/>
       <c r="U329" s="17"/>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B331" s="29" t="s">
         <v>121</v>
       </c>
@@ -20330,7 +20333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B332" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20358,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B333" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20386,7 +20389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B334" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20417,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B335" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20448,7 +20451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A338" s="16"/>
       <c r="B338" s="17" t="s">
         <v>69</v>
@@ -20473,7 +20476,7 @@
       <c r="T338" s="17"/>
       <c r="U338" s="17"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B340" s="43" t="s">
         <v>121</v>
       </c>
@@ -20485,7 +20488,7 @@
       </c>
       <c r="E340" s="2"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B341" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20499,7 +20502,7 @@
       </c>
       <c r="E341" s="2"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B342" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20513,7 +20516,7 @@
       </c>
       <c r="E342" s="2"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B343" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20527,7 +20530,7 @@
       </c>
       <c r="E343" s="2"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B344" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20541,7 +20544,7 @@
       </c>
       <c r="E344" s="2"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B345" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20555,7 +20558,7 @@
       </c>
       <c r="E345" s="2"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B346" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20569,7 +20572,7 @@
       </c>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B347" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20583,7 +20586,7 @@
       </c>
       <c r="E347" s="2"/>
     </row>
-    <row r="350" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A350" s="16"/>
       <c r="B350" s="17" t="s">
         <v>437</v>
@@ -20608,7 +20611,7 @@
       <c r="T350" s="17"/>
       <c r="U350" s="17"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B352" s="2" t="s">
         <v>121</v>
       </c>
@@ -20625,7 +20628,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20643,7 +20646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20661,7 +20664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20679,7 +20682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20697,7 +20700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20715,7 +20718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20733,7 +20736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20751,7 +20754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20769,7 +20772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20787,7 +20790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20805,7 +20808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20823,7 +20826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20841,7 +20844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20859,7 +20862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20877,7 +20880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -20895,7 +20898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -20913,7 +20916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -20931,7 +20934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -20949,7 +20952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -20967,7 +20970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -20985,7 +20988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -21003,7 +21006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -21021,7 +21024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -21039,7 +21042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -21057,7 +21060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -21075,7 +21078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -21093,7 +21096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -21111,7 +21114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -21129,7 +21132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -21147,7 +21150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -21165,7 +21168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -21183,7 +21186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -21201,7 +21204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -21219,7 +21222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -21237,7 +21240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -21255,7 +21258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -21273,7 +21276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -21291,7 +21294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -21309,7 +21312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -21327,7 +21330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -21345,7 +21348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -21363,7 +21366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -21381,7 +21384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -21399,7 +21402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -21417,7 +21420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -21435,7 +21438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -21453,7 +21456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -21471,7 +21474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -21489,7 +21492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -21575,19 +21578,19 @@
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="61" t="s">
         <v>121</v>
       </c>
@@ -21604,7 +21607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21622,7 +21625,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21640,12 +21643,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>121</v>
       </c>
@@ -21659,7 +21662,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21674,7 +21677,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21689,7 +21692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21704,7 +21707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21719,7 +21722,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21734,7 +21737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21766,18 +21769,18 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E28"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -21785,10 +21788,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>121</v>
       </c>
@@ -21802,7 +21805,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21817,7 +21820,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21832,7 +21835,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21847,7 +21850,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21862,7 +21865,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21877,7 +21880,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21892,7 +21895,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21907,7 +21910,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21922,7 +21925,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21937,7 +21940,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21952,7 +21955,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21967,7 +21970,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21982,7 +21985,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -21997,7 +22000,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22012,7 +22015,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22027,7 +22030,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22042,7 +22045,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22057,7 +22060,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22072,7 +22075,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22087,7 +22090,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22102,7 +22105,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22117,7 +22120,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22132,7 +22135,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22147,7 +22150,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22162,7 +22165,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22197,9 +22200,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -22228,7 +22231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -22258,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -22288,7 +22291,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -22318,7 +22321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -22348,7 +22351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -22378,7 +22381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22408,7 +22411,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -22438,7 +22441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -22468,7 +22471,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -22498,7 +22501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -22528,7 +22531,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -22558,7 +22561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22588,7 +22591,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22618,7 +22621,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22648,7 +22651,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22678,7 +22681,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22708,7 +22711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22738,7 +22741,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22768,7 +22771,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22798,7 +22801,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22828,7 +22831,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22858,7 +22861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22888,7 +22891,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22918,7 +22921,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22948,7 +22951,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22978,7 +22981,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -23008,7 +23011,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -23038,7 +23041,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -23068,7 +23071,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -23098,7 +23101,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -23128,7 +23131,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -23158,7 +23161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -23188,7 +23191,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -23218,7 +23221,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -23248,7 +23251,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -23278,7 +23281,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -23308,7 +23311,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -23338,7 +23341,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -23368,7 +23371,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -23398,7 +23401,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -23428,7 +23431,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -23458,7 +23461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -23488,7 +23491,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -23518,7 +23521,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -23548,7 +23551,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -23578,7 +23581,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -23608,7 +23611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -23638,7 +23641,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -23668,7 +23671,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -23698,7 +23701,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -23728,7 +23731,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -23758,7 +23761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -23788,7 +23791,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -23818,7 +23821,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -23848,7 +23851,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -23878,7 +23881,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -23908,7 +23911,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -23938,7 +23941,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -23968,7 +23971,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -23998,7 +24001,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -24028,7 +24031,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -24058,7 +24061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -24088,7 +24091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -24118,7 +24121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -24148,7 +24151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -24178,7 +24181,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -24208,7 +24211,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -24238,7 +24241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -24268,7 +24271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -24298,7 +24301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -24328,7 +24331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -24358,7 +24361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -24388,7 +24391,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -24418,7 +24421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -24448,7 +24451,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -24478,7 +24481,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -24508,7 +24511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -24538,7 +24541,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -24568,7 +24571,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -24598,7 +24601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -24628,7 +24631,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -24658,7 +24661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -24688,7 +24691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -24718,7 +24721,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -24748,7 +24751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -24778,7 +24781,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -24808,7 +24811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -24838,7 +24841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -24868,7 +24871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -24898,7 +24901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -24928,7 +24931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -24958,7 +24961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -24988,7 +24991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -25018,7 +25021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -25048,7 +25051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -25078,7 +25081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -25108,7 +25111,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -25138,7 +25141,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -25168,7 +25171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -25198,7 +25201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -25228,7 +25231,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AF8AE-4012-4F4E-B409-84FD957B6139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEA87E-201C-4B44-AE0C-643CA9AA6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-5760" windowWidth="14610" windowHeight="15585" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43155" yWindow="-4095" windowWidth="14400" windowHeight="12585" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="739">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2480,9 +2480,6 @@
   </si>
   <si>
     <t>Population-Driven Demographic Composition SW Dust Asthma Incidence</t>
-  </si>
-  <si>
-    <t>Asthma Incidence</t>
   </si>
   <si>
     <t>New Asthma Cases</t>
@@ -9925,9 +9922,9 @@
   </sheetPr>
   <dimension ref="A1:U401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F211" sqref="F211"/>
+      <selection pane="topRight" activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14789,13 +14786,13 @@
         <v>99</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E154" s="47" t="s">
         <v>692</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G154" s="28" t="s">
         <v>694</v>
@@ -14838,13 +14835,13 @@
         <v>99</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E155" s="47" t="s">
         <v>688</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G155" s="28" t="s">
         <v>695</v>
@@ -14936,13 +14933,13 @@
         <v>99</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E157" s="47" t="s">
         <v>693</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G157" s="28" t="s">
         <v>694</v>
@@ -14985,13 +14982,13 @@
         <v>99</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E158" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G158" s="28" t="s">
         <v>697</v>
@@ -16994,16 +16991,16 @@
         <v>20</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E199" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F199" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="G199" s="28" t="s">
         <v>724</v>
-      </c>
-      <c r="G199" s="28" t="s">
-        <v>737</v>
       </c>
       <c r="H199" s="28" t="s">
         <v>87</v>
@@ -17015,7 +17012,7 @@
         <v>722</v>
       </c>
       <c r="K199" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L199" s="28" t="s">
         <v>92</v>
@@ -17436,13 +17433,13 @@
         <v>103</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E208" s="47" t="s">
         <v>110</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G208" s="28" t="s">
         <v>562</v>
@@ -17583,16 +17580,16 @@
         <v>103</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E211" s="47" t="s">
         <v>690</v>
       </c>
       <c r="F211" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>87</v>
@@ -18818,10 +18815,10 @@
         <v>31</v>
       </c>
       <c r="C251" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="D251" s="26" t="s">
         <v>729</v>
-      </c>
-      <c r="D251" s="26" t="s">
-        <v>730</v>
       </c>
       <c r="E251" s="80" t="s">
         <v>152</v>
@@ -19327,7 +19324,7 @@
         <v>719</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E269" s="80" t="s">
         <v>169</v>
@@ -19355,7 +19352,7 @@
         <v>720</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E270" s="80" t="s">
         <v>169</v>
@@ -19383,7 +19380,7 @@
         <v>721</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E271" s="80" t="s">
         <v>169</v>

--- a/inst/extdata/fredi/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/FrEDI_config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEA87E-201C-4B44-AE0C-643CA9AA6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D55B54A-B161-44F1-9116-E6A1C1710F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43155" yWindow="-4095" windowWidth="14400" windowHeight="12585" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="740">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2017,18 +2017,6 @@
     <t>Road Miles and Population Adjustment Factor (Reactive Adaptation)</t>
   </si>
   <si>
-    <t>SWDust_65plus</t>
-  </si>
-  <si>
-    <t>SWDust_30plus</t>
-  </si>
-  <si>
-    <t>SWDust 65+ Population Proportion Adjustment Factor</t>
-  </si>
-  <si>
-    <t>SWDust 30+ Population Proportion Adjustment Factor</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -2525,6 +2513,21 @@
   </si>
   <si>
     <t>Morbidity (other than new childhood asthma)</t>
+  </si>
+  <si>
+    <t>30TO99_pop</t>
+  </si>
+  <si>
+    <t>30-99 Population Proportion Adjustment Factor BenMAP</t>
+  </si>
+  <si>
+    <t>65TO99_pop</t>
+  </si>
+  <si>
+    <t>65-99 Population Proportion Adjustment Factor BenMAP</t>
+  </si>
+  <si>
+    <t>New Childhood Asthma Cases</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3362,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3607,6 +3610,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -8889,13 +8895,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>76</v>
       </c>
@@ -8903,7 +8909,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="78" t="s">
         <v>81</v>
       </c>
@@ -8911,7 +8917,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
         <v>238</v>
       </c>
@@ -8919,7 +8925,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
         <v>165</v>
       </c>
@@ -8927,79 +8933,79 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B25" s="79" t="s">
         <v>170</v>
       </c>
@@ -9007,55 +9013,55 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
         <v>222</v>
       </c>
@@ -9063,88 +9069,88 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="59" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9172,18 +9178,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" customWidth="1"/>
-    <col min="16" max="16" width="60.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="60.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -9191,10 +9197,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9285,7 +9291,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9337,7 +9343,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9384,7 +9390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9431,7 +9437,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9478,7 +9484,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9525,7 +9531,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9572,7 +9578,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9622,7 +9628,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9669,13 +9675,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -9716,7 +9722,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9763,7 +9769,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9810,7 +9816,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9857,7 +9863,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9922,26 +9928,26 @@
   </sheetPr>
   <dimension ref="A1:U401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F192" sqref="F192"/>
+      <selection pane="topRight" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" style="2" customWidth="1"/>
-    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
+    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="2"/>
+    <col min="23" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>285</v>
@@ -9966,7 +9972,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -9975,7 +9981,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -9984,7 +9990,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -9993,7 +9999,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -10002,7 +10008,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -10011,7 +10017,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -10020,7 +10026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -10029,7 +10035,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -10038,7 +10044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -10047,7 +10053,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -10056,7 +10062,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -10065,7 +10071,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -10074,7 +10080,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -10083,7 +10089,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C16" s="53" t="s">
         <v>284</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>74</v>
@@ -10122,7 +10128,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>121</v>
       </c>
@@ -10151,10 +10157,10 @@
         <v>294</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>383</v>
@@ -10166,7 +10172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10227,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10288,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10349,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10410,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10471,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10532,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10593,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10654,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10715,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10776,16 +10782,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E31" s="12">
         <v>1</v>
@@ -10837,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10898,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10959,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -11020,16 +11026,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -11081,16 +11087,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E36" s="12">
         <v>1</v>
@@ -11142,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11203,16 +11209,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C38" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>618</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>622</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
@@ -11264,16 +11270,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E39" s="12">
         <v>1</v>
@@ -11325,16 +11331,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E40" s="12">
         <v>1</v>
@@ -11386,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11447,7 +11453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11508,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11569,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11596,7 +11602,7 @@
         <f ca="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</f>
-        <v>2010, 2090</v>
+        <v>NA</v>
       </c>
       <c r="I44" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="I44" ca="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
@@ -11606,7 +11612,7 @@
       </c>
       <c r="J44" s="21">
         <f ca="1" xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="90" t="b" cm="1">
         <f t="array" ref="K44" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[physicalmeasure] = "N/A", 0, 1) ) &gt;= 1</f>
@@ -11627,10 +11633,10 @@
       </c>
       <c r="O44" s="90" cm="1">
         <f t="array" ref="O44" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11691,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11752,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11813,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11874,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11935,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -11996,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12057,7 +12063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>287</v>
@@ -12082,7 +12088,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B55" s="29" t="s">
         <v>121</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12117,7 +12123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12135,7 +12141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12153,7 +12159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12171,7 +12177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12189,7 +12195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12207,7 +12213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12225,7 +12231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12243,7 +12249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12261,7 +12267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12279,13 +12285,13 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>203</v>
@@ -12293,7 +12299,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12311,7 +12317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12329,7 +12335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12347,13 +12353,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>203</v>
@@ -12361,13 +12367,13 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>203</v>
@@ -12375,7 +12381,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12393,13 +12399,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>203</v>
@@ -12407,13 +12413,13 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>203</v>
@@ -12421,13 +12427,13 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>203</v>
@@ -12435,7 +12441,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12453,7 +12459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12471,7 +12477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12489,7 +12495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12498,16 +12504,12 @@
         <v>20</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="80">
-        <v>2010</v>
-      </c>
-      <c r="F79" s="27">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="E79" s="80"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12525,7 +12527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12543,7 +12545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12561,7 +12563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12579,7 +12581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12597,7 +12599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12615,7 +12617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12633,7 +12635,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>376</v>
@@ -12658,7 +12660,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>377</v>
       </c>
@@ -12672,7 +12674,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>378</v>
       </c>
@@ -12686,7 +12688,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>379</v>
       </c>
@@ -12700,7 +12702,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="43" t="s">
         <v>121</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>136</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -12732,7 +12734,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12766,7 +12768,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12800,7 +12802,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12834,7 +12836,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12868,7 +12870,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12880,7 +12882,7 @@
         <v>386</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F97" s="60">
         <v>0</v>
@@ -12902,7 +12904,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12914,7 +12916,7 @@
         <v>387</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F98" s="60">
         <v>0</v>
@@ -12936,7 +12938,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12970,7 +12972,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -13004,7 +13006,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -13038,7 +13040,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -13072,7 +13074,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -13084,7 +13086,7 @@
         <v>386</v>
       </c>
       <c r="E103" s="47" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F103" s="60">
         <v>0</v>
@@ -13106,7 +13108,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -13118,7 +13120,7 @@
         <v>387</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F104" s="60">
         <v>0</v>
@@ -13140,7 +13142,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13174,7 +13176,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13208,7 +13210,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13242,7 +13244,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13276,7 +13278,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13310,7 +13312,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13344,7 +13346,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13378,7 +13380,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13412,7 +13414,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13446,19 +13448,19 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D114" s="26" t="s">
-        <v>661</v>
-      </c>
       <c r="E114" s="47" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F114" s="60">
         <v>1</v>
@@ -13480,19 +13482,19 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F115" s="60">
         <v>0</v>
@@ -13514,7 +13516,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13548,7 +13550,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13582,7 +13584,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13616,7 +13618,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13650,7 +13652,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13684,19 +13686,19 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F121" s="60">
         <v>1</v>
@@ -13718,19 +13720,19 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D122" s="26" t="s">
         <v>118</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F122" s="60">
         <v>0</v>
@@ -13752,13 +13754,13 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D123" s="26" t="s">
         <v>38</v>
@@ -13786,7 +13788,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13820,19 +13822,19 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F125" s="60">
         <v>0</v>
@@ -13854,19 +13856,19 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E126" s="47" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F126" s="60">
         <v>1</v>
@@ -13888,19 +13890,19 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F127" s="60">
         <v>0</v>
@@ -13922,19 +13924,19 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E128" s="47" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F128" s="60">
         <v>0</v>
@@ -13956,19 +13958,19 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E129" s="47" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F129" s="60">
         <v>1</v>
@@ -13990,19 +13992,19 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
       <c r="C130" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D130" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="D130" s="26" t="s">
-        <v>621</v>
-      </c>
       <c r="E130" s="47" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F130" s="60">
         <v>0</v>
@@ -14024,13 +14026,13 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D131" s="26" t="s">
         <v>118</v>
@@ -14058,19 +14060,19 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D132" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E132" s="47" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F132" s="60">
         <v>1</v>
@@ -14092,7 +14094,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -14126,7 +14128,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14160,7 +14162,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14194,7 +14196,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14228,7 +14230,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14262,7 +14264,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14296,7 +14298,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14330,7 +14332,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14364,7 +14366,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14398,7 +14400,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14432,7 +14434,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14466,7 +14468,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14500,7 +14502,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14534,7 +14536,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14568,7 +14570,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14602,7 +14604,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14627,12 +14629,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B151" s="29" t="s">
         <v>121</v>
       </c>
@@ -14679,7 +14681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14688,13 +14690,13 @@
         <v>99</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E152" s="47" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G152" s="28" t="s">
         <v>281</v>
@@ -14728,7 +14730,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14737,13 +14739,13 @@
         <v>99</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E153" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G153" s="28" t="s">
         <v>281</v>
@@ -14777,7 +14779,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14786,28 +14788,28 @@
         <v>99</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E154" s="47" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I154" s="32" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J154" s="32" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K154" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L154" s="28" t="s">
         <v>91</v>
@@ -14826,7 +14828,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14835,28 +14837,28 @@
         <v>99</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E155" s="47" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H155" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I155" s="32" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J155" s="32" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K155" s="28" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L155" s="28" t="s">
         <v>92</v>
@@ -14875,7 +14877,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14884,28 +14886,28 @@
         <v>99</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E156" s="47" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>92</v>
@@ -14924,7 +14926,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14933,28 +14935,28 @@
         <v>99</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E157" s="47" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J157" s="32" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>91</v>
@@ -14973,7 +14975,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14982,28 +14984,28 @@
         <v>99</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E158" s="47" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I158" s="32" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J158" s="32" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="K158" s="28" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L158" s="28" t="s">
         <v>92</v>
@@ -15022,7 +15024,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -15071,7 +15073,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -15120,7 +15122,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -15169,7 +15171,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15218,7 +15220,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15267,7 +15269,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15316,7 +15318,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15365,7 +15367,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15414,7 +15416,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15463,7 +15465,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15512,7 +15514,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15561,7 +15563,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15610,7 +15612,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15659,7 +15661,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15708,13 +15710,13 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>38</v>
@@ -15723,7 +15725,7 @@
         <v>203</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G173" s="28" t="s">
         <v>38</v>
@@ -15735,7 +15737,7 @@
         <v>91</v>
       </c>
       <c r="J173" s="28" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K173" s="28" t="s">
         <v>92</v>
@@ -15757,7 +15759,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15806,7 +15808,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15855,7 +15857,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15904,22 +15906,22 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E177" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="F177" s="32" t="s">
         <v>676</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>680</v>
       </c>
       <c r="G177" s="28" t="s">
         <v>38</v>
@@ -15928,7 +15930,7 @@
         <v>87</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>91</v>
@@ -15953,22 +15955,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
       <c r="C178" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="E178" s="28" t="s">
         <v>673</v>
       </c>
-      <c r="D178" s="28" t="s">
+      <c r="F178" s="32" t="s">
         <v>679</v>
-      </c>
-      <c r="E178" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="F178" s="32" t="s">
-        <v>683</v>
       </c>
       <c r="G178" s="28" t="s">
         <v>38</v>
@@ -15977,7 +15979,7 @@
         <v>87</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>91</v>
@@ -16002,13 +16004,13 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>38</v>
@@ -16017,10 +16019,10 @@
         <v>203</v>
       </c>
       <c r="F179" s="32" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H179" s="28" t="s">
         <v>87</v>
@@ -16032,7 +16034,7 @@
         <v>91</v>
       </c>
       <c r="K179" s="28" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="L179" s="28" t="s">
         <v>91</v>
@@ -16051,7 +16053,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -16100,25 +16102,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G181" s="28" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H181" s="28" t="s">
         <v>91</v>
@@ -16149,25 +16151,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>91</v>
@@ -16198,25 +16200,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E183" s="47" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G183" s="28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H183" s="28" t="s">
         <v>91</v>
@@ -16247,22 +16249,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E184" s="47" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G184" s="28" t="s">
         <v>38</v>
@@ -16296,22 +16298,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E185" s="47" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F185" s="32" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G185" s="28" t="s">
         <v>38</v>
@@ -16345,22 +16347,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E186" s="47" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G186" s="28" t="s">
         <v>38</v>
@@ -16369,13 +16371,13 @@
         <v>87</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J186" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K186" s="28" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L186" s="28" t="s">
         <v>91</v>
@@ -16394,22 +16396,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C187" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D187" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="D187" s="28" t="s">
-        <v>634</v>
-      </c>
       <c r="E187" s="47" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F187" s="32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G187" s="28" t="s">
         <v>38</v>
@@ -16418,13 +16420,13 @@
         <v>87</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K187" s="28" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L187" s="28" t="s">
         <v>91</v>
@@ -16443,22 +16445,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F188" s="32" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G188" s="28" t="s">
         <v>38</v>
@@ -16467,13 +16469,13 @@
         <v>87</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K188" s="28" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L188" s="28" t="s">
         <v>91</v>
@@ -16492,22 +16494,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F189" s="32" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>38</v>
@@ -16516,7 +16518,7 @@
         <v>87</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>91</v>
@@ -16541,31 +16543,31 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G190" s="28" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H190" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J190" s="28" t="s">
         <v>91</v>
@@ -16590,7 +16592,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16639,7 +16641,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16688,7 +16690,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16737,7 +16739,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16760,8 +16762,8 @@
       <c r="H194" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I194" s="28" t="s">
-        <v>569</v>
+      <c r="I194" s="32" t="s">
+        <v>737</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>91</v>
@@ -16786,7 +16788,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16809,8 +16811,8 @@
       <c r="H195" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I195" s="28" t="s">
-        <v>569</v>
+      <c r="I195" s="32" t="s">
+        <v>737</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>91</v>
@@ -16835,7 +16837,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16858,8 +16860,8 @@
       <c r="H196" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I196" s="28" t="s">
-        <v>570</v>
+      <c r="I196" s="32" t="s">
+        <v>735</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>91</v>
@@ -16884,7 +16886,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16907,8 +16909,8 @@
       <c r="H197" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I197" s="28" t="s">
-        <v>569</v>
+      <c r="I197" s="32" t="s">
+        <v>737</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>91</v>
@@ -16933,7 +16935,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16982,7 +16984,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16991,28 +16993,28 @@
         <v>20</v>
 